--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.99602</v>
       </c>
       <c r="C2" t="n">
-        <v>3.14273820096816e-51</v>
+        <v>2.275855765617335e-55</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.00097</v>
       </c>
       <c r="C3" t="n">
-        <v>2.548826878961289e-51</v>
+        <v>5.506022383055266e-55</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353789121833608e-51</v>
+        <v>7.845497539554842e-55</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.00697</v>
       </c>
       <c r="C5" t="n">
-        <v>2.65336361818655e-51</v>
+        <v>7.351875042547745e-55</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.00909</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85650322908532e-51</v>
+        <v>7.211907344503644e-55</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.01003</v>
       </c>
       <c r="C7" t="n">
-        <v>4.726477206877637e-51</v>
+        <v>7.434174221144579e-55</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.280511403967383e-51</v>
+        <v>5.882738263808765e-55</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.01911</v>
       </c>
       <c r="C9" t="n">
-        <v>1.522930884663017e-50</v>
+        <v>5.797581364756026e-55</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.01992</v>
       </c>
       <c r="C10" t="n">
-        <v>2.173264392376875e-50</v>
+        <v>4.214439039486423e-55</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.02504</v>
       </c>
       <c r="C11" t="n">
-        <v>1.879956855180486e-50</v>
+        <v>4.623919554604344e-55</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.02998</v>
       </c>
       <c r="C12" t="n">
-        <v>1.244680434101737e-50</v>
+        <v>3.148623251084712e-55</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.03514</v>
       </c>
       <c r="C13" t="n">
-        <v>5.284752268030133e-51</v>
+        <v>2.446153142826941e-55</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.26996</v>
       </c>
       <c r="C14" t="n">
-        <v>3.847663827244804e-51</v>
+        <v>5.696715470578512e-58</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.29005</v>
       </c>
       <c r="C15" t="n">
-        <v>4.657144811911167e-51</v>
+        <v>2.548455862310541e-58</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291119999999999</v>
       </c>
       <c r="C16" t="n">
-        <v>1.951223756200955e-51</v>
+        <v>2.530816548975705e-58</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.29319</v>
       </c>
       <c r="C17" t="n">
-        <v>1.318748764922061e-51</v>
+        <v>2.073883534038187e-58</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.2942</v>
       </c>
       <c r="C18" t="n">
-        <v>6.748944539422903e-52</v>
+        <v>2.06685800087322e-58</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.29515</v>
       </c>
       <c r="C19" t="n">
-        <v>2.755192790626891e-52</v>
+        <v>2.590602785332212e-58</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.29615</v>
       </c>
       <c r="C20" t="n">
-        <v>2.014319951108985e-52</v>
+        <v>2.071248158372471e-58</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.893951862863446e-52</v>
+        <v>2.340299014189967e-58</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298080000000001</v>
       </c>
       <c r="C22" t="n">
-        <v>2.004915054412985e-52</v>
+        <v>4.34690496170491e-58</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299090000000001</v>
       </c>
       <c r="C23" t="n">
-        <v>2.252923987109806e-52</v>
+        <v>4.735245137456436e-58</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.30105</v>
       </c>
       <c r="C24" t="n">
-        <v>1.96615439905775e-52</v>
+        <v>5.955390128786631e-58</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.3031</v>
       </c>
       <c r="C25" t="n">
-        <v>3.655386085675016e-52</v>
+        <v>6.162138854794539e-58</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.30523</v>
       </c>
       <c r="C26" t="n">
-        <v>4.902702938216329e-52</v>
+        <v>5.099310174957792e-58</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>9.414107746675783e-52</v>
+        <v>5.869354606266187e-58</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.3093</v>
       </c>
       <c r="C28" t="n">
-        <v>1.84297353497064e-51</v>
+        <v>5.063577551710286e-58</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.30996</v>
       </c>
       <c r="C29" t="n">
-        <v>1.423731843858159e-51</v>
+        <v>5.17810891076363e-58</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.31117</v>
       </c>
       <c r="C30" t="n">
-        <v>6.083022060491366e-52</v>
+        <v>4.913404972090776e-58</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.31311</v>
       </c>
       <c r="C31" t="n">
-        <v>2.483613445438357e-52</v>
+        <v>4.647187455837823e-58</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.31513</v>
       </c>
       <c r="C32" t="n">
-        <v>9.71640047416159e-53</v>
+        <v>4.15719359118704e-58</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.3172</v>
       </c>
       <c r="C33" t="n">
-        <v>7.918895963960294e-53</v>
+        <v>3.63568386995096e-58</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.31917</v>
       </c>
       <c r="C34" t="n">
-        <v>4.334234487051302e-53</v>
+        <v>4.10743582675301e-58</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.03387799818346e-53</v>
+        <v>3.4024833314682e-58</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.715253896800867e-53</v>
+        <v>3.136233302665112e-58</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.32521</v>
       </c>
       <c r="C37" t="n">
-        <v>1.733686545919102e-53</v>
+        <v>1.91971052141226e-58</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.32711</v>
       </c>
       <c r="C38" t="n">
-        <v>2.908737314066157e-53</v>
+        <v>1.858967213014995e-58</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.32908</v>
       </c>
       <c r="C39" t="n">
-        <v>1.195626241310094e-53</v>
+        <v>1.449420970481858e-58</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.33012</v>
       </c>
       <c r="C40" t="n">
-        <v>4.178981520312477e-54</v>
+        <v>1.721341246187033e-58</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.33119</v>
       </c>
       <c r="C41" t="n">
-        <v>2.836011117718309e-54</v>
+        <v>2.516079526835696e-58</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.33324</v>
       </c>
       <c r="C42" t="n">
-        <v>1.583304133341031e-54</v>
+        <v>2.427861157457187e-58</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.33515</v>
       </c>
       <c r="C43" t="n">
-        <v>1.241393111842493e-54</v>
+        <v>2.147857445636318e-58</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.34004</v>
       </c>
       <c r="C44" t="n">
-        <v>1.370949798303655e-54</v>
+        <v>1.686499780757296e-58</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.34488</v>
       </c>
       <c r="C45" t="n">
-        <v>2.797437241463757e-54</v>
+        <v>1.549394671351657e-58</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.34998</v>
       </c>
       <c r="C46" t="n">
-        <v>2.871041739609195e-54</v>
+        <v>1.298846281911255e-58</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.37005</v>
       </c>
       <c r="C47" t="n">
-        <v>2.546471102994925e-54</v>
+        <v>4.901722621803356e-59</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.39015</v>
       </c>
       <c r="C48" t="n">
-        <v>2.336264209452088e-54</v>
+        <v>3.65733339104067e-59</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.41003</v>
       </c>
       <c r="C49" t="n">
-        <v>1.834831351833609e-54</v>
+        <v>3.110082052038802e-59</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.42024</v>
       </c>
       <c r="C50" t="n">
-        <v>1.259528319279418e-54</v>
+        <v>3.360505567246631e-59</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.43018</v>
       </c>
       <c r="C51" t="n">
-        <v>7.439785127086913e-55</v>
+        <v>3.471623424198228e-59</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.44004</v>
       </c>
       <c r="C52" t="n">
-        <v>5.298431047303435e-55</v>
+        <v>5.514036601432169e-59</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.44994</v>
       </c>
       <c r="C53" t="n">
-        <v>4.729264231870067e-55</v>
+        <v>7.032167374369747e-59</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.45499</v>
       </c>
       <c r="C54" t="n">
-        <v>4.420803396964408e-55</v>
+        <v>1.669841540493577e-58</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.46012</v>
       </c>
       <c r="C55" t="n">
-        <v>3.819665139020251e-55</v>
+        <v>2.332729398641132e-58</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469959999999999</v>
       </c>
       <c r="C56" t="n">
-        <v>3.023601243957646e-55</v>
+        <v>1.937179670524179e-58</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477980000000001</v>
       </c>
       <c r="C57" t="n">
-        <v>2.151844386830317e-55</v>
+        <v>1.240593191427806e-58</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.48613</v>
       </c>
       <c r="C58" t="n">
-        <v>1.931849004756722e-55</v>
+        <v>5.092270203948357e-59</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.48819</v>
       </c>
       <c r="C59" t="n">
-        <v>1.770352200357377e-55</v>
+        <v>3.675972085518206e-59</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490069999999999</v>
       </c>
       <c r="C60" t="n">
-        <v>2.116371157239565e-55</v>
+        <v>4.414763366152353e-59</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.49222</v>
       </c>
       <c r="C61" t="n">
-        <v>2.172839353699718e-55</v>
+        <v>1.833246557964185e-59</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.49499</v>
       </c>
       <c r="C62" t="n">
-        <v>2.271295442846083e-55</v>
+        <v>1.224855522761704e-59</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499969999999999</v>
       </c>
       <c r="C63" t="n">
-        <v>2.428607760985098e-55</v>
+        <v>6.140244443215557e-60</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.51021</v>
       </c>
       <c r="C64" t="n">
-        <v>2.377245803542037e-55</v>
+        <v>2.402433052989773e-60</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.51218</v>
       </c>
       <c r="C65" t="n">
-        <v>2.504668455538938e-55</v>
+        <v>1.742120519199976e-60</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.51508</v>
       </c>
       <c r="C66" t="n">
-        <v>2.41549828809892e-55</v>
+        <v>1.618428207058585e-60</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.52007</v>
       </c>
       <c r="C67" t="n">
-        <v>2.238817803733836e-55</v>
+        <v>1.678144924626206e-60</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.52524</v>
       </c>
       <c r="C68" t="n">
-        <v>2.141252817144853e-55</v>
+        <v>1.845715185391353e-60</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529409999999999</v>
       </c>
       <c r="C69" t="n">
-        <v>1.929542146686685e-55</v>
+        <v>1.583150606739448e-60</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.53506</v>
       </c>
       <c r="C70" t="n">
-        <v>1.784751060395495e-55</v>
+        <v>2.875131143183874e-60</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.54024</v>
       </c>
       <c r="C71" t="n">
-        <v>1.625058550291943e-55</v>
+        <v>3.77421490515085e-60</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.5498</v>
       </c>
       <c r="C72" t="n">
-        <v>1.54417456932007e-55</v>
+        <v>6.965381987584161e-60</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.56018</v>
       </c>
       <c r="C73" t="n">
-        <v>1.369946946432589e-55</v>
+        <v>1.306117111547871e-59</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570130000000001</v>
       </c>
       <c r="C74" t="n">
-        <v>1.27562050792317e-55</v>
+        <v>9.681959075099389e-60</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580030000000001</v>
       </c>
       <c r="C75" t="n">
-        <v>8.187225428382304e-56</v>
+        <v>3.970238065939859e-60</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.59008</v>
       </c>
       <c r="C76" t="n">
-        <v>6.655127646396262e-56</v>
+        <v>1.554794524614433e-60</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.60027</v>
       </c>
       <c r="C77" t="n">
-        <v>4.99636288059407e-56</v>
+        <v>5.830878561336057e-61</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.60999</v>
       </c>
       <c r="C78" t="n">
-        <v>3.039968680360532e-56</v>
+        <v>4.564357641341684e-61</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.62023</v>
       </c>
       <c r="C79" t="n">
-        <v>2.434734232955729e-56</v>
+        <v>2.3942909934193e-61</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.62994</v>
       </c>
       <c r="C80" t="n">
-        <v>1.857531381657747e-56</v>
+        <v>1.609782114490364e-61</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.63517</v>
       </c>
       <c r="C81" t="n">
-        <v>1.646966955489306e-56</v>
+        <v>8.905820777131154e-62</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.646253412736045e-56</v>
+        <v>8.824405593219017e-62</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.64996</v>
       </c>
       <c r="C83" t="n">
-        <v>1.552521048515419e-56</v>
+        <v>1.420369433198425e-61</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.67012</v>
       </c>
       <c r="C84" t="n">
-        <v>1.333451500707539e-56</v>
+        <v>5.369920184932856e-62</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.68015</v>
       </c>
       <c r="C85" t="n">
-        <v>1.246655690498868e-56</v>
+        <v>1.800407120752527e-62</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.68993</v>
       </c>
       <c r="C86" t="n">
-        <v>1.192133227292843e-56</v>
+        <v>1.17323910741335e-62</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.247304135854898e-56</v>
+        <v>6.026215398153341e-63</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.73</v>
       </c>
       <c r="C88" t="n">
-        <v>1.259408598682586e-56</v>
+        <v>4.349001313327953e-63</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.75</v>
       </c>
       <c r="C89" t="n">
-        <v>1.235863993772933e-56</v>
+        <v>4.420441277638805e-63</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.75518</v>
       </c>
       <c r="C90" t="n">
-        <v>1.150075374795142e-56</v>
+        <v>8.828177716655778e-63</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.75888</v>
       </c>
       <c r="C91" t="n">
-        <v>1.052512957539092e-56</v>
+        <v>8.922437953923847e-63</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.77004</v>
       </c>
       <c r="C92" t="n">
-        <v>8.803992319541459e-57</v>
+        <v>7.555698501080386e-63</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.77502</v>
       </c>
       <c r="C93" t="n">
-        <v>6.700746417192099e-57</v>
+        <v>6.790235330722635e-63</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780180000000001</v>
       </c>
       <c r="C94" t="n">
-        <v>3.276609093416926e-57</v>
+        <v>5.219894192728939e-63</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.79012</v>
       </c>
       <c r="C95" t="n">
-        <v>2.441939437927287e-57</v>
+        <v>3.438456430815937e-63</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799919999999999</v>
       </c>
       <c r="C96" t="n">
-        <v>1.743605700675183e-57</v>
+        <v>1.950106258390372e-63</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.81003</v>
       </c>
       <c r="C97" t="n">
-        <v>1.060573365794542e-57</v>
+        <v>1.331769009817188e-63</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.649580166607306e-58</v>
+        <v>1.17824973015716e-63</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.763058262798604e-58</v>
+        <v>1.087279881136709e-63</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.82006</v>
       </c>
       <c r="C100" t="n">
-        <v>7.352944767060111e-58</v>
+        <v>9.209473183866948e-64</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.82989</v>
       </c>
       <c r="C101" t="n">
-        <v>6.641795834828758e-58</v>
+        <v>6.998778550876104e-64</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>6.428817971381677e-58</v>
+        <v>4.581632086533178e-64</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.86629</v>
       </c>
       <c r="C103" t="n">
-        <v>6.390713108625794e-58</v>
+        <v>3.844900909367468e-64</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.88989</v>
       </c>
       <c r="C104" t="n">
-        <v>6.32395083279482e-58</v>
+        <v>3.194839242325819e-64</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.89991</v>
       </c>
       <c r="C105" t="n">
-        <v>5.905835011221605e-58</v>
+        <v>3.663760416808038e-64</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.522986822658441e-58</v>
+        <v>3.605357924701809e-64</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.91996</v>
       </c>
       <c r="C107" t="n">
-        <v>5.259736577473202e-58</v>
+        <v>3.618117256055996e-64</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.92615</v>
       </c>
       <c r="C108" t="n">
-        <v>4.507238683048148e-58</v>
+        <v>3.770623786986494e-64</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930190000000001</v>
       </c>
       <c r="C109" t="n">
-        <v>4.444964516196122e-58</v>
+        <v>3.629531875071425e-64</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.93692</v>
       </c>
       <c r="C110" t="n">
-        <v>4.394467244745192e-58</v>
+        <v>3.718781077948877e-64</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.94675</v>
       </c>
       <c r="C111" t="n">
-        <v>4.060197611952264e-58</v>
+        <v>3.443065942727123e-64</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.95027</v>
       </c>
       <c r="C112" t="n">
-        <v>3.171896816290649e-58</v>
+        <v>3.144959078120419e-64</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.95676</v>
       </c>
       <c r="C113" t="n">
-        <v>2.438843040617213e-58</v>
+        <v>2.927995930948967e-64</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869999999999</v>
       </c>
       <c r="C114" t="n">
-        <v>2.062850452109578e-58</v>
+        <v>2.583149599853001e-64</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.96475</v>
       </c>
       <c r="C115" t="n">
-        <v>1.942794685948158e-58</v>
+        <v>2.360933391875147e-64</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.96787</v>
       </c>
       <c r="C116" t="n">
-        <v>2.188925054435681e-58</v>
+        <v>2.12203949276288e-64</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.97004</v>
       </c>
       <c r="C117" t="n">
-        <v>3.35149557714339e-58</v>
+        <v>1.99834709940323e-64</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>3.848024951557345e-58</v>
+        <v>1.752690734468416e-64</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.97463</v>
       </c>
       <c r="C119" t="n">
-        <v>3.792662503034426e-58</v>
+        <v>1.619666980751637e-64</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.98471</v>
       </c>
       <c r="C120" t="n">
-        <v>3.579163447367186e-58</v>
+        <v>9.969623850157706e-65</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990069999999999</v>
       </c>
       <c r="C121" t="n">
-        <v>3.469122678173698e-58</v>
+        <v>7.925756585483477e-65</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669999999999</v>
       </c>
       <c r="C122" t="n">
-        <v>3.411161595516853e-58</v>
+        <v>5.837810628599795e-65</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.00464</v>
       </c>
       <c r="C123" t="n">
-        <v>2.841881839556776e-58</v>
+        <v>3.408012085691925e-65</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.462438893558955e-58</v>
+        <v>2.669585982279906e-65</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.01484</v>
       </c>
       <c r="C125" t="n">
-        <v>1.189104587847518e-58</v>
+        <v>1.996134258517906e-65</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.01774</v>
       </c>
       <c r="C126" t="n">
-        <v>4.759951127082813e-59</v>
+        <v>1.748691644380078e-65</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.01786</v>
       </c>
       <c r="C127" t="n">
-        <v>2.637732590632167e-59</v>
+        <v>1.747064024123178e-65</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019819999999999</v>
       </c>
       <c r="C128" t="n">
-        <v>1.863968803387561e-59</v>
+        <v>1.634248474446251e-65</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.0248</v>
       </c>
       <c r="C129" t="n">
-        <v>2.073389676883979e-59</v>
+        <v>1.374943393093584e-65</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027830000000001</v>
       </c>
       <c r="C130" t="n">
-        <v>2.121570811673147e-59</v>
+        <v>1.269388745384702e-65</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.0301</v>
       </c>
       <c r="C131" t="n">
-        <v>2.70895110861455e-59</v>
+        <v>1.202493704535007e-65</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032780000000001</v>
       </c>
       <c r="C132" t="n">
-        <v>2.834720210213265e-59</v>
+        <v>1.244232493740287e-65</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.0359</v>
       </c>
       <c r="C133" t="n">
-        <v>2.604679477382673e-59</v>
+        <v>1.240149932106275e-65</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.03871</v>
       </c>
       <c r="C134" t="n">
-        <v>2.220882872812072e-59</v>
+        <v>1.202860164239741e-65</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041980000000001</v>
       </c>
       <c r="C135" t="n">
-        <v>1.774898608440747e-59</v>
+        <v>1.104279117476656e-65</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.04479</v>
       </c>
       <c r="C136" t="n">
-        <v>1.755076533267571e-59</v>
+        <v>9.988883070716789e-66</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.04997</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39813495881055e-59</v>
+        <v>8.177786620468377e-66</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.05484</v>
       </c>
       <c r="C138" t="n">
-        <v>1.049696532343623e-59</v>
+        <v>6.099644212821678e-66</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.06488</v>
       </c>
       <c r="C139" t="n">
-        <v>8.459233032144786e-60</v>
+        <v>2.860986535245611e-66</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.06991</v>
       </c>
       <c r="C140" t="n">
-        <v>7.772253907620348e-60</v>
+        <v>2.088156204277949e-66</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.07448</v>
       </c>
       <c r="C141" t="n">
-        <v>6.857342138303629e-60</v>
+        <v>1.462992560447267e-66</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.08419</v>
       </c>
       <c r="C142" t="n">
-        <v>6.453651281265883e-60</v>
+        <v>8.547498059605058e-67</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.08999</v>
       </c>
       <c r="C143" t="n">
-        <v>5.674113637942426e-60</v>
+        <v>6.805230562466347e-67</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093719999999999</v>
       </c>
       <c r="C144" t="n">
-        <v>5.525258099629811e-60</v>
+        <v>6.013951511723724e-67</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>5.689646983429972e-60</v>
+        <v>5.624849255513026e-67</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.09889</v>
       </c>
       <c r="C146" t="n">
-        <v>5.765762073059018e-60</v>
+        <v>5.036133771765714e-67</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.09999</v>
       </c>
       <c r="C147" t="n">
-        <v>5.743238275462744e-60</v>
+        <v>4.852447862194911e-67</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.10043</v>
       </c>
       <c r="C148" t="n">
-        <v>5.913117503998764e-60</v>
+        <v>4.814888953314487e-67</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100709999999999</v>
       </c>
       <c r="C149" t="n">
-        <v>5.883697652896746e-60</v>
+        <v>4.759057286063106e-67</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.10288</v>
       </c>
       <c r="C150" t="n">
-        <v>5.606254040098362e-60</v>
+        <v>4.404573255014369e-67</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.10486</v>
       </c>
       <c r="C151" t="n">
-        <v>5.062705788126196e-60</v>
+        <v>4.08534706262059e-67</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.1069</v>
       </c>
       <c r="C152" t="n">
-        <v>4.001578035454948e-60</v>
+        <v>3.857831531081123e-67</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.10878</v>
       </c>
       <c r="C153" t="n">
-        <v>3.91289864144579e-60</v>
+        <v>3.280215864772904e-67</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110040000000001</v>
       </c>
       <c r="C154" t="n">
-        <v>3.148898439329501e-60</v>
+        <v>3.218028527331466e-67</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.923639145780896e-60</v>
+        <v>3.172112200422558e-67</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.11384</v>
       </c>
       <c r="C156" t="n">
-        <v>2.827005909183792e-60</v>
+        <v>2.893489410905267e-67</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.1188</v>
       </c>
       <c r="C157" t="n">
-        <v>3.309521910503065e-60</v>
+        <v>2.214403788175736e-67</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123769999999999</v>
       </c>
       <c r="C158" t="n">
-        <v>2.78631213840008e-60</v>
+        <v>1.667887048359494e-67</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.12852</v>
       </c>
       <c r="C159" t="n">
-        <v>2.656394703617278e-60</v>
+        <v>1.383222192754339e-67</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.12994</v>
       </c>
       <c r="C160" t="n">
-        <v>2.298361051981853e-60</v>
+        <v>1.295067918157765e-67</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.13381</v>
       </c>
       <c r="C161" t="n">
-        <v>2.051019927949144e-60</v>
+        <v>1.435897827574129e-67</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.13888</v>
       </c>
       <c r="C162" t="n">
-        <v>1.856507266984668e-60</v>
+        <v>2.152762585511005e-67</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.14165</v>
       </c>
       <c r="C163" t="n">
-        <v>1.655730406084228e-60</v>
+        <v>2.443455089762919e-67</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144740000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.458504891744461e-60</v>
+        <v>2.377623567894998e-67</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.14799</v>
       </c>
       <c r="C165" t="n">
-        <v>1.420891773998488e-60</v>
+        <v>2.213729532146414e-67</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.15001</v>
       </c>
       <c r="C166" t="n">
-        <v>6.445915595283609e-61</v>
+        <v>2.127761937744491e-67</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150980000000001</v>
       </c>
       <c r="C167" t="n">
-        <v>2.344626648168497e-61</v>
+        <v>2.083809045104255e-67</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.356545474489461e-61</v>
+        <v>1.692944393433141e-67</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.15937</v>
       </c>
       <c r="C169" t="n">
-        <v>1.894992345397717e-61</v>
+        <v>1.452793637588336e-67</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.17005</v>
       </c>
       <c r="C170" t="n">
-        <v>1.163683239375549e-61</v>
+        <v>6.711432495306293e-68</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.18984</v>
       </c>
       <c r="C171" t="n">
-        <v>8.988199653420134e-62</v>
+        <v>2.474798879661624e-68</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210030000000001</v>
       </c>
       <c r="C172" t="n">
-        <v>6.993977489167769e-62</v>
+        <v>1.261216678511094e-68</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.23003</v>
       </c>
       <c r="C173" t="n">
-        <v>6.674120678309116e-62</v>
+        <v>8.202787208701255e-69</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.2395</v>
       </c>
       <c r="C174" t="n">
-        <v>7.263707637087035e-62</v>
+        <v>8.772848481494631e-69</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.24306</v>
       </c>
       <c r="C175" t="n">
-        <v>1.047112588233395e-61</v>
+        <v>8.845101005388177e-69</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.25013</v>
       </c>
       <c r="C176" t="n">
-        <v>9.097608140824187e-62</v>
+        <v>1.096750038785753e-68</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>6.088055638768363e-62</v>
+        <v>1.101896916807212e-68</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>4.943575822729207e-62</v>
+        <v>9.912788539905924e-69</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.26998</v>
+      </c>
+      <c r="C179" t="n">
+        <v>8.280685367345012e-69</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.482479920303354e-69</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.27502</v>
+      </c>
+      <c r="C181" t="n">
+        <v>6.408488101324959e-69</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279809999999999</v>
+      </c>
+      <c r="C182" t="n">
+        <v>5.004699012685033e-69</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.28495</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.678166163984805e-69</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.29016</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.900755727725941e-69</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.29294</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.634620864400618e-69</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.29767</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.279315373993098e-69</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.29972</v>
+      </c>
+      <c r="C187" t="n">
+        <v>2.12696523968383e-69</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.30238</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.849524638163689e-69</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.30823</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.757818749338114e-69</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312880000000001</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.775531749724624e-69</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.31752</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.764978646322453e-69</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.32281</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.719919084891146e-69</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.32768</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.735373221706099e-69</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.689885715745227e-69</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.33291</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.609999372265993e-69</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.33747</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.426656385383638e-69</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.34274</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.10324626059334e-69</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.34293</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.077947050362806e-69</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.34694</v>
+      </c>
+      <c r="C199" t="n">
+        <v>8.531634447501244e-70</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.34826</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7.878054279864019e-70</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.34858</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.607559166929123e-70</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.35205</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8.778728420584066e-70</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.3536</v>
+      </c>
+      <c r="C203" t="n">
+        <v>7.343503729396277e-70</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.3579</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.877306655032167e-70</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359830000000001</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.902915286091436e-70</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.36189</v>
+      </c>
+      <c r="C206" t="n">
+        <v>5.222836798781388e-70</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.36386</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.689037108243077e-70</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.36605</v>
+      </c>
+      <c r="C208" t="n">
+        <v>4.144104361754787e-70</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368040000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.620456670478643e-70</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.36965</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.503608371551481e-70</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.3748</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.555821846075929e-70</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.38009</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.53627163174952e-71</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382919999999999</v>
+      </c>
+      <c r="C213" t="n">
+        <v>3.165766925204337e-71</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.38334</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.414639875517033e-71</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383859999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.705114556862475e-71</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.38596</v>
+      </c>
+      <c r="C216" t="n">
+        <v>2.071284708537375e-71</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.38986</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.585857908243063e-71</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.39308</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.493249161775575e-71</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.40341</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.55698316578215e-71</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.41408</v>
+      </c>
+      <c r="C220" t="n">
+        <v>2.147304650121075e-71</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.42436</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.787742388895571e-71</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.43541</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.142737185721465e-71</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.43926</v>
+      </c>
+      <c r="C223" t="n">
+        <v>9.132128017728824e-72</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C178"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.99602</v>
+        <v>3.745075119653346</v>
       </c>
       <c r="C2" t="n">
-        <v>2.275855765617335e-55</v>
+        <v>3.14273820096816e-51</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.00097</v>
+        <v>3.762300554123211</v>
       </c>
       <c r="C3" t="n">
-        <v>5.506022383055266e-55</v>
+        <v>2.548826878961289e-51</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.779337451499375</v>
       </c>
       <c r="C4" t="n">
-        <v>7.845497539554842e-55</v>
+        <v>2.353789121833608e-51</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.00697</v>
+        <v>3.788087286620635</v>
       </c>
       <c r="C5" t="n">
-        <v>7.351875042547745e-55</v>
+        <v>2.65336361818655e-51</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.00909</v>
+        <v>3.796605735308717</v>
       </c>
       <c r="C6" t="n">
-        <v>7.211907344503644e-55</v>
+        <v>2.85650322908532e-51</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.01003</v>
+        <v>3.805055625053636</v>
       </c>
       <c r="C7" t="n">
-        <v>7.434174221144579e-55</v>
+        <v>4.726477206877637e-51</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.813539794270136</v>
       </c>
       <c r="C8" t="n">
-        <v>5.882738263808765e-55</v>
+        <v>6.280511403967383e-51</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.01911</v>
+        <v>3.817867577557342</v>
       </c>
       <c r="C9" t="n">
-        <v>5.797581364756026e-55</v>
+        <v>1.522930884663017e-50</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.01992</v>
+        <v>3.82226391978771</v>
       </c>
       <c r="C10" t="n">
-        <v>4.214439039486423e-55</v>
+        <v>2.173264392376875e-50</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.02504</v>
+        <v>3.830696669796837</v>
       </c>
       <c r="C11" t="n">
-        <v>4.623919554604344e-55</v>
+        <v>1.879956855180486e-50</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.02998</v>
+        <v>3.837569703848993</v>
       </c>
       <c r="C12" t="n">
-        <v>3.148623251084712e-55</v>
+        <v>1.244680434101737e-50</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.03514</v>
+        <v>3.844554146183789</v>
       </c>
       <c r="C13" t="n">
-        <v>2.446153142826941e-55</v>
+        <v>5.284752268030133e-51</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.26996</v>
+        <v>3.846319538970252</v>
       </c>
       <c r="C14" t="n">
-        <v>5.696715470578512e-58</v>
+        <v>3.847663827244804e-51</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.29005</v>
+        <v>3.847930674134597</v>
       </c>
       <c r="C15" t="n">
-        <v>2.548455862310541e-58</v>
+        <v>4.657144811911167e-51</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291119999999999</v>
+        <v>3.84977319573212</v>
       </c>
       <c r="C16" t="n">
-        <v>2.530816548975705e-58</v>
+        <v>1.951223756200955e-51</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.29319</v>
+        <v>3.852147049139162</v>
       </c>
       <c r="C17" t="n">
-        <v>2.073883534038187e-58</v>
+        <v>1.318748764922061e-51</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.2942</v>
+        <v>3.856414843351097</v>
       </c>
       <c r="C18" t="n">
-        <v>2.06685800087322e-58</v>
+        <v>6.748944539422903e-52</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.29515</v>
+        <v>3.865190388076044</v>
       </c>
       <c r="C19" t="n">
-        <v>2.590602785332212e-58</v>
+        <v>2.755192790626891e-52</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.29615</v>
+        <v>3.866878652051449</v>
       </c>
       <c r="C20" t="n">
-        <v>2.071248158372471e-58</v>
+        <v>2.014319951108985e-52</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.869363913741131</v>
       </c>
       <c r="C21" t="n">
-        <v>2.340299014189967e-58</v>
+        <v>1.893951862863446e-52</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298080000000001</v>
+        <v>3.873640277820963</v>
       </c>
       <c r="C22" t="n">
-        <v>4.34690496170491e-58</v>
+        <v>2.004915054412985e-52</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299090000000001</v>
+        <v>3.878070899522913</v>
       </c>
       <c r="C23" t="n">
-        <v>4.735245137456436e-58</v>
+        <v>2.252923987109806e-52</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.30105</v>
+        <v>3.881644534435317</v>
       </c>
       <c r="C24" t="n">
-        <v>5.955390128786631e-58</v>
+        <v>1.96615439905775e-52</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.3031</v>
+        <v>3.88648650979625</v>
       </c>
       <c r="C25" t="n">
-        <v>6.162138854794539e-58</v>
+        <v>3.655386085675016e-52</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.30523</v>
+        <v>3.890925701366096</v>
       </c>
       <c r="C26" t="n">
-        <v>5.099310174957792e-58</v>
+        <v>4.902702938216329e-52</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.899118495074151</v>
       </c>
       <c r="C27" t="n">
-        <v>5.869354606266187e-58</v>
+        <v>9.414107746675783e-52</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.3093</v>
+        <v>3.908014017949633</v>
       </c>
       <c r="C28" t="n">
-        <v>5.063577551710286e-58</v>
+        <v>1.84297353497064e-51</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.30996</v>
+        <v>3.916541036505611</v>
       </c>
       <c r="C29" t="n">
-        <v>5.17810891076363e-58</v>
+        <v>1.423731843858159e-51</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.31117</v>
+        <v>3.925025205722112</v>
       </c>
       <c r="C30" t="n">
-        <v>4.913404972090776e-58</v>
+        <v>6.083022060491366e-52</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.31311</v>
+        <v>3.933637922957044</v>
       </c>
       <c r="C31" t="n">
-        <v>4.647187455837823e-58</v>
+        <v>2.483613445438357e-52</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.31513</v>
+        <v>3.942370618342513</v>
       </c>
       <c r="C32" t="n">
-        <v>4.15719359118704e-58</v>
+        <v>9.71640047416159e-53</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.3172</v>
+        <v>3.950700529936895</v>
       </c>
       <c r="C33" t="n">
-        <v>3.63568386995096e-58</v>
+        <v>7.918895963960294e-53</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.31917</v>
+        <v>3.959476074661841</v>
       </c>
       <c r="C34" t="n">
-        <v>4.10743582675301e-58</v>
+        <v>4.334234487051302e-53</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.967797416388328</v>
       </c>
       <c r="C35" t="n">
-        <v>3.4024833314682e-58</v>
+        <v>3.03387799818346e-53</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.97227945729765</v>
       </c>
       <c r="C36" t="n">
-        <v>3.136233302665112e-58</v>
+        <v>1.715253896800867e-53</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.32521</v>
+        <v>3.976384424019573</v>
       </c>
       <c r="C37" t="n">
-        <v>1.91971052141226e-58</v>
+        <v>1.733686545919102e-53</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.32711</v>
+        <v>3.984954291915029</v>
       </c>
       <c r="C38" t="n">
-        <v>1.858967213014995e-58</v>
+        <v>2.908737314066157e-53</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.32908</v>
+        <v>4.002231145592266</v>
       </c>
       <c r="C39" t="n">
-        <v>1.449420970481858e-58</v>
+        <v>1.195626241310094e-53</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.33012</v>
+        <v>4.010826723091408</v>
       </c>
       <c r="C40" t="n">
-        <v>1.721341246187033e-58</v>
+        <v>4.178981520312477e-54</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.33119</v>
+        <v>4.019208053893163</v>
       </c>
       <c r="C41" t="n">
-        <v>2.516079526835696e-58</v>
+        <v>2.836011117718309e-54</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.33324</v>
+        <v>4.036424918495132</v>
       </c>
       <c r="C42" t="n">
-        <v>2.427861157457187e-58</v>
+        <v>1.583304133341031e-54</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.33515</v>
+        <v>4.053547514550251</v>
       </c>
       <c r="C43" t="n">
-        <v>2.147857445636318e-58</v>
+        <v>1.241393111842493e-54</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.34004</v>
+        <v>4.070687250341162</v>
       </c>
       <c r="C44" t="n">
-        <v>1.686499780757296e-58</v>
+        <v>1.370949798303655e-54</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.34488</v>
+        <v>4.075126441911007</v>
       </c>
       <c r="C45" t="n">
-        <v>1.549394671351657e-58</v>
+        <v>2.797437241463757e-54</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.34998</v>
+        <v>4.078297293032326</v>
       </c>
       <c r="C46" t="n">
-        <v>1.298846281911255e-58</v>
+        <v>2.871041739609195e-54</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.37005</v>
+        <v>4.087861265603653</v>
       </c>
       <c r="C47" t="n">
-        <v>4.901722621803356e-59</v>
+        <v>2.546471102994925e-54</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.39015</v>
+        <v>4.09212905981559</v>
       </c>
       <c r="C48" t="n">
-        <v>3.65733339104067e-59</v>
+        <v>2.336264209452088e-54</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.41003</v>
+        <v>4.096551111649645</v>
       </c>
       <c r="C49" t="n">
-        <v>3.110082052038802e-59</v>
+        <v>1.834831351833609e-54</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.42024</v>
+        <v>4.105069560337727</v>
       </c>
       <c r="C50" t="n">
-        <v>3.360505567246631e-59</v>
+        <v>1.259528319279418e-54</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.43018</v>
+        <v>4.113468030875272</v>
       </c>
       <c r="C51" t="n">
-        <v>3.471623424198228e-59</v>
+        <v>7.439785127086913e-55</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.44004</v>
+        <v>4.122132167317578</v>
       </c>
       <c r="C52" t="n">
-        <v>5.514036601432169e-59</v>
+        <v>5.298431047303435e-55</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.44994</v>
+        <v>4.12395754917931</v>
       </c>
       <c r="C53" t="n">
-        <v>7.032167374369747e-59</v>
+        <v>4.729264231870067e-55</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.45499</v>
+        <v>4.126622778094797</v>
       </c>
       <c r="C54" t="n">
-        <v>1.669841540493577e-58</v>
+        <v>4.420803396964408e-55</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.46012</v>
+        <v>4.13072774481672</v>
       </c>
       <c r="C55" t="n">
-        <v>2.332729398641132e-58</v>
+        <v>3.819665139020251e-55</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469959999999999</v>
+        <v>4.139151924957952</v>
       </c>
       <c r="C56" t="n">
-        <v>1.937179670524179e-58</v>
+        <v>3.023601243957646e-55</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477980000000001</v>
+        <v>4.156411638899399</v>
       </c>
       <c r="C57" t="n">
-        <v>1.240593191427806e-58</v>
+        <v>2.151844386830317e-55</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.48613</v>
+        <v>4.170346244097408</v>
       </c>
       <c r="C58" t="n">
-        <v>5.092270203948357e-59</v>
+        <v>1.931849004756722e-55</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.48819</v>
+        <v>4.190571132330683</v>
       </c>
       <c r="C59" t="n">
-        <v>3.675972085518206e-59</v>
+        <v>1.770352200357377e-55</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490069999999999</v>
+        <v>4.199158139961929</v>
       </c>
       <c r="C60" t="n">
-        <v>4.414763366152353e-59</v>
+        <v>2.116371157239565e-55</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.49222</v>
+        <v>4.207916544951084</v>
       </c>
       <c r="C61" t="n">
-        <v>1.833246557964185e-59</v>
+        <v>2.172839353699718e-55</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.49499</v>
+        <v>4.216340725092316</v>
       </c>
       <c r="C62" t="n">
-        <v>1.224855522761704e-59</v>
+        <v>2.271295442846083e-55</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499969999999999</v>
+        <v>4.221645473319603</v>
       </c>
       <c r="C63" t="n">
-        <v>6.140244443215557e-60</v>
+        <v>2.428607760985098e-55</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.51021</v>
+        <v>4.225107699949367</v>
       </c>
       <c r="C64" t="n">
-        <v>2.402433052989773e-60</v>
+        <v>2.377245803542037e-55</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.51218</v>
+        <v>4.230875221043007</v>
       </c>
       <c r="C65" t="n">
-        <v>1.742120519199976e-60</v>
+        <v>2.504668455538938e-55</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.51508</v>
+        <v>4.23929940118424</v>
       </c>
       <c r="C66" t="n">
-        <v>1.618428207058585e-60</v>
+        <v>2.41549828809892e-55</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.52007</v>
+        <v>4.24231599468344</v>
       </c>
       <c r="C67" t="n">
-        <v>1.678144924626206e-60</v>
+        <v>2.238817803733836e-55</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.52524</v>
+        <v>4.24787783894759</v>
       </c>
       <c r="C68" t="n">
-        <v>1.845715185391353e-60</v>
+        <v>2.141252817144853e-55</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529409999999999</v>
+        <v>4.252257041442167</v>
       </c>
       <c r="C69" t="n">
-        <v>1.583150606739448e-60</v>
+        <v>1.929542146686685e-55</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.53506</v>
+        <v>4.25472516339606</v>
       </c>
       <c r="C70" t="n">
-        <v>2.875131143183874e-60</v>
+        <v>1.784751060395495e-55</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.54024</v>
+        <v>4.25739896217944</v>
       </c>
       <c r="C71" t="n">
-        <v>3.77421490515085e-60</v>
+        <v>1.625058550291943e-55</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.5498</v>
+        <v>4.259258623512755</v>
       </c>
       <c r="C72" t="n">
-        <v>6.965381987584161e-60</v>
+        <v>1.54417456932007e-55</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.56018</v>
+        <v>4.2616239070519</v>
       </c>
       <c r="C73" t="n">
-        <v>1.306117111547871e-59</v>
+        <v>1.369946946432589e-55</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570130000000001</v>
+        <v>4.263192192876769</v>
       </c>
       <c r="C74" t="n">
-        <v>9.681959075099389e-60</v>
+        <v>1.27562050792317e-55</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580030000000001</v>
+        <v>4.271830619715387</v>
       </c>
       <c r="C75" t="n">
-        <v>3.970238065939859e-60</v>
+        <v>8.187225428382304e-56</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.59008</v>
+        <v>4.27642406890735</v>
       </c>
       <c r="C76" t="n">
-        <v>1.554794524614433e-60</v>
+        <v>6.655127646396262e-56</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.60027</v>
+        <v>4.28036620813926</v>
       </c>
       <c r="C77" t="n">
-        <v>5.830878561336057e-61</v>
+        <v>4.99636288059407e-56</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.60999</v>
+        <v>4.28891036643103</v>
       </c>
       <c r="C78" t="n">
-        <v>4.564357641341684e-61</v>
+        <v>3.039968680360532e-56</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.62023</v>
+        <v>4.293495245755098</v>
       </c>
       <c r="C79" t="n">
-        <v>2.3942909934193e-61</v>
+        <v>2.434734232955729e-56</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.62994</v>
+        <v>4.297651631684394</v>
       </c>
       <c r="C80" t="n">
-        <v>1.609782114490364e-61</v>
+        <v>1.857531381657747e-56</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.63517</v>
+        <v>4.300136893374075</v>
       </c>
       <c r="C81" t="n">
-        <v>8.905820777131154e-62</v>
+        <v>1.646966955489306e-56</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.300239731788821</v>
       </c>
       <c r="C82" t="n">
-        <v>8.824405593219017e-62</v>
+        <v>1.646253412736045e-56</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.64996</v>
+        <v>4.30191942589633</v>
       </c>
       <c r="C83" t="n">
-        <v>1.420369433198425e-61</v>
+        <v>1.552521048515419e-56</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.67012</v>
+        <v>4.306187220108267</v>
       </c>
       <c r="C84" t="n">
-        <v>5.369920184932856e-62</v>
+        <v>1.333451500707539e-56</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.68015</v>
+        <v>4.308783890080591</v>
       </c>
       <c r="C85" t="n">
-        <v>1.800407120752527e-62</v>
+        <v>1.246655690498868e-56</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.68993</v>
+        <v>4.310729250092858</v>
       </c>
       <c r="C86" t="n">
-        <v>1.17323910741335e-62</v>
+        <v>1.192133227292843e-56</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.31302597468884</v>
       </c>
       <c r="C87" t="n">
-        <v>6.026215398153341e-63</v>
+        <v>1.247304135854898e-56</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.73</v>
+        <v>4.315699773472222</v>
       </c>
       <c r="C88" t="n">
-        <v>4.349001313327953e-63</v>
+        <v>1.259408598682586e-56</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.75</v>
+        <v>4.318107906350845</v>
       </c>
       <c r="C89" t="n">
-        <v>4.420441277638805e-63</v>
+        <v>1.235863993772933e-56</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.75518</v>
+        <v>4.320910253152659</v>
       </c>
       <c r="C90" t="n">
-        <v>8.828177716655778e-63</v>
+        <v>1.150075374795142e-56</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.75888</v>
+        <v>4.323318386031281</v>
       </c>
       <c r="C91" t="n">
-        <v>8.922437953923847e-63</v>
+        <v>1.052512957539092e-56</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.77004</v>
+        <v>4.327757577601127</v>
       </c>
       <c r="C92" t="n">
-        <v>7.555698501080386e-63</v>
+        <v>8.803992319541459e-57</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.77502</v>
+        <v>4.331931103266214</v>
       </c>
       <c r="C93" t="n">
-        <v>6.790235330722635e-63</v>
+        <v>6.700746417192099e-57</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780180000000001</v>
+        <v>4.340535250633251</v>
       </c>
       <c r="C94" t="n">
-        <v>5.219894192728939e-63</v>
+        <v>3.276609093416926e-57</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.79012</v>
+        <v>4.344845894184665</v>
       </c>
       <c r="C95" t="n">
-        <v>3.438456430815937e-63</v>
+        <v>2.441939437927287e-57</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799919999999999</v>
+        <v>4.348762323812888</v>
       </c>
       <c r="C96" t="n">
-        <v>1.950106258390372e-63</v>
+        <v>1.743605700675183e-57</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.81003</v>
+        <v>4.357083665539375</v>
       </c>
       <c r="C97" t="n">
-        <v>1.331769009817188e-63</v>
+        <v>1.060573365794542e-57</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.362054188918739</v>
       </c>
       <c r="C98" t="n">
-        <v>1.17824973015716e-63</v>
+        <v>8.649580166607306e-58</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.365250749643743</v>
       </c>
       <c r="C99" t="n">
-        <v>1.087279881136709e-63</v>
+        <v>7.763058262798604e-58</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.82006</v>
+        <v>4.367855989483961</v>
       </c>
       <c r="C100" t="n">
-        <v>9.209473183866948e-64</v>
+        <v>7.352944767060111e-58</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.82989</v>
+        <v>4.369681371345694</v>
       </c>
       <c r="C101" t="n">
-        <v>6.998778550876104e-64</v>
+        <v>6.641795834828758e-58</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.370624056814194</v>
       </c>
       <c r="C102" t="n">
-        <v>4.581632086533178e-64</v>
+        <v>6.428817971381677e-58</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.86629</v>
+        <v>4.371001131001594</v>
       </c>
       <c r="C103" t="n">
-        <v>3.844900909367468e-64</v>
+        <v>6.390713108625794e-58</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.88989</v>
+        <v>4.371241087302666</v>
       </c>
       <c r="C104" t="n">
-        <v>3.194839242325819e-64</v>
+        <v>6.32395083279482e-58</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.89991</v>
+        <v>4.37310074863598</v>
       </c>
       <c r="C105" t="n">
-        <v>3.663760416808038e-64</v>
+        <v>5.905835011221605e-58</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.37479758247928</v>
       </c>
       <c r="C106" t="n">
-        <v>3.605357924701809e-64</v>
+        <v>5.522986822658441e-58</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.91996</v>
+        <v>4.376545835529954</v>
       </c>
       <c r="C107" t="n">
-        <v>3.618117256055996e-64</v>
+        <v>5.259736577473202e-58</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.92615</v>
+        <v>4.378156970694299</v>
       </c>
       <c r="C108" t="n">
-        <v>3.770623786986494e-64</v>
+        <v>4.507238683048148e-58</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930190000000001</v>
+        <v>4.379236774049127</v>
       </c>
       <c r="C109" t="n">
-        <v>3.629531875071425e-64</v>
+        <v>4.444964516196122e-58</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.93692</v>
+        <v>4.379845234669704</v>
       </c>
       <c r="C110" t="n">
-        <v>3.718781077948877e-64</v>
+        <v>4.394467244745192e-58</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.94675</v>
+        <v>4.382493323849399</v>
       </c>
       <c r="C111" t="n">
-        <v>3.443065942727123e-64</v>
+        <v>4.060197611952264e-58</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.95027</v>
+        <v>4.386743978325545</v>
       </c>
       <c r="C112" t="n">
-        <v>3.144959078120419e-64</v>
+        <v>3.171896816290649e-58</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.95676</v>
+        <v>4.391003202669586</v>
       </c>
       <c r="C113" t="n">
-        <v>2.927995930948967e-64</v>
+        <v>2.438843040617213e-58</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869999999999</v>
+        <v>4.395073889919927</v>
       </c>
       <c r="C114" t="n">
-        <v>2.583149599853001e-64</v>
+        <v>2.062850452109578e-58</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.96475</v>
+        <v>4.396290811161082</v>
       </c>
       <c r="C115" t="n">
-        <v>2.360933391875147e-64</v>
+        <v>1.942794685948158e-58</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.96787</v>
+        <v>4.399607350036622</v>
       </c>
       <c r="C116" t="n">
-        <v>2.12203949276288e-64</v>
+        <v>2.188925054435681e-58</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.97004</v>
+        <v>4.403952273059619</v>
       </c>
       <c r="C117" t="n">
-        <v>1.99834709940323e-64</v>
+        <v>3.35149557714339e-58</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.406326126466659</v>
       </c>
       <c r="C118" t="n">
-        <v>1.752690734468416e-64</v>
+        <v>3.848024951557345e-58</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.97463</v>
+        <v>4.408974215646356</v>
       </c>
       <c r="C119" t="n">
-        <v>1.619666980751637e-64</v>
+        <v>3.792662503034426e-58</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.98471</v>
+        <v>4.411759422712378</v>
       </c>
       <c r="C120" t="n">
-        <v>9.969623850157706e-65</v>
+        <v>3.579163447367186e-58</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990069999999999</v>
+        <v>4.41349053602726</v>
       </c>
       <c r="C121" t="n">
-        <v>7.925756585483477e-65</v>
+        <v>3.469122678173698e-58</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669999999999</v>
+        <v>4.414321813213119</v>
       </c>
       <c r="C122" t="n">
-        <v>5.837810628599795e-65</v>
+        <v>3.411161595516853e-58</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.00464</v>
+        <v>4.419515153157765</v>
       </c>
       <c r="C123" t="n">
-        <v>3.408012085691925e-65</v>
+        <v>2.841881839556776e-58</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.421511932377406</v>
       </c>
       <c r="C124" t="n">
-        <v>2.669585982279906e-65</v>
+        <v>2.462438893558955e-58</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.01484</v>
+        <v>4.430664551289752</v>
       </c>
       <c r="C125" t="n">
-        <v>1.996134258517906e-65</v>
+        <v>1.189104587847518e-58</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.01774</v>
+        <v>4.447624319854858</v>
       </c>
       <c r="C126" t="n">
-        <v>1.748691644380078e-65</v>
+        <v>4.759951127082813e-59</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.01786</v>
+        <v>4.464926883135782</v>
       </c>
       <c r="C127" t="n">
-        <v>1.747064024123178e-65</v>
+        <v>2.637732590632167e-59</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019819999999999</v>
+        <v>4.482066618926692</v>
       </c>
       <c r="C128" t="n">
-        <v>1.634248474446251e-65</v>
+        <v>1.863968803387561e-59</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.0248</v>
+        <v>4.490182283823687</v>
       </c>
       <c r="C129" t="n">
-        <v>1.374943393093584e-65</v>
+        <v>2.073389676883979e-59</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027830000000001</v>
+        <v>4.493233156794469</v>
       </c>
       <c r="C130" t="n">
-        <v>1.269388745384702e-65</v>
+        <v>2.121570811673147e-59</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.0301</v>
+        <v>4.499292053396556</v>
       </c>
       <c r="C131" t="n">
-        <v>1.202493704535007e-65</v>
+        <v>2.70895110861455e-59</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032780000000001</v>
+        <v>4.507699093801998</v>
       </c>
       <c r="C132" t="n">
-        <v>1.244232493740287e-65</v>
+        <v>2.834720210213265e-59</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.0359</v>
+        <v>4.512069726428679</v>
       </c>
       <c r="C133" t="n">
-        <v>1.240149932106275e-65</v>
+        <v>2.604679477382673e-59</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.03871</v>
+        <v>4.516303241169035</v>
       </c>
       <c r="C134" t="n">
-        <v>1.202860164239741e-65</v>
+        <v>2.220882872812072e-59</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041980000000001</v>
+        <v>4.520571035380971</v>
       </c>
       <c r="C135" t="n">
-        <v>1.104279117476656e-65</v>
+        <v>1.774898608440747e-59</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.04479</v>
+        <v>4.520622454588343</v>
       </c>
       <c r="C136" t="n">
-        <v>9.988883070716789e-66</v>
+        <v>1.755076533267571e-59</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.04997</v>
+        <v>4.524727421310266</v>
       </c>
       <c r="C137" t="n">
-        <v>8.177786620468377e-66</v>
+        <v>1.39813495881055e-59</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.05484</v>
+        <v>4.529132333408531</v>
       </c>
       <c r="C138" t="n">
-        <v>6.099644212821678e-66</v>
+        <v>1.049696532343623e-59</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.06488</v>
+        <v>4.533597234582063</v>
       </c>
       <c r="C139" t="n">
-        <v>2.860986535245611e-66</v>
+        <v>8.459233032144786e-60</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.06991</v>
+        <v>4.535979657856999</v>
       </c>
       <c r="C140" t="n">
-        <v>2.088156204277949e-66</v>
+        <v>7.772253907620348e-60</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.07448</v>
+        <v>4.540033205371549</v>
       </c>
       <c r="C141" t="n">
-        <v>1.462992560447267e-66</v>
+        <v>6.857342138303629e-60</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.08419</v>
+        <v>4.541790028290118</v>
       </c>
       <c r="C142" t="n">
-        <v>8.547498059605058e-67</v>
+        <v>6.453651281265883e-60</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.08999</v>
+        <v>4.54406961315031</v>
       </c>
       <c r="C143" t="n">
-        <v>6.805230562466347e-67</v>
+        <v>5.674113637942426e-60</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093719999999999</v>
+        <v>4.54908298586915</v>
       </c>
       <c r="C144" t="n">
-        <v>6.013951511723724e-67</v>
+        <v>5.525258099629811e-60</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.553067974440538</v>
       </c>
       <c r="C145" t="n">
-        <v>5.624849255513026e-67</v>
+        <v>5.689646983429972e-60</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.09889</v>
+        <v>4.557044393144028</v>
       </c>
       <c r="C146" t="n">
-        <v>5.036133771765714e-67</v>
+        <v>5.765762073059018e-60</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.09999</v>
+        <v>4.561577853260723</v>
       </c>
       <c r="C147" t="n">
-        <v>4.852447862194911e-67</v>
+        <v>5.743238275462744e-60</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.10043</v>
+        <v>4.56575137892581</v>
       </c>
       <c r="C148" t="n">
-        <v>4.814888953314487e-67</v>
+        <v>5.913117503998764e-60</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100709999999999</v>
+        <v>4.570207710231447</v>
       </c>
       <c r="C149" t="n">
-        <v>4.759057286063106e-67</v>
+        <v>5.883697652896746e-60</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.10288</v>
+        <v>4.570233419835134</v>
       </c>
       <c r="C150" t="n">
-        <v>4.404573255014369e-67</v>
+        <v>5.606254040098362e-60</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.10486</v>
+        <v>4.574141279595461</v>
       </c>
       <c r="C151" t="n">
-        <v>4.08534706262059e-67</v>
+        <v>5.062705788126196e-60</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.1069</v>
+        <v>4.578657599976365</v>
       </c>
       <c r="C152" t="n">
-        <v>3.857831531081123e-67</v>
+        <v>4.001578035454948e-60</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.10878</v>
+        <v>4.578820427466379</v>
       </c>
       <c r="C153" t="n">
-        <v>3.280215864772904e-67</v>
+        <v>3.91289864144579e-60</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110040000000001</v>
+        <v>4.582256944492457</v>
       </c>
       <c r="C154" t="n">
-        <v>3.218028527331466e-67</v>
+        <v>3.148898439329501e-60</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.583388167054657</v>
       </c>
       <c r="C155" t="n">
-        <v>3.172112200422558e-67</v>
+        <v>2.923639145780896e-60</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.11384</v>
+        <v>4.583662402827311</v>
       </c>
       <c r="C156" t="n">
-        <v>2.893489410905267e-67</v>
+        <v>2.827005909183792e-60</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.1188</v>
+        <v>4.586636146987034</v>
       </c>
       <c r="C157" t="n">
-        <v>2.214403788175736e-67</v>
+        <v>3.309521910503065e-60</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123769999999999</v>
+        <v>4.58796447651083</v>
       </c>
       <c r="C158" t="n">
-        <v>1.667887048359494e-67</v>
+        <v>2.78631213840008e-60</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.12852</v>
+        <v>4.591649519705875</v>
       </c>
       <c r="C159" t="n">
-        <v>1.383222192754339e-67</v>
+        <v>2.656394703617278e-60</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.12994</v>
+        <v>4.593303504209699</v>
       </c>
       <c r="C160" t="n">
-        <v>1.295067918157765e-67</v>
+        <v>2.298361051981853e-60</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.13381</v>
+        <v>4.595068896996162</v>
       </c>
       <c r="C161" t="n">
-        <v>1.435897827574129e-67</v>
+        <v>2.051019927949144e-60</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.13888</v>
+        <v>4.596757160971567</v>
       </c>
       <c r="C162" t="n">
-        <v>2.152762585511005e-67</v>
+        <v>1.856507266984668e-60</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.14165</v>
+        <v>4.598633962040672</v>
       </c>
       <c r="C163" t="n">
-        <v>2.443455089762919e-67</v>
+        <v>1.655730406084228e-60</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144740000000001</v>
+        <v>4.600339365751868</v>
       </c>
       <c r="C164" t="n">
-        <v>2.377623567894998e-67</v>
+        <v>1.458504891744461e-60</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.14799</v>
+        <v>4.601719114483036</v>
       </c>
       <c r="C165" t="n">
-        <v>2.213729532146414e-67</v>
+        <v>1.420891773998488e-60</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.15001</v>
+        <v>4.606132596449195</v>
       </c>
       <c r="C166" t="n">
-        <v>2.127761937744491e-67</v>
+        <v>6.445915595283609e-61</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150980000000001</v>
+        <v>4.610666056565891</v>
       </c>
       <c r="C167" t="n">
-        <v>2.083809045104255e-67</v>
+        <v>2.344626648168497e-61</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.613091329180303</v>
       </c>
       <c r="C168" t="n">
-        <v>1.692944393433141e-67</v>
+        <v>1.356545474489461e-61</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.15937</v>
+        <v>4.613451263631914</v>
       </c>
       <c r="C169" t="n">
-        <v>1.452793637588336e-67</v>
+        <v>1.894992345397717e-61</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.17005</v>
+        <v>4.613896896762476</v>
       </c>
       <c r="C170" t="n">
-        <v>6.711432495306293e-68</v>
+        <v>1.163683239375549e-61</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.18984</v>
+        <v>4.615696569020522</v>
       </c>
       <c r="C171" t="n">
-        <v>2.474798879661624e-68</v>
+        <v>8.988199653420134e-62</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210030000000001</v>
+        <v>4.619038817499749</v>
       </c>
       <c r="C172" t="n">
-        <v>1.261216678511094e-68</v>
+        <v>6.993977489167769e-62</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.23003</v>
+        <v>4.621798314962087</v>
       </c>
       <c r="C173" t="n">
-        <v>8.202787208701255e-69</v>
+        <v>6.674120678309116e-62</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.2395</v>
+        <v>4.630650988498092</v>
       </c>
       <c r="C174" t="n">
-        <v>8.772848481494631e-69</v>
+        <v>7.263707637087035e-62</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.24306</v>
+        <v>4.639795037542543</v>
       </c>
       <c r="C175" t="n">
-        <v>8.845101005388177e-69</v>
+        <v>1.047112588233395e-61</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.25013</v>
+        <v>4.64860486173907</v>
       </c>
       <c r="C176" t="n">
-        <v>1.096750038785753e-68</v>
+        <v>9.097608140824187e-62</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>5.25994</v>
+        <v>4.658074565763548</v>
       </c>
       <c r="C177" t="n">
-        <v>1.101896916807212e-68</v>
+        <v>6.088055638768363e-62</v>
       </c>
     </row>
     <row r="178">
@@ -2319,505 +2319,10 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>5.26504</v>
+        <v>4.661373964903298</v>
       </c>
       <c r="C178" t="n">
-        <v>9.912788539905924e-69</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.26998</v>
-      </c>
-      <c r="C179" t="n">
-        <v>8.280685367345012e-69</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.482479920303354e-69</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.27502</v>
-      </c>
-      <c r="C181" t="n">
-        <v>6.408488101324959e-69</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279809999999999</v>
-      </c>
-      <c r="C182" t="n">
-        <v>5.004699012685033e-69</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.28495</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.678166163984805e-69</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.29016</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.900755727725941e-69</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.29294</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.634620864400618e-69</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.29767</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.279315373993098e-69</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.29972</v>
-      </c>
-      <c r="C187" t="n">
-        <v>2.12696523968383e-69</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.30238</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.849524638163689e-69</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.30823</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.757818749338114e-69</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312880000000001</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.775531749724624e-69</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.31752</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.764978646322453e-69</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.32281</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.719919084891146e-69</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.32768</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.735373221706099e-69</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.689885715745227e-69</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.33291</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.609999372265993e-69</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.33747</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.426656385383638e-69</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.34274</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.10324626059334e-69</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.34293</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.077947050362806e-69</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.34694</v>
-      </c>
-      <c r="C199" t="n">
-        <v>8.531634447501244e-70</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.34826</v>
-      </c>
-      <c r="C200" t="n">
-        <v>7.878054279864019e-70</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.34858</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7.607559166929123e-70</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.35205</v>
-      </c>
-      <c r="C202" t="n">
-        <v>8.778728420584066e-70</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.3536</v>
-      </c>
-      <c r="C203" t="n">
-        <v>7.343503729396277e-70</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.3579</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.877306655032167e-70</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359830000000001</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.902915286091436e-70</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.36189</v>
-      </c>
-      <c r="C206" t="n">
-        <v>5.222836798781388e-70</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.36386</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.689037108243077e-70</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.36605</v>
-      </c>
-      <c r="C208" t="n">
-        <v>4.144104361754787e-70</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368040000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.620456670478643e-70</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.36965</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.503608371551481e-70</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.3748</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.555821846075929e-70</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.38009</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.53627163174952e-71</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382919999999999</v>
-      </c>
-      <c r="C213" t="n">
-        <v>3.165766925204337e-71</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.38334</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.414639875517033e-71</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383859999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.705114556862475e-71</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.38596</v>
-      </c>
-      <c r="C216" t="n">
-        <v>2.071284708537375e-71</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.38986</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.585857908243063e-71</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.39308</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.493249161775575e-71</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.40341</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.55698316578215e-71</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.41408</v>
-      </c>
-      <c r="C220" t="n">
-        <v>2.147304650121075e-71</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.42436</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.787742388895571e-71</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.43541</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.142737185721465e-71</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.43926</v>
-      </c>
-      <c r="C223" t="n">
-        <v>9.132128017728824e-72</v>
+        <v>4.943575822729207e-62</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C178"/>
+  <dimension ref="A1:C223"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.745075119653346</v>
+        <v>3.996021</v>
       </c>
       <c r="C2" t="n">
-        <v>3.14273820096816e-51</v>
+        <v>3.562100770322957e-37</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>3.762300554123211</v>
+        <v>4.000967</v>
       </c>
       <c r="C3" t="n">
-        <v>2.548826878961289e-51</v>
+        <v>5.367406409101933e-37</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>3.779337451499375</v>
+        <v>4.00294</v>
       </c>
       <c r="C4" t="n">
-        <v>2.353789121833608e-51</v>
+        <v>7.129381292552647e-37</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3.788087286620635</v>
+        <v>4.006972</v>
       </c>
       <c r="C5" t="n">
-        <v>2.65336361818655e-51</v>
+        <v>6.381938455736565e-37</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>3.796605735308717</v>
+        <v>4.009086</v>
       </c>
       <c r="C6" t="n">
-        <v>2.85650322908532e-51</v>
+        <v>7.410102401325863e-37</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>3.805055625053636</v>
+        <v>4.010032</v>
       </c>
       <c r="C7" t="n">
-        <v>4.726477206877637e-51</v>
+        <v>6.892809864908433e-37</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>3.813539794270136</v>
+        <v>4.01507</v>
       </c>
       <c r="C8" t="n">
-        <v>6.280511403967383e-51</v>
+        <v>5.805053091902259e-37</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>3.817867577557342</v>
+        <v>4.019108</v>
       </c>
       <c r="C9" t="n">
-        <v>1.522930884663017e-50</v>
+        <v>5.668579849059172e-37</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>3.82226391978771</v>
+        <v>4.019916</v>
       </c>
       <c r="C10" t="n">
-        <v>2.173264392376875e-50</v>
+        <v>3.932934725448156e-37</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>3.830696669796837</v>
+        <v>4.025044</v>
       </c>
       <c r="C11" t="n">
-        <v>1.879956855180486e-50</v>
+        <v>4.327416368947098e-37</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>3.837569703848993</v>
+        <v>4.029979</v>
       </c>
       <c r="C12" t="n">
-        <v>1.244680434101737e-50</v>
+        <v>4.212412948003393e-37</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>3.844554146183789</v>
+        <v>4.035141</v>
       </c>
       <c r="C13" t="n">
-        <v>5.284752268030133e-51</v>
+        <v>2.349721007288305e-37</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>3.846319538970252</v>
+        <v>4.269958</v>
       </c>
       <c r="C14" t="n">
-        <v>3.847663827244804e-51</v>
+        <v>5.239281994586296e-40</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>3.847930674134597</v>
+        <v>4.290051</v>
       </c>
       <c r="C15" t="n">
-        <v>4.657144811911167e-51</v>
+        <v>2.320616282087725e-40</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>3.84977319573212</v>
+        <v>4.291116000000001</v>
       </c>
       <c r="C16" t="n">
-        <v>1.951223756200955e-51</v>
+        <v>2.430232684092772e-40</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>3.852147049139162</v>
+        <v>4.293189</v>
       </c>
       <c r="C17" t="n">
-        <v>1.318748764922061e-51</v>
+        <v>1.944056525944019e-40</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>3.856414843351097</v>
+        <v>4.294196</v>
       </c>
       <c r="C18" t="n">
-        <v>6.748944539422903e-52</v>
+        <v>1.957288681531851e-40</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>3.865190388076044</v>
+        <v>4.295147</v>
       </c>
       <c r="C19" t="n">
-        <v>2.755192790626891e-52</v>
+        <v>2.415251931910689e-40</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>3.866878652051449</v>
+        <v>4.296155000000001</v>
       </c>
       <c r="C20" t="n">
-        <v>2.014319951108985e-52</v>
+        <v>1.940940696407051e-40</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>3.869363913741131</v>
+        <v>4.297219999999999</v>
       </c>
       <c r="C21" t="n">
-        <v>1.893951862863446e-52</v>
+        <v>2.247550782520258e-40</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>3.873640277820963</v>
+        <v>4.298083999999999</v>
       </c>
       <c r="C22" t="n">
-        <v>2.004915054412985e-52</v>
+        <v>3.950615902307778e-40</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>3.878070899522913</v>
+        <v>4.299093</v>
       </c>
       <c r="C23" t="n">
-        <v>2.252923987109806e-52</v>
+        <v>4.482165824313012e-40</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>3.881644534435317</v>
+        <v>4.301051999999999</v>
       </c>
       <c r="C24" t="n">
-        <v>1.96615439905775e-52</v>
+        <v>5.930402222732357e-40</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>3.88648650979625</v>
+        <v>4.303098</v>
       </c>
       <c r="C25" t="n">
-        <v>3.655386085675016e-52</v>
+        <v>5.944980312549343e-40</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>3.890925701366096</v>
+        <v>4.305231</v>
       </c>
       <c r="C26" t="n">
-        <v>4.902702938216329e-52</v>
+        <v>5.285044334146009e-40</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>3.899118495074151</v>
+        <v>4.30725</v>
       </c>
       <c r="C27" t="n">
-        <v>9.414107746675783e-52</v>
+        <v>5.503329714495134e-40</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>3.908014017949633</v>
+        <v>4.309297</v>
       </c>
       <c r="C28" t="n">
-        <v>1.84297353497064e-51</v>
+        <v>5.087803058138526e-40</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>3.916541036505611</v>
+        <v>4.309961</v>
       </c>
       <c r="C29" t="n">
-        <v>1.423731843858159e-51</v>
+        <v>4.949100563011281e-40</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>3.925025205722112</v>
+        <v>4.311172</v>
       </c>
       <c r="C30" t="n">
-        <v>6.083022060491366e-52</v>
+        <v>4.701737415515313e-40</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>3.933637922957044</v>
+        <v>4.313105999999999</v>
       </c>
       <c r="C31" t="n">
-        <v>2.483613445438357e-52</v>
+        <v>4.524199312244532e-40</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>3.942370618342513</v>
+        <v>4.315126</v>
       </c>
       <c r="C32" t="n">
-        <v>9.71640047416159e-53</v>
+        <v>4.010266052823079e-40</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>3.950700529936895</v>
+        <v>4.317204</v>
       </c>
       <c r="C33" t="n">
-        <v>7.918895963960294e-53</v>
+        <v>3.572208841856137e-40</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>3.959476074661841</v>
+        <v>4.319168</v>
       </c>
       <c r="C34" t="n">
-        <v>4.334234487051302e-53</v>
+        <v>3.826359137505547e-40</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>3.967797416388328</v>
+        <v>4.32116</v>
       </c>
       <c r="C35" t="n">
-        <v>3.03387799818346e-53</v>
+        <v>3.221894978633121e-40</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>3.97227945729765</v>
+        <v>4.32298</v>
       </c>
       <c r="C36" t="n">
-        <v>1.715253896800867e-53</v>
+        <v>2.931340675173961e-40</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>3.976384424019573</v>
+        <v>4.325205</v>
       </c>
       <c r="C37" t="n">
-        <v>1.733686545919102e-53</v>
+        <v>1.858059823233746e-40</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>3.984954291915029</v>
+        <v>4.327112000000001</v>
       </c>
       <c r="C38" t="n">
-        <v>2.908737314066157e-53</v>
+        <v>1.750945049607001e-40</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.002231145592266</v>
+        <v>4.329078</v>
       </c>
       <c r="C39" t="n">
-        <v>1.195626241310094e-53</v>
+        <v>1.566004860906294e-40</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.010826723091408</v>
+        <v>4.330119</v>
       </c>
       <c r="C40" t="n">
-        <v>4.178981520312477e-54</v>
+        <v>1.62740062832445e-40</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.019208053893163</v>
+        <v>4.331189</v>
       </c>
       <c r="C41" t="n">
-        <v>2.836011117718309e-54</v>
+        <v>2.357469953261845e-40</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.036424918495132</v>
+        <v>4.333242</v>
       </c>
       <c r="C42" t="n">
-        <v>1.583304133341031e-54</v>
+        <v>2.2927440360629e-40</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.053547514550251</v>
+        <v>4.335151000000001</v>
       </c>
       <c r="C43" t="n">
-        <v>1.241393111842493e-54</v>
+        <v>1.998038788377362e-40</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.070687250341162</v>
+        <v>4.340042</v>
       </c>
       <c r="C44" t="n">
-        <v>1.370949798303655e-54</v>
+        <v>1.575967838741718e-40</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.075126441911007</v>
+        <v>4.344876999999999</v>
       </c>
       <c r="C45" t="n">
-        <v>2.797437241463757e-54</v>
+        <v>1.43983978226039e-40</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.078297293032326</v>
+        <v>4.349976</v>
       </c>
       <c r="C46" t="n">
-        <v>2.871041739609195e-54</v>
+        <v>1.214781616980392e-40</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.087861265603653</v>
+        <v>4.370053</v>
       </c>
       <c r="C47" t="n">
-        <v>2.546471102994925e-54</v>
+        <v>4.544905342321819e-41</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.09212905981559</v>
+        <v>4.390148</v>
       </c>
       <c r="C48" t="n">
-        <v>2.336264209452088e-54</v>
+        <v>3.418912434809489e-41</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.096551111649645</v>
+        <v>4.410025</v>
       </c>
       <c r="C49" t="n">
-        <v>1.834831351833609e-54</v>
+        <v>2.893417433417839e-41</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.105069560337727</v>
+        <v>4.420244</v>
       </c>
       <c r="C50" t="n">
-        <v>1.259528319279418e-54</v>
+        <v>3.146110721090859e-41</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.113468030875272</v>
+        <v>4.430182</v>
       </c>
       <c r="C51" t="n">
-        <v>7.439785127086913e-55</v>
+        <v>3.244701000046877e-41</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.122132167317578</v>
+        <v>4.440043</v>
       </c>
       <c r="C52" t="n">
-        <v>5.298431047303435e-55</v>
+        <v>5.132518954822583e-41</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.12395754917931</v>
+        <v>4.449945</v>
       </c>
       <c r="C53" t="n">
-        <v>4.729264231870067e-55</v>
+        <v>6.545554859448781e-41</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.126622778094797</v>
+        <v>4.454988</v>
       </c>
       <c r="C54" t="n">
-        <v>4.420803396964408e-55</v>
+        <v>1.559356337072921e-40</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.13072774481672</v>
+        <v>4.460121</v>
       </c>
       <c r="C55" t="n">
-        <v>3.819665139020251e-55</v>
+        <v>2.176207491599178e-40</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.139151924957952</v>
+        <v>4.469957</v>
       </c>
       <c r="C56" t="n">
-        <v>3.023601243957646e-55</v>
+        <v>1.80472106642981e-40</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.156411638899399</v>
+        <v>4.477981</v>
       </c>
       <c r="C57" t="n">
-        <v>2.151844386830317e-55</v>
+        <v>1.156262738783051e-40</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.170346244097408</v>
+        <v>4.486129</v>
       </c>
       <c r="C58" t="n">
-        <v>1.931849004756722e-55</v>
+        <v>4.756799386624081e-41</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.190571132330683</v>
+        <v>4.488189</v>
       </c>
       <c r="C59" t="n">
-        <v>1.770352200357377e-55</v>
+        <v>3.436813146921965e-41</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.199158139961929</v>
+        <v>4.490073000000001</v>
       </c>
       <c r="C60" t="n">
-        <v>2.116371157239565e-55</v>
+        <v>4.119002479889013e-41</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.207916544951084</v>
+        <v>4.492223</v>
       </c>
       <c r="C61" t="n">
-        <v>2.172839353699718e-55</v>
+        <v>1.708346555453706e-41</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.216340725092316</v>
+        <v>4.494992</v>
       </c>
       <c r="C62" t="n">
-        <v>2.271295442846083e-55</v>
+        <v>1.138534096553694e-41</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.221645473319603</v>
+        <v>4.499972000000001</v>
       </c>
       <c r="C63" t="n">
-        <v>2.428607760985098e-55</v>
+        <v>5.695854397689979e-42</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.225107699949367</v>
+        <v>4.510205</v>
       </c>
       <c r="C64" t="n">
-        <v>2.377245803542037e-55</v>
+        <v>2.241704753564184e-42</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.230875221043007</v>
+        <v>4.512183</v>
       </c>
       <c r="C65" t="n">
-        <v>2.504668455538938e-55</v>
+        <v>1.627932811351571e-42</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.23929940118424</v>
+        <v>4.515076000000001</v>
       </c>
       <c r="C66" t="n">
-        <v>2.41549828809892e-55</v>
+        <v>1.52405069728832e-42</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.24231599468344</v>
+        <v>4.520067</v>
       </c>
       <c r="C67" t="n">
-        <v>2.238817803733836e-55</v>
+        <v>1.562887220238224e-42</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.24787783894759</v>
+        <v>4.525238</v>
       </c>
       <c r="C68" t="n">
-        <v>2.141252817144853e-55</v>
+        <v>1.761125546395921e-42</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.252257041442167</v>
+        <v>4.529406</v>
       </c>
       <c r="C69" t="n">
-        <v>1.929542146686685e-55</v>
+        <v>1.51538787730558e-42</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.25472516339606</v>
+        <v>4.535056</v>
       </c>
       <c r="C70" t="n">
-        <v>1.784751060395495e-55</v>
+        <v>2.624913249671012e-42</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.25739896217944</v>
+        <v>4.540236</v>
       </c>
       <c r="C71" t="n">
-        <v>1.625058550291943e-55</v>
+        <v>3.568009395491363e-42</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.259258623512755</v>
+        <v>4.549804</v>
       </c>
       <c r="C72" t="n">
-        <v>1.54417456932007e-55</v>
+        <v>6.500423306658617e-42</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.2616239070519</v>
+        <v>4.560183</v>
       </c>
       <c r="C73" t="n">
-        <v>1.369946946432589e-55</v>
+        <v>1.218563091688654e-41</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.263192192876769</v>
+        <v>4.570129</v>
       </c>
       <c r="C74" t="n">
-        <v>1.27562050792317e-55</v>
+        <v>9.038641710343252e-42</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.271830619715387</v>
+        <v>4.580025</v>
       </c>
       <c r="C75" t="n">
-        <v>8.187225428382304e-56</v>
+        <v>3.702719054019539e-42</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.27642406890735</v>
+        <v>4.590082</v>
       </c>
       <c r="C76" t="n">
-        <v>6.655127646396262e-56</v>
+        <v>1.457609336834171e-42</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.28036620813926</v>
+        <v>4.600268</v>
       </c>
       <c r="C77" t="n">
-        <v>4.99636288059407e-56</v>
+        <v>5.438600853886152e-43</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.28891036643103</v>
+        <v>4.609989</v>
       </c>
       <c r="C78" t="n">
-        <v>3.039968680360532e-56</v>
+        <v>4.273376446808708e-43</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.293495245755098</v>
+        <v>4.620227</v>
       </c>
       <c r="C79" t="n">
-        <v>2.434734232955729e-56</v>
+        <v>2.278720357576557e-43</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.297651631684394</v>
+        <v>4.629939</v>
       </c>
       <c r="C80" t="n">
-        <v>1.857531381657747e-56</v>
+        <v>1.500953869898307e-43</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.300136893374075</v>
+        <v>4.635173</v>
       </c>
       <c r="C81" t="n">
-        <v>1.646966955489306e-56</v>
+        <v>8.287495020760466e-44</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.300239731788821</v>
+        <v>4.639959999999999</v>
       </c>
       <c r="C82" t="n">
-        <v>1.646253412736045e-56</v>
+        <v>8.221198062152174e-44</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.30191942589633</v>
+        <v>4.649962</v>
       </c>
       <c r="C83" t="n">
-        <v>1.552521048515419e-56</v>
+        <v>1.32228631410439e-43</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.306187220108267</v>
+        <v>4.670119000000001</v>
       </c>
       <c r="C84" t="n">
-        <v>1.333451500707539e-56</v>
+        <v>4.997533816644338e-44</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.308783890080591</v>
+        <v>4.680153</v>
       </c>
       <c r="C85" t="n">
-        <v>1.246655690498868e-56</v>
+        <v>1.672981929843435e-44</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.310729250092858</v>
+        <v>4.689928</v>
       </c>
       <c r="C86" t="n">
-        <v>1.192133227292843e-56</v>
+        <v>1.09270599332829e-44</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.31302597468884</v>
+        <v>4.71002</v>
       </c>
       <c r="C87" t="n">
-        <v>1.247304135854898e-56</v>
+        <v>5.622980260533245e-45</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.315699773472222</v>
+        <v>4.730004</v>
       </c>
       <c r="C88" t="n">
-        <v>1.259408598682586e-56</v>
+        <v>4.023603118709986e-45</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.318107906350845</v>
+        <v>4.749999</v>
       </c>
       <c r="C89" t="n">
-        <v>1.235863993772933e-56</v>
+        <v>4.121937193622858e-45</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.320910253152659</v>
+        <v>4.755179</v>
       </c>
       <c r="C90" t="n">
-        <v>1.150075374795142e-56</v>
+        <v>8.218549325351815e-45</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.323318386031281</v>
+        <v>4.758876</v>
       </c>
       <c r="C91" t="n">
-        <v>1.052512957539092e-56</v>
+        <v>8.298451767324197e-45</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.327757577601127</v>
+        <v>4.770038</v>
       </c>
       <c r="C92" t="n">
-        <v>8.803992319541459e-57</v>
+        <v>7.057498326892862e-45</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.331931103266214</v>
+        <v>4.775016</v>
       </c>
       <c r="C93" t="n">
-        <v>6.700746417192099e-57</v>
+        <v>6.317078234797763e-45</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.340535250633251</v>
+        <v>4.780179</v>
       </c>
       <c r="C94" t="n">
-        <v>3.276609093416926e-57</v>
+        <v>4.845562420776024e-45</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.344845894184665</v>
+        <v>4.790118</v>
       </c>
       <c r="C95" t="n">
-        <v>2.441939437927287e-57</v>
+        <v>3.208505071331233e-45</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.348762323812888</v>
+        <v>4.799915</v>
       </c>
       <c r="C96" t="n">
-        <v>1.743605700675183e-57</v>
+        <v>1.816408171593537e-45</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.357083665539375</v>
+        <v>4.810027</v>
       </c>
       <c r="C97" t="n">
-        <v>1.060573365794542e-57</v>
+        <v>1.243661574442827e-45</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.362054188918739</v>
+        <v>4.81216</v>
       </c>
       <c r="C98" t="n">
-        <v>8.649580166607306e-58</v>
+        <v>1.100926485573926e-45</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.365250749643743</v>
+        <v>4.81527</v>
       </c>
       <c r="C99" t="n">
-        <v>7.763058262798604e-58</v>
+        <v>1.006000143766946e-45</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.367855989483961</v>
+        <v>4.820058</v>
       </c>
       <c r="C100" t="n">
-        <v>7.352944767060111e-58</v>
+        <v>8.604524600701883e-46</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.369681371345694</v>
+        <v>4.829886</v>
       </c>
       <c r="C101" t="n">
-        <v>6.641795834828758e-58</v>
+        <v>6.516371713774713e-46</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.370624056814194</v>
+        <v>4.85003</v>
       </c>
       <c r="C102" t="n">
-        <v>6.428817971381677e-58</v>
+        <v>4.269299402321585e-46</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.371001131001594</v>
+        <v>4.866293</v>
       </c>
       <c r="C103" t="n">
-        <v>6.390713108625794e-58</v>
+        <v>3.588248921515493e-46</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.371241087302666</v>
+        <v>4.889892</v>
       </c>
       <c r="C104" t="n">
-        <v>6.32395083279482e-58</v>
+        <v>2.97735656955102e-46</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.37310074863598</v>
+        <v>4.899914</v>
       </c>
       <c r="C105" t="n">
-        <v>5.905835011221605e-58</v>
+        <v>3.411829389501171e-46</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.37479758247928</v>
+        <v>4.910130000000001</v>
       </c>
       <c r="C106" t="n">
-        <v>5.522986822658441e-58</v>
+        <v>3.360963440229609e-46</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.376545835529954</v>
+        <v>4.919957</v>
       </c>
       <c r="C107" t="n">
-        <v>5.259736577473202e-58</v>
+        <v>3.368814709157276e-46</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.378156970694299</v>
+        <v>4.926154</v>
       </c>
       <c r="C108" t="n">
-        <v>4.507238683048148e-58</v>
+        <v>3.514017009779636e-46</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.379236774049127</v>
+        <v>4.930194999999999</v>
       </c>
       <c r="C109" t="n">
-        <v>4.444964516196122e-58</v>
+        <v>3.381299888968159e-46</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.379845234669704</v>
+        <v>4.936923</v>
       </c>
       <c r="C110" t="n">
-        <v>4.394467244745192e-58</v>
+        <v>3.469047274001944e-46</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.382493323849399</v>
+        <v>4.946745</v>
       </c>
       <c r="C111" t="n">
-        <v>4.060197611952264e-58</v>
+        <v>3.209086291797409e-46</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.386743978325545</v>
+        <v>4.950269</v>
       </c>
       <c r="C112" t="n">
-        <v>3.171896816290649e-58</v>
+        <v>2.930681504534596e-46</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.391003202669586</v>
+        <v>4.956763</v>
       </c>
       <c r="C113" t="n">
-        <v>2.438843040617213e-58</v>
+        <v>2.726445797659584e-46</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.395073889919927</v>
+        <v>4.961869</v>
       </c>
       <c r="C114" t="n">
-        <v>2.062850452109578e-58</v>
+        <v>2.406260574717874e-46</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.396290811161082</v>
+        <v>4.964748</v>
       </c>
       <c r="C115" t="n">
-        <v>1.942794685948158e-58</v>
+        <v>2.199881461918278e-46</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.399607350036622</v>
+        <v>4.967875</v>
       </c>
       <c r="C116" t="n">
-        <v>2.188925054435681e-58</v>
+        <v>1.977569147336301e-46</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.403952273059619</v>
+        <v>4.970043</v>
       </c>
       <c r="C117" t="n">
-        <v>3.35149557714339e-58</v>
+        <v>1.859262124031167e-46</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.406326126466659</v>
+        <v>4.9728</v>
       </c>
       <c r="C118" t="n">
-        <v>3.848024951557345e-58</v>
+        <v>1.632581159606768e-46</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.408974215646356</v>
+        <v>4.974629</v>
       </c>
       <c r="C119" t="n">
-        <v>3.792662503034426e-58</v>
+        <v>1.509205619221533e-46</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.411759422712378</v>
+        <v>4.984706</v>
       </c>
       <c r="C120" t="n">
-        <v>3.579163447367186e-58</v>
+        <v>9.28831021219269e-47</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.41349053602726</v>
+        <v>4.990074</v>
       </c>
       <c r="C121" t="n">
-        <v>3.469122678173698e-58</v>
+        <v>7.37986046647082e-47</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.414321813213119</v>
+        <v>4.994669</v>
       </c>
       <c r="C122" t="n">
-        <v>3.411161595516853e-58</v>
+        <v>5.445146519413273e-47</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>4.419515153157765</v>
+        <v>5.004642</v>
       </c>
       <c r="C123" t="n">
-        <v>2.841881839556776e-58</v>
+        <v>3.174593472222507e-47</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>4.421511932377406</v>
+        <v>5.00999</v>
       </c>
       <c r="C124" t="n">
-        <v>2.462438893558955e-58</v>
+        <v>2.486418913822064e-47</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>4.430664551289752</v>
+        <v>5.014843</v>
       </c>
       <c r="C125" t="n">
-        <v>1.189104587847518e-58</v>
+        <v>1.862069667403816e-47</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>4.447624319854858</v>
+        <v>5.017737</v>
       </c>
       <c r="C126" t="n">
-        <v>4.759951127082813e-59</v>
+        <v>1.629664251834115e-47</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>4.464926883135782</v>
+        <v>5.017861</v>
       </c>
       <c r="C127" t="n">
-        <v>2.637732590632167e-59</v>
+        <v>1.629118609536303e-47</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>4.482066618926692</v>
+        <v>5.019822</v>
       </c>
       <c r="C128" t="n">
-        <v>1.863968803387561e-59</v>
+        <v>1.526164373275095e-47</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>4.490182283823687</v>
+        <v>5.024805000000001</v>
       </c>
       <c r="C129" t="n">
-        <v>2.073389676883979e-59</v>
+        <v>1.281379830416692e-47</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>4.493233156794469</v>
+        <v>5.027826</v>
       </c>
       <c r="C130" t="n">
-        <v>2.121570811673147e-59</v>
+        <v>1.184959495235999e-47</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>4.499292053396556</v>
+        <v>5.030101</v>
       </c>
       <c r="C131" t="n">
-        <v>2.70895110861455e-59</v>
+        <v>1.119501114522252e-47</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>4.507699093801998</v>
+        <v>5.032781</v>
       </c>
       <c r="C132" t="n">
-        <v>2.834720210213265e-59</v>
+        <v>1.159502719820685e-47</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>4.512069726428679</v>
+        <v>5.035899</v>
       </c>
       <c r="C133" t="n">
-        <v>2.604679477382673e-59</v>
+        <v>1.154726885593531e-47</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>4.516303241169035</v>
+        <v>5.038705999999999</v>
       </c>
       <c r="C134" t="n">
-        <v>2.220882872812072e-59</v>
+        <v>1.120039958463476e-47</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>4.520571035380971</v>
+        <v>5.041981</v>
       </c>
       <c r="C135" t="n">
-        <v>1.774898608440747e-59</v>
+        <v>1.030104142859651e-47</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>4.520622454588343</v>
+        <v>5.044789</v>
       </c>
       <c r="C136" t="n">
-        <v>1.755076533267571e-59</v>
+        <v>9.298225743070441e-48</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>4.524727421310266</v>
+        <v>5.049971</v>
       </c>
       <c r="C137" t="n">
-        <v>1.39813495881055e-59</v>
+        <v>7.615318073793079e-48</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>4.529132333408531</v>
+        <v>5.054843</v>
       </c>
       <c r="C138" t="n">
-        <v>1.049696532343623e-59</v>
+        <v>5.68633591539827e-48</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>4.533597234582063</v>
+        <v>5.064876</v>
       </c>
       <c r="C139" t="n">
-        <v>8.459233032144786e-60</v>
+        <v>2.664355703980437e-48</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>4.535979657856999</v>
+        <v>5.069912</v>
       </c>
       <c r="C140" t="n">
-        <v>7.772253907620348e-60</v>
+        <v>1.939707819107311e-48</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>4.540033205371549</v>
+        <v>5.074481</v>
       </c>
       <c r="C141" t="n">
-        <v>6.857342138303629e-60</v>
+        <v>1.365052152768958e-48</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>4.541790028290118</v>
+        <v>5.084189</v>
       </c>
       <c r="C142" t="n">
-        <v>6.453651281265883e-60</v>
+        <v>7.977643824117738e-49</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>4.54406961315031</v>
+        <v>5.089986</v>
       </c>
       <c r="C143" t="n">
-        <v>5.674113637942426e-60</v>
+        <v>6.32958467147709e-49</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>4.54908298586915</v>
+        <v>5.093717</v>
       </c>
       <c r="C144" t="n">
-        <v>5.525258099629811e-60</v>
+        <v>5.573642930171797e-49</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>4.553067974440538</v>
+        <v>5.09676</v>
       </c>
       <c r="C145" t="n">
-        <v>5.689646983429972e-60</v>
+        <v>5.235683864198955e-49</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>4.557044393144028</v>
+        <v>5.098893</v>
       </c>
       <c r="C146" t="n">
-        <v>5.765762073059018e-60</v>
+        <v>4.692555123147651e-49</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>4.561577853260723</v>
+        <v>5.099991</v>
       </c>
       <c r="C147" t="n">
-        <v>5.743238275462744e-60</v>
+        <v>4.544385776387894e-49</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>4.56575137892581</v>
+        <v>5.100430999999999</v>
       </c>
       <c r="C148" t="n">
-        <v>5.913117503998764e-60</v>
+        <v>4.493860955121013e-49</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>4.570207710231447</v>
+        <v>5.100713</v>
       </c>
       <c r="C149" t="n">
-        <v>5.883697652896746e-60</v>
+        <v>4.438153462187994e-49</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>4.570233419835134</v>
+        <v>5.102879</v>
       </c>
       <c r="C150" t="n">
-        <v>5.606254040098362e-60</v>
+        <v>4.10093063183722e-49</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>4.574141279595461</v>
+        <v>5.104856</v>
       </c>
       <c r="C151" t="n">
-        <v>5.062705788126196e-60</v>
+        <v>3.789379950957983e-49</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>4.578657599976365</v>
+        <v>5.106897</v>
       </c>
       <c r="C152" t="n">
-        <v>4.001578035454948e-60</v>
+        <v>3.579437833140252e-49</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>4.578820427466379</v>
+        <v>5.108781</v>
       </c>
       <c r="C153" t="n">
-        <v>3.91289864144579e-60</v>
+        <v>3.070133519990105e-49</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>4.582256944492457</v>
+        <v>5.110037</v>
       </c>
       <c r="C154" t="n">
-        <v>3.148898439329501e-60</v>
+        <v>2.995772851137204e-49</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>4.583388167054657</v>
+        <v>5.11075</v>
       </c>
       <c r="C155" t="n">
-        <v>2.923639145780896e-60</v>
+        <v>2.96333186832261e-49</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>4.583662402827311</v>
+        <v>5.113839</v>
       </c>
       <c r="C156" t="n">
-        <v>2.827005909183792e-60</v>
+        <v>2.695679160571903e-49</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>4.586636146987034</v>
+        <v>5.118804</v>
       </c>
       <c r="C157" t="n">
-        <v>3.309521910503065e-60</v>
+        <v>2.064836239000981e-49</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>4.58796447651083</v>
+        <v>5.123773</v>
       </c>
       <c r="C158" t="n">
-        <v>2.78631213840008e-60</v>
+        <v>1.563967306595287e-49</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>4.591649519705875</v>
+        <v>5.128523</v>
       </c>
       <c r="C159" t="n">
-        <v>2.656394703617278e-60</v>
+        <v>1.287050187227475e-49</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>4.593303504209699</v>
+        <v>5.129939</v>
       </c>
       <c r="C160" t="n">
-        <v>2.298361051981853e-60</v>
+        <v>1.205197665685539e-49</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>4.595068896996162</v>
+        <v>5.133811</v>
       </c>
       <c r="C161" t="n">
-        <v>2.051019927949144e-60</v>
+        <v>1.334686893006295e-49</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>4.596757160971567</v>
+        <v>5.138881</v>
       </c>
       <c r="C162" t="n">
-        <v>1.856507266984668e-60</v>
+        <v>2.018166181935905e-49</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>4.598633962040672</v>
+        <v>5.141653</v>
       </c>
       <c r="C163" t="n">
-        <v>1.655730406084228e-60</v>
+        <v>2.271209257424098e-49</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>4.600339365751868</v>
+        <v>5.144741000000001</v>
       </c>
       <c r="C164" t="n">
-        <v>1.458504891744461e-60</v>
+        <v>2.214096425454739e-49</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>4.601719114483036</v>
+        <v>5.147988</v>
       </c>
       <c r="C165" t="n">
-        <v>1.420891773998488e-60</v>
+        <v>2.057474327787265e-49</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>4.606132596449195</v>
+        <v>5.150005999999999</v>
       </c>
       <c r="C166" t="n">
-        <v>6.445915595283609e-61</v>
+        <v>1.979500187531097e-49</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>4.610666056565891</v>
+        <v>5.150983</v>
       </c>
       <c r="C167" t="n">
-        <v>2.344626648168497e-61</v>
+        <v>1.941185555747192e-49</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>4.613091329180303</v>
+        <v>5.15704</v>
       </c>
       <c r="C168" t="n">
-        <v>1.356545474489461e-61</v>
+        <v>1.575176411875481e-49</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>4.613451263631914</v>
+        <v>5.159375</v>
       </c>
       <c r="C169" t="n">
-        <v>1.894992345397717e-61</v>
+        <v>1.355457999998594e-49</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>4.613896896762476</v>
+        <v>5.170048</v>
       </c>
       <c r="C170" t="n">
-        <v>1.163683239375549e-61</v>
+        <v>6.252213706974131e-50</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>4.615696569020522</v>
+        <v>5.189844</v>
       </c>
       <c r="C171" t="n">
-        <v>8.988199653420134e-62</v>
+        <v>2.30345363114945e-50</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>4.619038817499749</v>
+        <v>5.210028</v>
       </c>
       <c r="C172" t="n">
-        <v>6.993977489167769e-62</v>
+        <v>1.176159616236062e-50</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>4.621798314962087</v>
+        <v>5.230028</v>
       </c>
       <c r="C173" t="n">
-        <v>6.674120678309116e-62</v>
+        <v>7.651233532866522e-51</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>4.630650988498092</v>
+        <v>5.239501000000001</v>
       </c>
       <c r="C174" t="n">
-        <v>7.263707637087035e-62</v>
+        <v>8.19378093100557e-51</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>4.639795037542543</v>
+        <v>5.243064</v>
       </c>
       <c r="C175" t="n">
-        <v>1.047112588233395e-61</v>
+        <v>8.218441949100913e-51</v>
       </c>
     </row>
     <row r="176">
@@ -2297,10 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>4.64860486173907</v>
+        <v>5.250129</v>
       </c>
       <c r="C176" t="n">
-        <v>9.097608140824187e-62</v>
+        <v>1.018553314917403e-50</v>
       </c>
     </row>
     <row r="177">
@@ -2308,10 +2308,10 @@
         <v>175</v>
       </c>
       <c r="B177" t="n">
-        <v>4.658074565763548</v>
+        <v>5.25994</v>
       </c>
       <c r="C177" t="n">
-        <v>6.088055638768363e-62</v>
+        <v>1.032271085704686e-50</v>
       </c>
     </row>
     <row r="178">
@@ -2319,10 +2319,505 @@
         <v>176</v>
       </c>
       <c r="B178" t="n">
-        <v>4.661373964903298</v>
+        <v>5.26504</v>
       </c>
       <c r="C178" t="n">
-        <v>4.943575822729207e-62</v>
+        <v>9.225884472198112e-51</v>
+      </c>
+    </row>
+    <row r="179">
+      <c r="A179" s="1" t="n">
+        <v>177</v>
+      </c>
+      <c r="B179" t="n">
+        <v>5.269983</v>
+      </c>
+      <c r="C179" t="n">
+        <v>7.710709158271151e-51</v>
+      </c>
+    </row>
+    <row r="180">
+      <c r="A180" s="1" t="n">
+        <v>178</v>
+      </c>
+      <c r="B180" t="n">
+        <v>5.27496</v>
+      </c>
+      <c r="C180" t="n">
+        <v>6.025161748719953e-51</v>
+      </c>
+    </row>
+    <row r="181">
+      <c r="A181" s="1" t="n">
+        <v>179</v>
+      </c>
+      <c r="B181" t="n">
+        <v>5.275024</v>
+      </c>
+      <c r="C181" t="n">
+        <v>5.970241552905183e-51</v>
+      </c>
+    </row>
+    <row r="182">
+      <c r="A182" s="1" t="n">
+        <v>180</v>
+      </c>
+      <c r="B182" t="n">
+        <v>5.279812000000001</v>
+      </c>
+      <c r="C182" t="n">
+        <v>4.662856500256502e-51</v>
+      </c>
+    </row>
+    <row r="183">
+      <c r="A183" s="1" t="n">
+        <v>181</v>
+      </c>
+      <c r="B183" t="n">
+        <v>5.284953</v>
+      </c>
+      <c r="C183" t="n">
+        <v>3.423276550518897e-51</v>
+      </c>
+    </row>
+    <row r="184">
+      <c r="A184" s="1" t="n">
+        <v>182</v>
+      </c>
+      <c r="B184" t="n">
+        <v>5.290161</v>
+      </c>
+      <c r="C184" t="n">
+        <v>2.710090249069444e-51</v>
+      </c>
+    </row>
+    <row r="185">
+      <c r="A185" s="1" t="n">
+        <v>183</v>
+      </c>
+      <c r="B185" t="n">
+        <v>5.292942</v>
+      </c>
+      <c r="C185" t="n">
+        <v>2.473504751251242e-51</v>
+      </c>
+    </row>
+    <row r="186">
+      <c r="A186" s="1" t="n">
+        <v>184</v>
+      </c>
+      <c r="B186" t="n">
+        <v>5.297674</v>
+      </c>
+      <c r="C186" t="n">
+        <v>2.129926328751101e-51</v>
+      </c>
+    </row>
+    <row r="187">
+      <c r="A187" s="1" t="n">
+        <v>185</v>
+      </c>
+      <c r="B187" t="n">
+        <v>5.299721</v>
+      </c>
+      <c r="C187" t="n">
+        <v>1.985968253730515e-51</v>
+      </c>
+    </row>
+    <row r="188">
+      <c r="A188" s="1" t="n">
+        <v>186</v>
+      </c>
+      <c r="B188" t="n">
+        <v>5.302376000000001</v>
+      </c>
+      <c r="C188" t="n">
+        <v>1.730869317940224e-51</v>
+      </c>
+    </row>
+    <row r="189">
+      <c r="A189" s="1" t="n">
+        <v>187</v>
+      </c>
+      <c r="B189" t="n">
+        <v>5.308233</v>
+      </c>
+      <c r="C189" t="n">
+        <v>1.641652132145827e-51</v>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" s="1" t="n">
+        <v>188</v>
+      </c>
+      <c r="B190" t="n">
+        <v>5.312876</v>
+      </c>
+      <c r="C190" t="n">
+        <v>1.659055188632926e-51</v>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" s="1" t="n">
+        <v>189</v>
+      </c>
+      <c r="B191" t="n">
+        <v>5.317521</v>
+      </c>
+      <c r="C191" t="n">
+        <v>1.645515260507535e-51</v>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" s="1" t="n">
+        <v>190</v>
+      </c>
+      <c r="B192" t="n">
+        <v>5.322808999999999</v>
+      </c>
+      <c r="C192" t="n">
+        <v>1.599340346570618e-51</v>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" s="1" t="n">
+        <v>191</v>
+      </c>
+      <c r="B193" t="n">
+        <v>5.327683</v>
+      </c>
+      <c r="C193" t="n">
+        <v>1.615118645790559e-51</v>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" s="1" t="n">
+        <v>192</v>
+      </c>
+      <c r="B194" t="n">
+        <v>5.33288</v>
+      </c>
+      <c r="C194" t="n">
+        <v>1.575469938045766e-51</v>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" s="1" t="n">
+        <v>193</v>
+      </c>
+      <c r="B195" t="n">
+        <v>5.332912</v>
+      </c>
+      <c r="C195" t="n">
+        <v>1.500423314983659e-51</v>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" s="1" t="n">
+        <v>194</v>
+      </c>
+      <c r="B196" t="n">
+        <v>5.337469</v>
+      </c>
+      <c r="C196" t="n">
+        <v>1.325980551336702e-51</v>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" s="1" t="n">
+        <v>195</v>
+      </c>
+      <c r="B197" t="n">
+        <v>5.342735</v>
+      </c>
+      <c r="C197" t="n">
+        <v>1.028438535574035e-51</v>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" s="1" t="n">
+        <v>196</v>
+      </c>
+      <c r="B198" t="n">
+        <v>5.342928</v>
+      </c>
+      <c r="C198" t="n">
+        <v>1.004533450276496e-51</v>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" s="1" t="n">
+        <v>197</v>
+      </c>
+      <c r="B199" t="n">
+        <v>5.346943</v>
+      </c>
+      <c r="C199" t="n">
+        <v>7.962242409425768e-52</v>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" s="1" t="n">
+        <v>198</v>
+      </c>
+      <c r="B200" t="n">
+        <v>5.348261</v>
+      </c>
+      <c r="C200" t="n">
+        <v>7.350164569606184e-52</v>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" s="1" t="n">
+        <v>199</v>
+      </c>
+      <c r="B201" t="n">
+        <v>5.348582</v>
+      </c>
+      <c r="C201" t="n">
+        <v>7.099116915161856e-52</v>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="B202" t="n">
+        <v>5.352053</v>
+      </c>
+      <c r="C202" t="n">
+        <v>8.180468916026742e-52</v>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" s="1" t="n">
+        <v>201</v>
+      </c>
+      <c r="B203" t="n">
+        <v>5.353596</v>
+      </c>
+      <c r="C203" t="n">
+        <v>6.838484062136204e-52</v>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" s="1" t="n">
+        <v>202</v>
+      </c>
+      <c r="B204" t="n">
+        <v>5.357905000000001</v>
+      </c>
+      <c r="C204" t="n">
+        <v>6.389634683279249e-52</v>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" s="1" t="n">
+        <v>203</v>
+      </c>
+      <c r="B205" t="n">
+        <v>5.359834999999999</v>
+      </c>
+      <c r="C205" t="n">
+        <v>5.501478005846408e-52</v>
+      </c>
+    </row>
+    <row r="206">
+      <c r="A206" s="1" t="n">
+        <v>204</v>
+      </c>
+      <c r="B206" t="n">
+        <v>5.361894</v>
+      </c>
+      <c r="C206" t="n">
+        <v>4.868421062295909e-52</v>
+      </c>
+    </row>
+    <row r="207">
+      <c r="A207" s="1" t="n">
+        <v>205</v>
+      </c>
+      <c r="B207" t="n">
+        <v>5.363857</v>
+      </c>
+      <c r="C207" t="n">
+        <v>4.368597794361917e-52</v>
+      </c>
+    </row>
+    <row r="208">
+      <c r="A208" s="1" t="n">
+        <v>206</v>
+      </c>
+      <c r="B208" t="n">
+        <v>5.366045</v>
+      </c>
+      <c r="C208" t="n">
+        <v>3.852655236780928e-52</v>
+      </c>
+    </row>
+    <row r="209">
+      <c r="A209" s="1" t="n">
+        <v>207</v>
+      </c>
+      <c r="B209" t="n">
+        <v>5.368041000000001</v>
+      </c>
+      <c r="C209" t="n">
+        <v>3.371670769851685e-52</v>
+      </c>
+    </row>
+    <row r="210">
+      <c r="A210" s="1" t="n">
+        <v>208</v>
+      </c>
+      <c r="B210" t="n">
+        <v>5.369651</v>
+      </c>
+      <c r="C210" t="n">
+        <v>3.271107372209027e-52</v>
+      </c>
+    </row>
+    <row r="211">
+      <c r="A211" s="1" t="n">
+        <v>209</v>
+      </c>
+      <c r="B211" t="n">
+        <v>5.374804</v>
+      </c>
+      <c r="C211" t="n">
+        <v>1.453785657679222e-52</v>
+      </c>
+    </row>
+    <row r="212">
+      <c r="A212" s="1" t="n">
+        <v>210</v>
+      </c>
+      <c r="B212" t="n">
+        <v>5.380088</v>
+      </c>
+      <c r="C212" t="n">
+        <v>5.152460156062004e-53</v>
+      </c>
+    </row>
+    <row r="213">
+      <c r="A213" s="1" t="n">
+        <v>211</v>
+      </c>
+      <c r="B213" t="n">
+        <v>5.382924</v>
+      </c>
+      <c r="C213" t="n">
+        <v>2.945691692196783e-53</v>
+      </c>
+    </row>
+    <row r="214">
+      <c r="A214" s="1" t="n">
+        <v>212</v>
+      </c>
+      <c r="B214" t="n">
+        <v>5.383343</v>
+      </c>
+      <c r="C214" t="n">
+        <v>4.112883493874051e-53</v>
+      </c>
+    </row>
+    <row r="215">
+      <c r="A215" s="1" t="n">
+        <v>213</v>
+      </c>
+      <c r="B215" t="n">
+        <v>5.383858999999999</v>
+      </c>
+      <c r="C215" t="n">
+        <v>2.519488971024977e-53</v>
+      </c>
+    </row>
+    <row r="216">
+      <c r="A216" s="1" t="n">
+        <v>214</v>
+      </c>
+      <c r="B216" t="n">
+        <v>5.385955</v>
+      </c>
+      <c r="C216" t="n">
+        <v>1.925860949456922e-53</v>
+      </c>
+    </row>
+    <row r="217">
+      <c r="A217" s="1" t="n">
+        <v>215</v>
+      </c>
+      <c r="B217" t="n">
+        <v>5.389858</v>
+      </c>
+      <c r="C217" t="n">
+        <v>1.464286372281975e-53</v>
+      </c>
+    </row>
+    <row r="218">
+      <c r="A218" s="1" t="n">
+        <v>216</v>
+      </c>
+      <c r="B218" t="n">
+        <v>5.393084</v>
+      </c>
+      <c r="C218" t="n">
+        <v>1.362056665202702e-53</v>
+      </c>
+    </row>
+    <row r="219">
+      <c r="A219" s="1" t="n">
+        <v>217</v>
+      </c>
+      <c r="B219" t="n">
+        <v>5.403415</v>
+      </c>
+      <c r="C219" t="n">
+        <v>1.453602204137306e-53</v>
+      </c>
+    </row>
+    <row r="220">
+      <c r="A220" s="1" t="n">
+        <v>218</v>
+      </c>
+      <c r="B220" t="n">
+        <v>5.414078</v>
+      </c>
+      <c r="C220" t="n">
+        <v>1.997002603140406e-53</v>
+      </c>
+    </row>
+    <row r="221">
+      <c r="A221" s="1" t="n">
+        <v>219</v>
+      </c>
+      <c r="B221" t="n">
+        <v>5.424364</v>
+      </c>
+      <c r="C221" t="n">
+        <v>1.663003108245751e-53</v>
+      </c>
+    </row>
+    <row r="222">
+      <c r="A222" s="1" t="n">
+        <v>220</v>
+      </c>
+      <c r="B222" t="n">
+        <v>5.435405</v>
+      </c>
+      <c r="C222" t="n">
+        <v>1.063721139154009e-53</v>
+      </c>
+    </row>
+    <row r="223">
+      <c r="A223" s="1" t="n">
+        <v>221</v>
+      </c>
+      <c r="B223" t="n">
+        <v>5.439261</v>
+      </c>
+      <c r="C223" t="n">
+        <v>8.48958453048462e-54</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C223"/>
+  <dimension ref="A1:C176"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -383,10 +383,10 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>3.996021</v>
+        <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>3.562100770322957e-37</v>
+        <v>2.716436991474351e-51</v>
       </c>
     </row>
     <row r="3">
@@ -394,10 +394,10 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>4.000967</v>
+        <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>5.367406409101933e-37</v>
+        <v>2.136802654676595e-51</v>
       </c>
     </row>
     <row r="4">
@@ -405,10 +405,10 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>4.00294</v>
+        <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>7.129381292552647e-37</v>
+        <v>1.958626584637475e-51</v>
       </c>
     </row>
     <row r="5">
@@ -416,10 +416,10 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>4.006972</v>
+        <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>6.381938455736565e-37</v>
+        <v>2.240165338956332e-51</v>
       </c>
     </row>
     <row r="6">
@@ -427,10 +427,10 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>4.009086</v>
+        <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>7.410102401325863e-37</v>
+        <v>2.404384666107981e-51</v>
       </c>
     </row>
     <row r="7">
@@ -438,10 +438,10 @@
         <v>5</v>
       </c>
       <c r="B7" t="n">
-        <v>4.010032</v>
+        <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>6.892809864908433e-37</v>
+        <v>3.874966015287784e-51</v>
       </c>
     </row>
     <row r="8">
@@ -449,10 +449,10 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>4.01507</v>
+        <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>5.805053091902259e-37</v>
+        <v>5.15681306966691e-51</v>
       </c>
     </row>
     <row r="9">
@@ -460,10 +460,10 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>4.019108</v>
+        <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>5.668579849059172e-37</v>
+        <v>1.227828369415895e-50</v>
       </c>
     </row>
     <row r="10">
@@ -471,10 +471,10 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>4.019916</v>
+        <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>3.932934725448156e-37</v>
+        <v>1.747117974485505e-50</v>
       </c>
     </row>
     <row r="11">
@@ -482,10 +482,10 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>4.025044</v>
+        <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>4.327416368947098e-37</v>
+        <v>1.517517958953686e-50</v>
       </c>
     </row>
     <row r="12">
@@ -493,10 +493,10 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>4.029979</v>
+        <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>4.212412948003393e-37</v>
+        <v>1.001651206850608e-50</v>
       </c>
     </row>
     <row r="13">
@@ -504,10 +504,10 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>4.035141</v>
+        <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>2.349721007288305e-37</v>
+        <v>4.250653728677797e-51</v>
       </c>
     </row>
     <row r="14">
@@ -515,10 +515,10 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>4.269958</v>
+        <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>5.239281994586296e-40</v>
+        <v>3.118895570297486e-51</v>
       </c>
     </row>
     <row r="15">
@@ -526,10 +526,10 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>4.290051</v>
+        <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>2.320616282087725e-40</v>
+        <v>3.766727175075127e-51</v>
       </c>
     </row>
     <row r="16">
@@ -537,10 +537,10 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>4.291116000000001</v>
+        <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>2.430232684092772e-40</v>
+        <v>1.601198266324146e-51</v>
       </c>
     </row>
     <row r="17">
@@ -548,10 +548,10 @@
         <v>15</v>
       </c>
       <c r="B17" t="n">
-        <v>4.293189</v>
+        <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.944056525944019e-40</v>
+        <v>1.061598894083078e-51</v>
       </c>
     </row>
     <row r="18">
@@ -559,10 +559,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="n">
-        <v>4.294196</v>
+        <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>1.957288681531851e-40</v>
+        <v>5.500805897415636e-52</v>
       </c>
     </row>
     <row r="19">
@@ -570,10 +570,10 @@
         <v>17</v>
       </c>
       <c r="B19" t="n">
-        <v>4.295147</v>
+        <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.415251931910689e-40</v>
+        <v>2.337958166770986e-52</v>
       </c>
     </row>
     <row r="20">
@@ -581,10 +581,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="n">
-        <v>4.296155000000001</v>
+        <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.940940696407051e-40</v>
+        <v>1.70401758506228e-52</v>
       </c>
     </row>
     <row r="21">
@@ -592,10 +592,10 @@
         <v>19</v>
       </c>
       <c r="B21" t="n">
-        <v>4.297219999999999</v>
+        <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>2.247550782520258e-40</v>
+        <v>1.584083573994966e-52</v>
       </c>
     </row>
     <row r="22">
@@ -603,10 +603,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="n">
-        <v>4.298083999999999</v>
+        <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>3.950615902307778e-40</v>
+        <v>1.726718885144459e-52</v>
       </c>
     </row>
     <row r="23">
@@ -614,10 +614,10 @@
         <v>21</v>
       </c>
       <c r="B23" t="n">
-        <v>4.299093</v>
+        <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>4.482165824313012e-40</v>
+        <v>1.916796551248101e-52</v>
       </c>
     </row>
     <row r="24">
@@ -625,10 +625,10 @@
         <v>22</v>
       </c>
       <c r="B24" t="n">
-        <v>4.301051999999999</v>
+        <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>5.930402222732357e-40</v>
+        <v>1.669244672313981e-52</v>
       </c>
     </row>
     <row r="25">
@@ -636,10 +636,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="n">
-        <v>4.303098</v>
+        <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>5.944980312549343e-40</v>
+        <v>3.000785935621936e-52</v>
       </c>
     </row>
     <row r="26">
@@ -647,10 +647,10 @@
         <v>24</v>
       </c>
       <c r="B26" t="n">
-        <v>4.305231</v>
+        <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>5.285044334146009e-40</v>
+        <v>4.133339783067129e-52</v>
       </c>
     </row>
     <row r="27">
@@ -658,10 +658,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="n">
-        <v>4.30725</v>
+        <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>5.503329714495134e-40</v>
+        <v>7.611195300345862e-52</v>
       </c>
     </row>
     <row r="28">
@@ -669,10 +669,10 @@
         <v>26</v>
       </c>
       <c r="B28" t="n">
-        <v>4.309297</v>
+        <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>5.087803058138526e-40</v>
+        <v>1.501323929291132e-51</v>
       </c>
     </row>
     <row r="29">
@@ -680,10 +680,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="n">
-        <v>4.309961</v>
+        <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>4.949100563011281e-40</v>
+        <v>1.166656208604804e-51</v>
       </c>
     </row>
     <row r="30">
@@ -691,10 +691,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="n">
-        <v>4.311172</v>
+        <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>4.701737415515313e-40</v>
+        <v>4.891292670213097e-52</v>
       </c>
     </row>
     <row r="31">
@@ -702,10 +702,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="n">
-        <v>4.313105999999999</v>
+        <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>4.524199312244532e-40</v>
+        <v>2.030302834712745e-52</v>
       </c>
     </row>
     <row r="32">
@@ -713,10 +713,10 @@
         <v>30</v>
       </c>
       <c r="B32" t="n">
-        <v>4.315126</v>
+        <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>4.010266052823079e-40</v>
+        <v>7.990764902250436e-53</v>
       </c>
     </row>
     <row r="33">
@@ -724,10 +724,10 @@
         <v>31</v>
       </c>
       <c r="B33" t="n">
-        <v>4.317204</v>
+        <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>3.572208841856137e-40</v>
+        <v>6.440119133956403e-53</v>
       </c>
     </row>
     <row r="34">
@@ -735,10 +735,10 @@
         <v>32</v>
       </c>
       <c r="B34" t="n">
-        <v>4.319168</v>
+        <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.826359137505547e-40</v>
+        <v>3.45558014373166e-53</v>
       </c>
     </row>
     <row r="35">
@@ -746,10 +746,10 @@
         <v>33</v>
       </c>
       <c r="B35" t="n">
-        <v>4.32116</v>
+        <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>3.221894978633121e-40</v>
+        <v>2.545204428388787e-53</v>
       </c>
     </row>
     <row r="36">
@@ -757,10 +757,10 @@
         <v>34</v>
       </c>
       <c r="B36" t="n">
-        <v>4.32298</v>
+        <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>2.931340675173961e-40</v>
+        <v>1.347497328320699e-53</v>
       </c>
     </row>
     <row r="37">
@@ -768,10 +768,10 @@
         <v>35</v>
       </c>
       <c r="B37" t="n">
-        <v>4.325205</v>
+        <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.858059823233746e-40</v>
+        <v>1.445359821908875e-53</v>
       </c>
     </row>
     <row r="38">
@@ -779,10 +779,10 @@
         <v>36</v>
       </c>
       <c r="B38" t="n">
-        <v>4.327112000000001</v>
+        <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>1.750945049607001e-40</v>
+        <v>2.413121041572896e-53</v>
       </c>
     </row>
     <row r="39">
@@ -790,10 +790,10 @@
         <v>37</v>
       </c>
       <c r="B39" t="n">
-        <v>4.329078</v>
+        <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>1.566004860906294e-40</v>
+        <v>9.890650736803157e-54</v>
       </c>
     </row>
     <row r="40">
@@ -801,10 +801,10 @@
         <v>38</v>
       </c>
       <c r="B40" t="n">
-        <v>4.330119</v>
+        <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>1.62740062832445e-40</v>
+        <v>3.47399417881286e-54</v>
       </c>
     </row>
     <row r="41">
@@ -812,10 +812,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="n">
-        <v>4.331189</v>
+        <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.357469953261845e-40</v>
+        <v>2.458922376075304e-54</v>
       </c>
     </row>
     <row r="42">
@@ -823,10 +823,10 @@
         <v>40</v>
       </c>
       <c r="B42" t="n">
-        <v>4.333242</v>
+        <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>2.2927440360629e-40</v>
+        <v>1.3506512266577e-54</v>
       </c>
     </row>
     <row r="43">
@@ -834,10 +834,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="n">
-        <v>4.335151000000001</v>
+        <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.998038788377362e-40</v>
+        <v>1.013453208450623e-54</v>
       </c>
     </row>
     <row r="44">
@@ -845,10 +845,10 @@
         <v>42</v>
       </c>
       <c r="B44" t="n">
-        <v>4.340042</v>
+        <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.575967838741718e-40</v>
+        <v>1.153553869399664e-54</v>
       </c>
     </row>
     <row r="45">
@@ -856,10 +856,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="n">
-        <v>4.344876999999999</v>
+        <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>1.43983978226039e-40</v>
+        <v>2.296923291040891e-54</v>
       </c>
     </row>
     <row r="46">
@@ -867,10 +867,10 @@
         <v>44</v>
       </c>
       <c r="B46" t="n">
-        <v>4.349976</v>
+        <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>1.214781616980392e-40</v>
+        <v>2.360591781346318e-54</v>
       </c>
     </row>
     <row r="47">
@@ -878,10 +878,10 @@
         <v>45</v>
       </c>
       <c r="B47" t="n">
-        <v>4.370053</v>
+        <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>4.544905342321819e-41</v>
+        <v>2.103775313615846e-54</v>
       </c>
     </row>
     <row r="48">
@@ -889,10 +889,10 @@
         <v>46</v>
       </c>
       <c r="B48" t="n">
-        <v>4.390148</v>
+        <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>3.418912434809489e-41</v>
+        <v>1.908657093498763e-54</v>
       </c>
     </row>
     <row r="49">
@@ -900,10 +900,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="n">
-        <v>4.410025</v>
+        <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>2.893417433417839e-41</v>
+        <v>1.484224918734728e-54</v>
       </c>
     </row>
     <row r="50">
@@ -911,10 +911,10 @@
         <v>48</v>
       </c>
       <c r="B50" t="n">
-        <v>4.420244</v>
+        <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>3.146110721090859e-41</v>
+        <v>1.040624450988471e-54</v>
       </c>
     </row>
     <row r="51">
@@ -922,10 +922,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="n">
-        <v>4.430182</v>
+        <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>3.244701000046877e-41</v>
+        <v>6.185406260240774e-55</v>
       </c>
     </row>
     <row r="52">
@@ -933,10 +933,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="n">
-        <v>4.440043</v>
+        <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>5.132518954822583e-41</v>
+        <v>4.471002448537466e-55</v>
       </c>
     </row>
     <row r="53">
@@ -944,10 +944,10 @@
         <v>51</v>
       </c>
       <c r="B53" t="n">
-        <v>4.449945</v>
+        <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>6.545554859448781e-41</v>
+        <v>3.944524157358032e-55</v>
       </c>
     </row>
     <row r="54">
@@ -955,10 +955,10 @@
         <v>52</v>
       </c>
       <c r="B54" t="n">
-        <v>4.454988</v>
+        <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>1.559356337072921e-40</v>
+        <v>3.650112652285675e-55</v>
       </c>
     </row>
     <row r="55">
@@ -966,10 +966,10 @@
         <v>53</v>
       </c>
       <c r="B55" t="n">
-        <v>4.460121</v>
+        <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>2.176207491599178e-40</v>
+        <v>3.174096955860291e-55</v>
       </c>
     </row>
     <row r="56">
@@ -977,10 +977,10 @@
         <v>54</v>
       </c>
       <c r="B56" t="n">
-        <v>4.469957</v>
+        <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>1.80472106642981e-40</v>
+        <v>2.499018308785116e-55</v>
       </c>
     </row>
     <row r="57">
@@ -988,10 +988,10 @@
         <v>55</v>
       </c>
       <c r="B57" t="n">
-        <v>4.477981</v>
+        <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.156262738783051e-40</v>
+        <v>1.77998581222935e-55</v>
       </c>
     </row>
     <row r="58">
@@ -999,10 +999,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="n">
-        <v>4.486129</v>
+        <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>4.756799386624081e-41</v>
+        <v>1.601083471166247e-55</v>
       </c>
     </row>
     <row r="59">
@@ -1010,10 +1010,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="n">
-        <v>4.488189</v>
+        <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>3.436813146921965e-41</v>
+        <v>1.455577599315873e-55</v>
       </c>
     </row>
     <row r="60">
@@ -1021,10 +1021,10 @@
         <v>58</v>
       </c>
       <c r="B60" t="n">
-        <v>4.490073000000001</v>
+        <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>4.119002479889013e-41</v>
+        <v>1.712180739547829e-55</v>
       </c>
     </row>
     <row r="61">
@@ -1032,10 +1032,10 @@
         <v>59</v>
       </c>
       <c r="B61" t="n">
-        <v>4.492223</v>
+        <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.708346555453706e-41</v>
+        <v>1.766028222521226e-55</v>
       </c>
     </row>
     <row r="62">
@@ -1043,10 +1043,10 @@
         <v>60</v>
       </c>
       <c r="B62" t="n">
-        <v>4.494992</v>
+        <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.138534096553694e-41</v>
+        <v>1.835359068567367e-55</v>
       </c>
     </row>
     <row r="63">
@@ -1054,10 +1054,10 @@
         <v>61</v>
       </c>
       <c r="B63" t="n">
-        <v>4.499972000000001</v>
+        <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>5.695854397689979e-42</v>
+        <v>1.960051143214301e-55</v>
       </c>
     </row>
     <row r="64">
@@ -1065,10 +1065,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="n">
-        <v>4.510205</v>
+        <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>2.241704753564184e-42</v>
+        <v>1.917140402649533e-55</v>
       </c>
     </row>
     <row r="65">
@@ -1076,10 +1076,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="n">
-        <v>4.512183</v>
+        <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>1.627932811351571e-42</v>
+        <v>2.025540202980645e-55</v>
       </c>
     </row>
     <row r="66">
@@ -1087,10 +1087,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="n">
-        <v>4.515076000000001</v>
+        <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.52405069728832e-42</v>
+        <v>1.94747372599864e-55</v>
       </c>
     </row>
     <row r="67">
@@ -1098,10 +1098,10 @@
         <v>65</v>
       </c>
       <c r="B67" t="n">
-        <v>4.520067</v>
+        <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.562887220238224e-42</v>
+        <v>1.804786482162754e-55</v>
       </c>
     </row>
     <row r="68">
@@ -1109,10 +1109,10 @@
         <v>66</v>
       </c>
       <c r="B68" t="n">
-        <v>4.525238</v>
+        <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.761125546395921e-42</v>
+        <v>1.72055002337371e-55</v>
       </c>
     </row>
     <row r="69">
@@ -1120,10 +1120,10 @@
         <v>67</v>
       </c>
       <c r="B69" t="n">
-        <v>4.529406</v>
+        <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.51538787730558e-42</v>
+        <v>1.552412789357473e-55</v>
       </c>
     </row>
     <row r="70">
@@ -1131,10 +1131,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="n">
-        <v>4.535056</v>
+        <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>2.624913249671012e-42</v>
+        <v>1.440151031724078e-55</v>
       </c>
     </row>
     <row r="71">
@@ -1142,10 +1142,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="n">
-        <v>4.540236</v>
+        <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>3.568009395491363e-42</v>
+        <v>1.308614230711339e-55</v>
       </c>
     </row>
     <row r="72">
@@ -1153,10 +1153,10 @@
         <v>70</v>
       </c>
       <c r="B72" t="n">
-        <v>4.549804</v>
+        <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>6.500423306658617e-42</v>
+        <v>1.241748975825603e-55</v>
       </c>
     </row>
     <row r="73">
@@ -1164,10 +1164,10 @@
         <v>71</v>
       </c>
       <c r="B73" t="n">
-        <v>4.560183</v>
+        <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.218563091688654e-41</v>
+        <v>1.101111703296495e-55</v>
       </c>
     </row>
     <row r="74">
@@ -1175,10 +1175,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="n">
-        <v>4.570129</v>
+        <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>9.038641710343252e-42</v>
+        <v>1.028416141136571e-55</v>
       </c>
     </row>
     <row r="75">
@@ -1186,10 +1186,10 @@
         <v>73</v>
       </c>
       <c r="B75" t="n">
-        <v>4.580025</v>
+        <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>3.702719054019539e-42</v>
+        <v>6.602166753154427e-56</v>
       </c>
     </row>
     <row r="76">
@@ -1197,10 +1197,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="n">
-        <v>4.590082</v>
+        <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>1.457609336834171e-42</v>
+        <v>5.366799430103251e-56</v>
       </c>
     </row>
     <row r="77">
@@ -1208,10 +1208,10 @@
         <v>75</v>
       </c>
       <c r="B77" t="n">
-        <v>4.600268</v>
+        <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>5.438600853886152e-43</v>
+        <v>4.032055525090085e-56</v>
       </c>
     </row>
     <row r="78">
@@ -1219,10 +1219,10 @@
         <v>76</v>
       </c>
       <c r="B78" t="n">
-        <v>4.609989</v>
+        <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>4.273376446808708e-43</v>
+        <v>2.454202791084118e-56</v>
       </c>
     </row>
     <row r="79">
@@ -1230,10 +1230,10 @@
         <v>77</v>
       </c>
       <c r="B79" t="n">
-        <v>4.620227</v>
+        <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>2.278720357576557e-43</v>
+        <v>1.967332813261255e-56</v>
       </c>
     </row>
     <row r="80">
@@ -1241,10 +1241,10 @@
         <v>78</v>
       </c>
       <c r="B80" t="n">
-        <v>4.629939</v>
+        <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.500953869898307e-43</v>
+        <v>1.507546505927035e-56</v>
       </c>
     </row>
     <row r="81">
@@ -1252,10 +1252,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="n">
-        <v>4.635173</v>
+        <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>8.287495020760466e-44</v>
+        <v>1.334827512824448e-56</v>
       </c>
     </row>
     <row r="82">
@@ -1263,10 +1263,10 @@
         <v>80</v>
       </c>
       <c r="B82" t="n">
-        <v>4.639959999999999</v>
+        <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>8.221198062152174e-44</v>
+        <v>1.334884174466636e-56</v>
       </c>
     </row>
     <row r="83">
@@ -1274,10 +1274,10 @@
         <v>81</v>
       </c>
       <c r="B83" t="n">
-        <v>4.649962</v>
+        <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.32228631410439e-43</v>
+        <v>1.262454830945385e-56</v>
       </c>
     </row>
     <row r="84">
@@ -1285,10 +1285,10 @@
         <v>82</v>
       </c>
       <c r="B84" t="n">
-        <v>4.670119000000001</v>
+        <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>4.997533816644338e-44</v>
+        <v>1.080027341149562e-56</v>
       </c>
     </row>
     <row r="85">
@@ -1296,10 +1296,10 @@
         <v>83</v>
       </c>
       <c r="B85" t="n">
-        <v>4.680153</v>
+        <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.672981929843435e-44</v>
+        <v>1.013103598921744e-56</v>
       </c>
     </row>
     <row r="86">
@@ -1307,10 +1307,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="n">
-        <v>4.689928</v>
+        <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>1.09270599332829e-44</v>
+        <v>9.69066937332335e-57</v>
       </c>
     </row>
     <row r="87">
@@ -1318,10 +1318,10 @@
         <v>85</v>
       </c>
       <c r="B87" t="n">
-        <v>4.71002</v>
+        <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>5.622980260533245e-45</v>
+        <v>1.005867981754701e-56</v>
       </c>
     </row>
     <row r="88">
@@ -1329,10 +1329,10 @@
         <v>86</v>
       </c>
       <c r="B88" t="n">
-        <v>4.730004</v>
+        <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>4.023603118709986e-45</v>
+        <v>1.019047483221358e-56</v>
       </c>
     </row>
     <row r="89">
@@ -1340,10 +1340,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="n">
-        <v>4.749999</v>
+        <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>4.121937193622858e-45</v>
+        <v>9.992950656669123e-57</v>
       </c>
     </row>
     <row r="90">
@@ -1351,10 +1351,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="n">
-        <v>4.755179</v>
+        <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>8.218549325351815e-45</v>
+        <v>9.329333842865637e-57</v>
       </c>
     </row>
     <row r="91">
@@ -1362,10 +1362,10 @@
         <v>89</v>
       </c>
       <c r="B91" t="n">
-        <v>4.758876</v>
+        <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.298451767324197e-45</v>
+        <v>8.49120832509404e-57</v>
       </c>
     </row>
     <row r="92">
@@ -1373,10 +1373,10 @@
         <v>90</v>
       </c>
       <c r="B92" t="n">
-        <v>4.770038</v>
+        <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.057498326892862e-45</v>
+        <v>7.100960682294142e-57</v>
       </c>
     </row>
     <row r="93">
@@ -1384,10 +1384,10 @@
         <v>91</v>
       </c>
       <c r="B93" t="n">
-        <v>4.775016</v>
+        <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>6.317078234797763e-45</v>
+        <v>5.436133882955005e-57</v>
       </c>
     </row>
     <row r="94">
@@ -1395,10 +1395,10 @@
         <v>92</v>
       </c>
       <c r="B94" t="n">
-        <v>4.780179</v>
+        <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>4.845562420776024e-45</v>
+        <v>2.660932698169219e-57</v>
       </c>
     </row>
     <row r="95">
@@ -1406,10 +1406,10 @@
         <v>93</v>
       </c>
       <c r="B95" t="n">
-        <v>4.790118</v>
+        <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>3.208505071331233e-45</v>
+        <v>1.98205629940227e-57</v>
       </c>
     </row>
     <row r="96">
@@ -1417,10 +1417,10 @@
         <v>94</v>
       </c>
       <c r="B96" t="n">
-        <v>4.799915</v>
+        <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.816408171593537e-45</v>
+        <v>1.432048367609532e-57</v>
       </c>
     </row>
     <row r="97">
@@ -1428,10 +1428,10 @@
         <v>95</v>
       </c>
       <c r="B97" t="n">
-        <v>4.810027</v>
+        <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>1.243661574442827e-45</v>
+        <v>8.735638853867874e-58</v>
       </c>
     </row>
     <row r="98">
@@ -1439,10 +1439,10 @@
         <v>96</v>
       </c>
       <c r="B98" t="n">
-        <v>4.81216</v>
+        <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>1.100926485573926e-45</v>
+        <v>7.147783984768988e-58</v>
       </c>
     </row>
     <row r="99">
@@ -1450,10 +1450,10 @@
         <v>97</v>
       </c>
       <c r="B99" t="n">
-        <v>4.81527</v>
+        <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>1.006000143766946e-45</v>
+        <v>6.408182313347455e-58</v>
       </c>
     </row>
     <row r="100">
@@ -1461,10 +1461,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="n">
-        <v>4.820058</v>
+        <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>8.604524600701883e-46</v>
+        <v>6.078821762416567e-58</v>
       </c>
     </row>
     <row r="101">
@@ -1472,10 +1472,10 @@
         <v>99</v>
       </c>
       <c r="B101" t="n">
-        <v>4.829886</v>
+        <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>6.516371713774713e-46</v>
+        <v>5.486256145200121e-58</v>
       </c>
     </row>
     <row r="102">
@@ -1483,10 +1483,10 @@
         <v>100</v>
       </c>
       <c r="B102" t="n">
-        <v>4.85003</v>
+        <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>4.269299402321585e-46</v>
+        <v>5.334126182074759e-58</v>
       </c>
     </row>
     <row r="103">
@@ -1494,10 +1494,10 @@
         <v>101</v>
       </c>
       <c r="B103" t="n">
-        <v>4.866293</v>
+        <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>3.588248921515493e-46</v>
+        <v>5.322989007086826e-58</v>
       </c>
     </row>
     <row r="104">
@@ -1505,10 +1505,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="n">
-        <v>4.889892</v>
+        <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>2.97735656955102e-46</v>
+        <v>5.218303679462267e-58</v>
       </c>
     </row>
     <row r="105">
@@ -1516,10 +1516,10 @@
         <v>103</v>
       </c>
       <c r="B105" t="n">
-        <v>4.899914</v>
+        <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>3.411829389501171e-46</v>
+        <v>4.846313912251594e-58</v>
       </c>
     </row>
     <row r="106">
@@ -1527,10 +1527,10 @@
         <v>104</v>
       </c>
       <c r="B106" t="n">
-        <v>4.910130000000001</v>
+        <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>3.360963440229609e-46</v>
+        <v>4.49588055895636e-58</v>
       </c>
     </row>
     <row r="107">
@@ -1538,10 +1538,10 @@
         <v>105</v>
       </c>
       <c r="B107" t="n">
-        <v>4.919957</v>
+        <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>3.368814709157276e-46</v>
+        <v>4.224767319379048e-58</v>
       </c>
     </row>
     <row r="108">
@@ -1549,10 +1549,10 @@
         <v>106</v>
       </c>
       <c r="B108" t="n">
-        <v>4.926154</v>
+        <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.514017009779636e-46</v>
+        <v>3.783925346534819e-58</v>
       </c>
     </row>
     <row r="109">
@@ -1560,10 +1560,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="n">
-        <v>4.930194999999999</v>
+        <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3.381299888968159e-46</v>
+        <v>3.699305538105454e-58</v>
       </c>
     </row>
     <row r="110">
@@ -1571,10 +1571,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="n">
-        <v>4.936923</v>
+        <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>3.469047274001944e-46</v>
+        <v>3.693069136191382e-58</v>
       </c>
     </row>
     <row r="111">
@@ -1582,10 +1582,10 @@
         <v>109</v>
       </c>
       <c r="B111" t="n">
-        <v>4.946745</v>
+        <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.209086291797409e-46</v>
+        <v>3.39272316005784e-58</v>
       </c>
     </row>
     <row r="112">
@@ -1593,10 +1593,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="n">
-        <v>4.950269</v>
+        <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.930681504534596e-46</v>
+        <v>2.648171387799789e-58</v>
       </c>
     </row>
     <row r="113">
@@ -1604,10 +1604,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="n">
-        <v>4.956763</v>
+        <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.726445797659584e-46</v>
+        <v>2.062808189571753e-58</v>
       </c>
     </row>
     <row r="114">
@@ -1615,10 +1615,10 @@
         <v>112</v>
       </c>
       <c r="B114" t="n">
-        <v>4.961869</v>
+        <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>2.406260574717874e-46</v>
+        <v>1.731868319068072e-58</v>
       </c>
     </row>
     <row r="115">
@@ -1626,10 +1626,10 @@
         <v>113</v>
       </c>
       <c r="B115" t="n">
-        <v>4.964748</v>
+        <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>2.199881461918278e-46</v>
+        <v>1.625551740101592e-58</v>
       </c>
     </row>
     <row r="116">
@@ -1637,10 +1637,10 @@
         <v>114</v>
       </c>
       <c r="B116" t="n">
-        <v>4.967875</v>
+        <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.977569147336301e-46</v>
+        <v>1.847386653236417e-58</v>
       </c>
     </row>
     <row r="117">
@@ -1648,10 +1648,10 @@
         <v>115</v>
       </c>
       <c r="B117" t="n">
-        <v>4.970043</v>
+        <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>1.859262124031167e-46</v>
+        <v>2.792683508066186e-58</v>
       </c>
     </row>
     <row r="118">
@@ -1659,10 +1659,10 @@
         <v>116</v>
       </c>
       <c r="B118" t="n">
-        <v>4.9728</v>
+        <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>1.632581159606768e-46</v>
+        <v>3.150189187684763e-58</v>
       </c>
     </row>
     <row r="119">
@@ -1670,10 +1670,10 @@
         <v>117</v>
       </c>
       <c r="B119" t="n">
-        <v>4.974629</v>
+        <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>1.509205619221533e-46</v>
+        <v>3.12207161656094e-58</v>
       </c>
     </row>
     <row r="120">
@@ -1681,10 +1681,10 @@
         <v>118</v>
       </c>
       <c r="B120" t="n">
-        <v>4.984706</v>
+        <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>9.28831021219269e-47</v>
+        <v>2.924783684025856e-58</v>
       </c>
     </row>
     <row r="121">
@@ -1692,10 +1692,10 @@
         <v>119</v>
       </c>
       <c r="B121" t="n">
-        <v>4.990074</v>
+        <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>7.37986046647082e-47</v>
+        <v>2.863845619522162e-58</v>
       </c>
     </row>
     <row r="122">
@@ -1703,10 +1703,10 @@
         <v>120</v>
       </c>
       <c r="B122" t="n">
-        <v>4.994669</v>
+        <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>5.445146519413273e-47</v>
+        <v>2.805081260624425e-58</v>
       </c>
     </row>
     <row r="123">
@@ -1714,10 +1714,10 @@
         <v>121</v>
       </c>
       <c r="B123" t="n">
-        <v>5.004642</v>
+        <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>3.174593472222507e-47</v>
+        <v>2.329785371868288e-58</v>
       </c>
     </row>
     <row r="124">
@@ -1725,10 +1725,10 @@
         <v>122</v>
       </c>
       <c r="B124" t="n">
-        <v>5.00999</v>
+        <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.486418913822064e-47</v>
+        <v>2.029185945003592e-58</v>
       </c>
     </row>
     <row r="125">
@@ -1736,10 +1736,10 @@
         <v>123</v>
       </c>
       <c r="B125" t="n">
-        <v>5.014843</v>
+        <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>1.862069667403816e-47</v>
+        <v>9.842343634531271e-59</v>
       </c>
     </row>
     <row r="126">
@@ -1747,10 +1747,10 @@
         <v>124</v>
       </c>
       <c r="B126" t="n">
-        <v>5.017737</v>
+        <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>1.629664251834115e-47</v>
+        <v>3.961938898652645e-59</v>
       </c>
     </row>
     <row r="127">
@@ -1758,10 +1758,10 @@
         <v>125</v>
       </c>
       <c r="B127" t="n">
-        <v>5.017861</v>
+        <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>1.629118609536303e-47</v>
+        <v>2.225299109467575e-59</v>
       </c>
     </row>
     <row r="128">
@@ -1769,10 +1769,10 @@
         <v>126</v>
       </c>
       <c r="B128" t="n">
-        <v>5.019822</v>
+        <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.526164373275095e-47</v>
+        <v>1.54780967888927e-59</v>
       </c>
     </row>
     <row r="129">
@@ -1780,10 +1780,10 @@
         <v>127</v>
       </c>
       <c r="B129" t="n">
-        <v>5.024805000000001</v>
+        <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.281379830416692e-47</v>
+        <v>1.729107451924024e-59</v>
       </c>
     </row>
     <row r="130">
@@ -1791,10 +1791,10 @@
         <v>128</v>
       </c>
       <c r="B130" t="n">
-        <v>5.027826</v>
+        <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.184959495235999e-47</v>
+        <v>1.756704813516219e-59</v>
       </c>
     </row>
     <row r="131">
@@ -1802,10 +1802,10 @@
         <v>129</v>
       </c>
       <c r="B131" t="n">
-        <v>5.030101</v>
+        <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>1.119501114522252e-47</v>
+        <v>2.223599852183606e-59</v>
       </c>
     </row>
     <row r="132">
@@ -1813,10 +1813,10 @@
         <v>130</v>
       </c>
       <c r="B132" t="n">
-        <v>5.032781</v>
+        <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>1.159502719820685e-47</v>
+        <v>2.322455460641029e-59</v>
       </c>
     </row>
     <row r="133">
@@ -1824,10 +1824,10 @@
         <v>131</v>
       </c>
       <c r="B133" t="n">
-        <v>5.035899</v>
+        <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>1.154726885593531e-47</v>
+        <v>2.147713825093701e-59</v>
       </c>
     </row>
     <row r="134">
@@ -1835,10 +1835,10 @@
         <v>132</v>
       </c>
       <c r="B134" t="n">
-        <v>5.038705999999999</v>
+        <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.120039958463476e-47</v>
+        <v>1.817303098509198e-59</v>
       </c>
     </row>
     <row r="135">
@@ -1846,10 +1846,10 @@
         <v>133</v>
       </c>
       <c r="B135" t="n">
-        <v>5.041981</v>
+        <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.030104142859651e-47</v>
+        <v>1.438991891884264e-59</v>
       </c>
     </row>
     <row r="136">
@@ -1857,10 +1857,10 @@
         <v>134</v>
       </c>
       <c r="B136" t="n">
-        <v>5.044789</v>
+        <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>9.298225743070441e-48</v>
+        <v>1.138489027978743e-59</v>
       </c>
     </row>
     <row r="137">
@@ -1868,10 +1868,10 @@
         <v>135</v>
       </c>
       <c r="B137" t="n">
-        <v>5.049971</v>
+        <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>7.615318073793079e-48</v>
+        <v>8.545411639643988e-60</v>
       </c>
     </row>
     <row r="138">
@@ -1879,10 +1879,10 @@
         <v>136</v>
       </c>
       <c r="B138" t="n">
-        <v>5.054843</v>
+        <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>5.68633591539827e-48</v>
+        <v>6.976875317416223e-60</v>
       </c>
     </row>
     <row r="139">
@@ -1890,10 +1890,10 @@
         <v>137</v>
       </c>
       <c r="B139" t="n">
-        <v>5.064876</v>
+        <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>2.664355703980437e-48</v>
+        <v>6.51768347576179e-60</v>
       </c>
     </row>
     <row r="140">
@@ -1901,10 +1901,10 @@
         <v>138</v>
       </c>
       <c r="B140" t="n">
-        <v>5.069912</v>
+        <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>1.939707819107311e-48</v>
+        <v>5.574267334668877e-60</v>
       </c>
     </row>
     <row r="141">
@@ -1912,10 +1912,10 @@
         <v>139</v>
       </c>
       <c r="B141" t="n">
-        <v>5.074481</v>
+        <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>1.365052152768958e-48</v>
+        <v>5.295429070208506e-60</v>
       </c>
     </row>
     <row r="142">
@@ -1923,10 +1923,10 @@
         <v>140</v>
       </c>
       <c r="B142" t="n">
-        <v>5.084189</v>
+        <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>7.977643824117738e-49</v>
+        <v>4.789528478150075e-60</v>
       </c>
     </row>
     <row r="143">
@@ -1934,10 +1934,10 @@
         <v>141</v>
       </c>
       <c r="B143" t="n">
-        <v>5.089986</v>
+        <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>6.32958467147709e-49</v>
+        <v>4.585702450043843e-60</v>
       </c>
     </row>
     <row r="144">
@@ -1945,10 +1945,10 @@
         <v>142</v>
       </c>
       <c r="B144" t="n">
-        <v>5.093717</v>
+        <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>5.573642930171797e-49</v>
+        <v>4.704683539339682e-60</v>
       </c>
     </row>
     <row r="145">
@@ -1956,10 +1956,10 @@
         <v>143</v>
       </c>
       <c r="B145" t="n">
-        <v>5.09676</v>
+        <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>5.235683864198955e-49</v>
+        <v>4.733852518224546e-60</v>
       </c>
     </row>
     <row r="146">
@@ -1967,10 +1967,10 @@
         <v>144</v>
       </c>
       <c r="B146" t="n">
-        <v>5.098893</v>
+        <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.692555123147651e-49</v>
+        <v>4.703281338055924e-60</v>
       </c>
     </row>
     <row r="147">
@@ -1978,10 +1978,10 @@
         <v>145</v>
       </c>
       <c r="B147" t="n">
-        <v>5.099991</v>
+        <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>4.544385776387894e-49</v>
+        <v>4.814592751911445e-60</v>
       </c>
     </row>
     <row r="148">
@@ -1989,10 +1989,10 @@
         <v>146</v>
       </c>
       <c r="B148" t="n">
-        <v>5.100430999999999</v>
+        <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>4.493860955121013e-49</v>
+        <v>4.680617571609093e-60</v>
       </c>
     </row>
     <row r="149">
@@ -2000,10 +2000,10 @@
         <v>147</v>
       </c>
       <c r="B149" t="n">
-        <v>5.100713</v>
+        <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>4.438153462187994e-49</v>
+        <v>4.094466080245063e-60</v>
       </c>
     </row>
     <row r="150">
@@ -2011,10 +2011,10 @@
         <v>148</v>
       </c>
       <c r="B150" t="n">
-        <v>5.102879</v>
+        <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>4.10093063183722e-49</v>
+        <v>3.264503213208366e-60</v>
       </c>
     </row>
     <row r="151">
@@ -2022,10 +2022,10 @@
         <v>149</v>
       </c>
       <c r="B151" t="n">
-        <v>5.104856</v>
+        <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>3.789379950957983e-49</v>
+        <v>3.194138294182879e-60</v>
       </c>
     </row>
     <row r="152">
@@ -2033,10 +2033,10 @@
         <v>150</v>
       </c>
       <c r="B152" t="n">
-        <v>5.106897</v>
+        <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>3.579437833140252e-49</v>
+        <v>2.579152958385295e-60</v>
       </c>
     </row>
     <row r="153">
@@ -2044,10 +2044,10 @@
         <v>151</v>
       </c>
       <c r="B153" t="n">
-        <v>5.108781</v>
+        <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>3.070133519990105e-49</v>
+        <v>2.391767028292232e-60</v>
       </c>
     </row>
     <row r="154">
@@ -2055,10 +2055,10 @@
         <v>152</v>
       </c>
       <c r="B154" t="n">
-        <v>5.110037</v>
+        <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.995772851137204e-49</v>
+        <v>2.316979815883256e-60</v>
       </c>
     </row>
     <row r="155">
@@ -2066,10 +2066,10 @@
         <v>153</v>
       </c>
       <c r="B155" t="n">
-        <v>5.11075</v>
+        <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.96333186832261e-49</v>
+        <v>2.688677690707152e-60</v>
       </c>
     </row>
     <row r="156">
@@ -2077,10 +2077,10 @@
         <v>154</v>
       </c>
       <c r="B156" t="n">
-        <v>5.113839</v>
+        <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.695679160571903e-49</v>
+        <v>2.277868682615855e-60</v>
       </c>
     </row>
     <row r="157">
@@ -2088,10 +2088,10 @@
         <v>155</v>
       </c>
       <c r="B157" t="n">
-        <v>5.118804</v>
+        <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.064836239000981e-49</v>
+        <v>2.163291301300267e-60</v>
       </c>
     </row>
     <row r="158">
@@ -2099,10 +2099,10 @@
         <v>156</v>
       </c>
       <c r="B158" t="n">
-        <v>5.123773</v>
+        <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.563967306595287e-49</v>
+        <v>1.880467357482323e-60</v>
       </c>
     </row>
     <row r="159">
@@ -2110,10 +2110,10 @@
         <v>157</v>
       </c>
       <c r="B159" t="n">
-        <v>5.128523</v>
+        <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.287050187227475e-49</v>
+        <v>1.678448040182615e-60</v>
       </c>
     </row>
     <row r="160">
@@ -2121,10 +2121,10 @@
         <v>158</v>
       </c>
       <c r="B160" t="n">
-        <v>5.129939</v>
+        <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.205197665685539e-49</v>
+        <v>1.522155383411698e-60</v>
       </c>
     </row>
     <row r="161">
@@ -2132,10 +2132,10 @@
         <v>159</v>
       </c>
       <c r="B161" t="n">
-        <v>5.133811</v>
+        <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.334686893006295e-49</v>
+        <v>1.341701294245583e-60</v>
       </c>
     </row>
     <row r="162">
@@ -2143,10 +2143,10 @@
         <v>160</v>
       </c>
       <c r="B162" t="n">
-        <v>5.138881</v>
+        <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>2.018166181935905e-49</v>
+        <v>1.196676098115159e-60</v>
       </c>
     </row>
     <row r="163">
@@ -2154,10 +2154,10 @@
         <v>161</v>
       </c>
       <c r="B163" t="n">
-        <v>5.141653</v>
+        <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>2.271209257424098e-49</v>
+        <v>1.173805909448155e-60</v>
       </c>
     </row>
     <row r="164">
@@ -2165,10 +2165,10 @@
         <v>162</v>
       </c>
       <c r="B164" t="n">
-        <v>5.144741000000001</v>
+        <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>2.214096425454739e-49</v>
+        <v>5.39636966326261e-61</v>
       </c>
     </row>
     <row r="165">
@@ -2176,10 +2176,10 @@
         <v>163</v>
       </c>
       <c r="B165" t="n">
-        <v>5.147988</v>
+        <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>2.057474327787265e-49</v>
+        <v>1.973932142938826e-61</v>
       </c>
     </row>
     <row r="166">
@@ -2187,10 +2187,10 @@
         <v>164</v>
       </c>
       <c r="B166" t="n">
-        <v>5.150005999999999</v>
+        <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.979500187531097e-49</v>
+        <v>1.116005684745021e-61</v>
       </c>
     </row>
     <row r="167">
@@ -2198,10 +2198,10 @@
         <v>165</v>
       </c>
       <c r="B167" t="n">
-        <v>5.150983</v>
+        <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.941185555747192e-49</v>
+        <v>1.592018237113875e-61</v>
       </c>
     </row>
     <row r="168">
@@ -2209,10 +2209,10 @@
         <v>166</v>
       </c>
       <c r="B168" t="n">
-        <v>5.15704</v>
+        <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>1.575176411875481e-49</v>
+        <v>9.779168784819321e-62</v>
       </c>
     </row>
     <row r="169">
@@ -2220,10 +2220,10 @@
         <v>167</v>
       </c>
       <c r="B169" t="n">
-        <v>5.159375</v>
+        <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>1.355457999998594e-49</v>
+        <v>7.45990002462596e-62</v>
       </c>
     </row>
     <row r="170">
@@ -2231,10 +2231,10 @@
         <v>168</v>
       </c>
       <c r="B170" t="n">
-        <v>5.170048</v>
+        <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>6.252213706974131e-50</v>
+        <v>5.724743792866792e-62</v>
       </c>
     </row>
     <row r="171">
@@ -2242,10 +2242,10 @@
         <v>169</v>
       </c>
       <c r="B171" t="n">
-        <v>5.189844</v>
+        <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>2.30345363114945e-50</v>
+        <v>5.362459665716831e-62</v>
       </c>
     </row>
     <row r="172">
@@ -2253,10 +2253,10 @@
         <v>170</v>
       </c>
       <c r="B172" t="n">
-        <v>5.210028</v>
+        <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>1.176159616236062e-50</v>
+        <v>6.165448362674292e-62</v>
       </c>
     </row>
     <row r="173">
@@ -2264,10 +2264,10 @@
         <v>171</v>
       </c>
       <c r="B173" t="n">
-        <v>5.230028</v>
+        <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>7.651233532866522e-51</v>
+        <v>8.773381423207616e-62</v>
       </c>
     </row>
     <row r="174">
@@ -2275,10 +2275,10 @@
         <v>172</v>
       </c>
       <c r="B174" t="n">
-        <v>5.239501000000001</v>
+        <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>8.19378093100557e-51</v>
+        <v>7.633963377145292e-62</v>
       </c>
     </row>
     <row r="175">
@@ -2286,10 +2286,10 @@
         <v>173</v>
       </c>
       <c r="B175" t="n">
-        <v>5.243064</v>
+        <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>8.218441949100913e-51</v>
+        <v>5.093235360562935e-62</v>
       </c>
     </row>
     <row r="176">
@@ -2297,527 +2297,10 @@
         <v>174</v>
       </c>
       <c r="B176" t="n">
-        <v>5.250129</v>
+        <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>1.018553314917403e-50</v>
-      </c>
-    </row>
-    <row r="177">
-      <c r="A177" s="1" t="n">
-        <v>175</v>
-      </c>
-      <c r="B177" t="n">
-        <v>5.25994</v>
-      </c>
-      <c r="C177" t="n">
-        <v>1.032271085704686e-50</v>
-      </c>
-    </row>
-    <row r="178">
-      <c r="A178" s="1" t="n">
-        <v>176</v>
-      </c>
-      <c r="B178" t="n">
-        <v>5.26504</v>
-      </c>
-      <c r="C178" t="n">
-        <v>9.225884472198112e-51</v>
-      </c>
-    </row>
-    <row r="179">
-      <c r="A179" s="1" t="n">
-        <v>177</v>
-      </c>
-      <c r="B179" t="n">
-        <v>5.269983</v>
-      </c>
-      <c r="C179" t="n">
-        <v>7.710709158271151e-51</v>
-      </c>
-    </row>
-    <row r="180">
-      <c r="A180" s="1" t="n">
-        <v>178</v>
-      </c>
-      <c r="B180" t="n">
-        <v>5.27496</v>
-      </c>
-      <c r="C180" t="n">
-        <v>6.025161748719953e-51</v>
-      </c>
-    </row>
-    <row r="181">
-      <c r="A181" s="1" t="n">
-        <v>179</v>
-      </c>
-      <c r="B181" t="n">
-        <v>5.275024</v>
-      </c>
-      <c r="C181" t="n">
-        <v>5.970241552905183e-51</v>
-      </c>
-    </row>
-    <row r="182">
-      <c r="A182" s="1" t="n">
-        <v>180</v>
-      </c>
-      <c r="B182" t="n">
-        <v>5.279812000000001</v>
-      </c>
-      <c r="C182" t="n">
-        <v>4.662856500256502e-51</v>
-      </c>
-    </row>
-    <row r="183">
-      <c r="A183" s="1" t="n">
-        <v>181</v>
-      </c>
-      <c r="B183" t="n">
-        <v>5.284953</v>
-      </c>
-      <c r="C183" t="n">
-        <v>3.423276550518897e-51</v>
-      </c>
-    </row>
-    <row r="184">
-      <c r="A184" s="1" t="n">
-        <v>182</v>
-      </c>
-      <c r="B184" t="n">
-        <v>5.290161</v>
-      </c>
-      <c r="C184" t="n">
-        <v>2.710090249069444e-51</v>
-      </c>
-    </row>
-    <row r="185">
-      <c r="A185" s="1" t="n">
-        <v>183</v>
-      </c>
-      <c r="B185" t="n">
-        <v>5.292942</v>
-      </c>
-      <c r="C185" t="n">
-        <v>2.473504751251242e-51</v>
-      </c>
-    </row>
-    <row r="186">
-      <c r="A186" s="1" t="n">
-        <v>184</v>
-      </c>
-      <c r="B186" t="n">
-        <v>5.297674</v>
-      </c>
-      <c r="C186" t="n">
-        <v>2.129926328751101e-51</v>
-      </c>
-    </row>
-    <row r="187">
-      <c r="A187" s="1" t="n">
-        <v>185</v>
-      </c>
-      <c r="B187" t="n">
-        <v>5.299721</v>
-      </c>
-      <c r="C187" t="n">
-        <v>1.985968253730515e-51</v>
-      </c>
-    </row>
-    <row r="188">
-      <c r="A188" s="1" t="n">
-        <v>186</v>
-      </c>
-      <c r="B188" t="n">
-        <v>5.302376000000001</v>
-      </c>
-      <c r="C188" t="n">
-        <v>1.730869317940224e-51</v>
-      </c>
-    </row>
-    <row r="189">
-      <c r="A189" s="1" t="n">
-        <v>187</v>
-      </c>
-      <c r="B189" t="n">
-        <v>5.308233</v>
-      </c>
-      <c r="C189" t="n">
-        <v>1.641652132145827e-51</v>
-      </c>
-    </row>
-    <row r="190">
-      <c r="A190" s="1" t="n">
-        <v>188</v>
-      </c>
-      <c r="B190" t="n">
-        <v>5.312876</v>
-      </c>
-      <c r="C190" t="n">
-        <v>1.659055188632926e-51</v>
-      </c>
-    </row>
-    <row r="191">
-      <c r="A191" s="1" t="n">
-        <v>189</v>
-      </c>
-      <c r="B191" t="n">
-        <v>5.317521</v>
-      </c>
-      <c r="C191" t="n">
-        <v>1.645515260507535e-51</v>
-      </c>
-    </row>
-    <row r="192">
-      <c r="A192" s="1" t="n">
-        <v>190</v>
-      </c>
-      <c r="B192" t="n">
-        <v>5.322808999999999</v>
-      </c>
-      <c r="C192" t="n">
-        <v>1.599340346570618e-51</v>
-      </c>
-    </row>
-    <row r="193">
-      <c r="A193" s="1" t="n">
-        <v>191</v>
-      </c>
-      <c r="B193" t="n">
-        <v>5.327683</v>
-      </c>
-      <c r="C193" t="n">
-        <v>1.615118645790559e-51</v>
-      </c>
-    </row>
-    <row r="194">
-      <c r="A194" s="1" t="n">
-        <v>192</v>
-      </c>
-      <c r="B194" t="n">
-        <v>5.33288</v>
-      </c>
-      <c r="C194" t="n">
-        <v>1.575469938045766e-51</v>
-      </c>
-    </row>
-    <row r="195">
-      <c r="A195" s="1" t="n">
-        <v>193</v>
-      </c>
-      <c r="B195" t="n">
-        <v>5.332912</v>
-      </c>
-      <c r="C195" t="n">
-        <v>1.500423314983659e-51</v>
-      </c>
-    </row>
-    <row r="196">
-      <c r="A196" s="1" t="n">
-        <v>194</v>
-      </c>
-      <c r="B196" t="n">
-        <v>5.337469</v>
-      </c>
-      <c r="C196" t="n">
-        <v>1.325980551336702e-51</v>
-      </c>
-    </row>
-    <row r="197">
-      <c r="A197" s="1" t="n">
-        <v>195</v>
-      </c>
-      <c r="B197" t="n">
-        <v>5.342735</v>
-      </c>
-      <c r="C197" t="n">
-        <v>1.028438535574035e-51</v>
-      </c>
-    </row>
-    <row r="198">
-      <c r="A198" s="1" t="n">
-        <v>196</v>
-      </c>
-      <c r="B198" t="n">
-        <v>5.342928</v>
-      </c>
-      <c r="C198" t="n">
-        <v>1.004533450276496e-51</v>
-      </c>
-    </row>
-    <row r="199">
-      <c r="A199" s="1" t="n">
-        <v>197</v>
-      </c>
-      <c r="B199" t="n">
-        <v>5.346943</v>
-      </c>
-      <c r="C199" t="n">
-        <v>7.962242409425768e-52</v>
-      </c>
-    </row>
-    <row r="200">
-      <c r="A200" s="1" t="n">
-        <v>198</v>
-      </c>
-      <c r="B200" t="n">
-        <v>5.348261</v>
-      </c>
-      <c r="C200" t="n">
-        <v>7.350164569606184e-52</v>
-      </c>
-    </row>
-    <row r="201">
-      <c r="A201" s="1" t="n">
-        <v>199</v>
-      </c>
-      <c r="B201" t="n">
-        <v>5.348582</v>
-      </c>
-      <c r="C201" t="n">
-        <v>7.099116915161856e-52</v>
-      </c>
-    </row>
-    <row r="202">
-      <c r="A202" s="1" t="n">
-        <v>200</v>
-      </c>
-      <c r="B202" t="n">
-        <v>5.352053</v>
-      </c>
-      <c r="C202" t="n">
-        <v>8.180468916026742e-52</v>
-      </c>
-    </row>
-    <row r="203">
-      <c r="A203" s="1" t="n">
-        <v>201</v>
-      </c>
-      <c r="B203" t="n">
-        <v>5.353596</v>
-      </c>
-      <c r="C203" t="n">
-        <v>6.838484062136204e-52</v>
-      </c>
-    </row>
-    <row r="204">
-      <c r="A204" s="1" t="n">
-        <v>202</v>
-      </c>
-      <c r="B204" t="n">
-        <v>5.357905000000001</v>
-      </c>
-      <c r="C204" t="n">
-        <v>6.389634683279249e-52</v>
-      </c>
-    </row>
-    <row r="205">
-      <c r="A205" s="1" t="n">
-        <v>203</v>
-      </c>
-      <c r="B205" t="n">
-        <v>5.359834999999999</v>
-      </c>
-      <c r="C205" t="n">
-        <v>5.501478005846408e-52</v>
-      </c>
-    </row>
-    <row r="206">
-      <c r="A206" s="1" t="n">
-        <v>204</v>
-      </c>
-      <c r="B206" t="n">
-        <v>5.361894</v>
-      </c>
-      <c r="C206" t="n">
-        <v>4.868421062295909e-52</v>
-      </c>
-    </row>
-    <row r="207">
-      <c r="A207" s="1" t="n">
-        <v>205</v>
-      </c>
-      <c r="B207" t="n">
-        <v>5.363857</v>
-      </c>
-      <c r="C207" t="n">
-        <v>4.368597794361917e-52</v>
-      </c>
-    </row>
-    <row r="208">
-      <c r="A208" s="1" t="n">
-        <v>206</v>
-      </c>
-      <c r="B208" t="n">
-        <v>5.366045</v>
-      </c>
-      <c r="C208" t="n">
-        <v>3.852655236780928e-52</v>
-      </c>
-    </row>
-    <row r="209">
-      <c r="A209" s="1" t="n">
-        <v>207</v>
-      </c>
-      <c r="B209" t="n">
-        <v>5.368041000000001</v>
-      </c>
-      <c r="C209" t="n">
-        <v>3.371670769851685e-52</v>
-      </c>
-    </row>
-    <row r="210">
-      <c r="A210" s="1" t="n">
-        <v>208</v>
-      </c>
-      <c r="B210" t="n">
-        <v>5.369651</v>
-      </c>
-      <c r="C210" t="n">
-        <v>3.271107372209027e-52</v>
-      </c>
-    </row>
-    <row r="211">
-      <c r="A211" s="1" t="n">
-        <v>209</v>
-      </c>
-      <c r="B211" t="n">
-        <v>5.374804</v>
-      </c>
-      <c r="C211" t="n">
-        <v>1.453785657679222e-52</v>
-      </c>
-    </row>
-    <row r="212">
-      <c r="A212" s="1" t="n">
-        <v>210</v>
-      </c>
-      <c r="B212" t="n">
-        <v>5.380088</v>
-      </c>
-      <c r="C212" t="n">
-        <v>5.152460156062004e-53</v>
-      </c>
-    </row>
-    <row r="213">
-      <c r="A213" s="1" t="n">
-        <v>211</v>
-      </c>
-      <c r="B213" t="n">
-        <v>5.382924</v>
-      </c>
-      <c r="C213" t="n">
-        <v>2.945691692196783e-53</v>
-      </c>
-    </row>
-    <row r="214">
-      <c r="A214" s="1" t="n">
-        <v>212</v>
-      </c>
-      <c r="B214" t="n">
-        <v>5.383343</v>
-      </c>
-      <c r="C214" t="n">
-        <v>4.112883493874051e-53</v>
-      </c>
-    </row>
-    <row r="215">
-      <c r="A215" s="1" t="n">
-        <v>213</v>
-      </c>
-      <c r="B215" t="n">
-        <v>5.383858999999999</v>
-      </c>
-      <c r="C215" t="n">
-        <v>2.519488971024977e-53</v>
-      </c>
-    </row>
-    <row r="216">
-      <c r="A216" s="1" t="n">
-        <v>214</v>
-      </c>
-      <c r="B216" t="n">
-        <v>5.385955</v>
-      </c>
-      <c r="C216" t="n">
-        <v>1.925860949456922e-53</v>
-      </c>
-    </row>
-    <row r="217">
-      <c r="A217" s="1" t="n">
-        <v>215</v>
-      </c>
-      <c r="B217" t="n">
-        <v>5.389858</v>
-      </c>
-      <c r="C217" t="n">
-        <v>1.464286372281975e-53</v>
-      </c>
-    </row>
-    <row r="218">
-      <c r="A218" s="1" t="n">
-        <v>216</v>
-      </c>
-      <c r="B218" t="n">
-        <v>5.393084</v>
-      </c>
-      <c r="C218" t="n">
-        <v>1.362056665202702e-53</v>
-      </c>
-    </row>
-    <row r="219">
-      <c r="A219" s="1" t="n">
-        <v>217</v>
-      </c>
-      <c r="B219" t="n">
-        <v>5.403415</v>
-      </c>
-      <c r="C219" t="n">
-        <v>1.453602204137306e-53</v>
-      </c>
-    </row>
-    <row r="220">
-      <c r="A220" s="1" t="n">
-        <v>218</v>
-      </c>
-      <c r="B220" t="n">
-        <v>5.414078</v>
-      </c>
-      <c r="C220" t="n">
-        <v>1.997002603140406e-53</v>
-      </c>
-    </row>
-    <row r="221">
-      <c r="A221" s="1" t="n">
-        <v>219</v>
-      </c>
-      <c r="B221" t="n">
-        <v>5.424364</v>
-      </c>
-      <c r="C221" t="n">
-        <v>1.663003108245751e-53</v>
-      </c>
-    </row>
-    <row r="222">
-      <c r="A222" s="1" t="n">
-        <v>220</v>
-      </c>
-      <c r="B222" t="n">
-        <v>5.435405</v>
-      </c>
-      <c r="C222" t="n">
-        <v>1.063721139154009e-53</v>
-      </c>
-    </row>
-    <row r="223">
-      <c r="A223" s="1" t="n">
-        <v>221</v>
-      </c>
-      <c r="B223" t="n">
-        <v>5.439261</v>
-      </c>
-      <c r="C223" t="n">
-        <v>8.48958453048462e-54</v>
+        <v>4.130592469140438e-62</v>
       </c>
     </row>
   </sheetData>

--- a/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
+++ b/legendre_out/DATA/p1/p1IntegrandDataPoints0.400000.xlsx
@@ -386,7 +386,7 @@
         <v>3.754973317072596</v>
       </c>
       <c r="C2" t="n">
-        <v>2.716436991474351e-51</v>
+        <v>1.421442536006723e-51</v>
       </c>
     </row>
     <row r="3">
@@ -397,7 +397,7 @@
         <v>3.772113052863507</v>
       </c>
       <c r="C3" t="n">
-        <v>2.136802654676595e-51</v>
+        <v>1.325508797680709e-51</v>
       </c>
     </row>
     <row r="4">
@@ -408,7 +408,7 @@
         <v>3.789167089975462</v>
       </c>
       <c r="C4" t="n">
-        <v>1.958626584637475e-51</v>
+        <v>1.397615484673718e-51</v>
       </c>
     </row>
     <row r="5">
@@ -419,7 +419,7 @@
         <v>3.797908355228826</v>
       </c>
       <c r="C5" t="n">
-        <v>2.240165338956332e-51</v>
+        <v>1.85051420684549e-51</v>
       </c>
     </row>
     <row r="6">
@@ -430,7 +430,7 @@
         <v>3.806478223124282</v>
       </c>
       <c r="C6" t="n">
-        <v>2.404384666107981e-51</v>
+        <v>2.159845394292172e-51</v>
       </c>
     </row>
     <row r="7">
@@ -441,7 +441,7 @@
         <v>3.814876693661827</v>
       </c>
       <c r="C7" t="n">
-        <v>3.874966015287784e-51</v>
+        <v>3.553955666479086e-51</v>
       </c>
     </row>
     <row r="8">
@@ -452,7 +452,7 @@
         <v>3.823360862878328</v>
       </c>
       <c r="C8" t="n">
-        <v>5.15681306966691e-51</v>
+        <v>5.004215965630322e-51</v>
       </c>
     </row>
     <row r="9">
@@ -463,7 +463,7 @@
         <v>3.82773149550501</v>
       </c>
       <c r="C9" t="n">
-        <v>1.227828369415895e-50</v>
+        <v>1.198760067206549e-50</v>
       </c>
     </row>
     <row r="10">
@@ -474,7 +474,7 @@
         <v>3.832102128131692</v>
       </c>
       <c r="C10" t="n">
-        <v>1.747117974485505e-50</v>
+        <v>1.710534421914601e-50</v>
       </c>
     </row>
     <row r="11">
@@ -485,7 +485,7 @@
         <v>3.840586297348192</v>
       </c>
       <c r="C11" t="n">
-        <v>1.517517958953686e-50</v>
+        <v>1.506214217283741e-50</v>
       </c>
     </row>
     <row r="12">
@@ -496,7 +496,7 @@
         <v>3.847442191664556</v>
       </c>
       <c r="C12" t="n">
-        <v>1.001651206850608e-50</v>
+        <v>9.885575305516577e-51</v>
       </c>
     </row>
     <row r="13">
@@ -507,7 +507,7 @@
         <v>3.854383784659876</v>
       </c>
       <c r="C13" t="n">
-        <v>4.250653728677797e-51</v>
+        <v>4.209445080627788e-51</v>
       </c>
     </row>
     <row r="14">
@@ -518,7 +518,7 @@
         <v>3.856183456917921</v>
       </c>
       <c r="C14" t="n">
-        <v>3.118895570297486e-51</v>
+        <v>3.027054531443772e-51</v>
       </c>
     </row>
     <row r="15">
@@ -529,7 +529,7 @@
         <v>3.857811731818057</v>
       </c>
       <c r="C15" t="n">
-        <v>3.766727175075127e-51</v>
+        <v>3.719336201269706e-51</v>
       </c>
     </row>
     <row r="16">
@@ -540,7 +540,7 @@
         <v>3.859611404076103</v>
       </c>
       <c r="C16" t="n">
-        <v>1.601198266324146e-51</v>
+        <v>1.528334947807192e-51</v>
       </c>
     </row>
     <row r="17">
@@ -551,7 +551,7 @@
         <v>3.86201096708683</v>
       </c>
       <c r="C17" t="n">
-        <v>1.061598894083078e-51</v>
+        <v>1.014452806484141e-51</v>
       </c>
     </row>
     <row r="18">
@@ -562,7 +562,7 @@
         <v>3.866295901034558</v>
       </c>
       <c r="C18" t="n">
-        <v>5.500805897415636e-52</v>
+        <v>4.758572255379042e-52</v>
       </c>
     </row>
     <row r="19">
@@ -573,7 +573,7 @@
         <v>3.875037166287922</v>
       </c>
       <c r="C19" t="n">
-        <v>2.337958166770986e-52</v>
+        <v>1.890752697926338e-52</v>
       </c>
     </row>
     <row r="20">
@@ -584,7 +584,7 @@
         <v>3.876751139867013</v>
       </c>
       <c r="C20" t="n">
-        <v>1.70401758506228e-52</v>
+        <v>1.368846780115737e-52</v>
       </c>
     </row>
     <row r="21">
@@ -595,7 +595,7 @@
         <v>3.879236401556695</v>
       </c>
       <c r="C21" t="n">
-        <v>1.584083573994966e-52</v>
+        <v>1.203296414615319e-52</v>
       </c>
     </row>
     <row r="22">
@@ -606,7 +606,7 @@
         <v>3.883521335504422</v>
       </c>
       <c r="C22" t="n">
-        <v>1.726718885144459e-52</v>
+        <v>1.467731127081467e-52</v>
       </c>
     </row>
     <row r="23">
@@ -617,7 +617,7 @@
         <v>3.887891968131104</v>
       </c>
       <c r="C23" t="n">
-        <v>1.916796551248101e-52</v>
+        <v>1.81834935693106e-52</v>
       </c>
     </row>
     <row r="24">
@@ -628,7 +628,7 @@
         <v>3.891491312647195</v>
       </c>
       <c r="C24" t="n">
-        <v>1.669244672313981e-52</v>
+        <v>1.40544581195442e-52</v>
       </c>
     </row>
     <row r="25">
@@ -639,7 +639,7 @@
         <v>3.896376137347605</v>
       </c>
       <c r="C25" t="n">
-        <v>3.000785935621936e-52</v>
+        <v>2.602857494911974e-52</v>
       </c>
     </row>
     <row r="26">
@@ -650,7 +650,7 @@
         <v>3.900746769974288</v>
       </c>
       <c r="C26" t="n">
-        <v>4.133339783067129e-52</v>
+        <v>3.661125165347397e-52</v>
       </c>
     </row>
     <row r="27">
@@ -661,7 +661,7 @@
         <v>3.908973843153924</v>
       </c>
       <c r="C27" t="n">
-        <v>7.611195300345862e-52</v>
+        <v>7.540470867405779e-52</v>
       </c>
     </row>
     <row r="28">
@@ -672,7 +672,7 @@
         <v>3.917886505765197</v>
       </c>
       <c r="C28" t="n">
-        <v>1.501323929291132e-51</v>
+        <v>1.492355665034432e-51</v>
       </c>
     </row>
     <row r="29">
@@ -683,7 +683,7 @@
         <v>3.926370674981698</v>
       </c>
       <c r="C29" t="n">
-        <v>1.166656208604804e-51</v>
+        <v>1.151748069865848e-51</v>
       </c>
     </row>
     <row r="30">
@@ -694,7 +694,7 @@
         <v>3.934854844198199</v>
       </c>
       <c r="C30" t="n">
-        <v>4.891292670213097e-52</v>
+        <v>4.861621415190352e-52</v>
       </c>
     </row>
     <row r="31">
@@ -705,7 +705,7 @@
         <v>3.943510410772608</v>
       </c>
       <c r="C31" t="n">
-        <v>2.030302834712745e-52</v>
+        <v>1.958994174267168e-52</v>
       </c>
     </row>
     <row r="32">
@@ -716,7 +716,7 @@
         <v>3.952251676025972</v>
       </c>
       <c r="C32" t="n">
-        <v>7.990764902250436e-53</v>
+        <v>7.647292682473592e-53</v>
       </c>
     </row>
     <row r="33">
@@ -727,7 +727,7 @@
         <v>3.960564447884564</v>
       </c>
       <c r="C33" t="n">
-        <v>6.440119133956403e-53</v>
+        <v>6.12824818640193e-53</v>
       </c>
     </row>
     <row r="34">
@@ -738,7 +738,7 @@
         <v>3.969305713137928</v>
       </c>
       <c r="C34" t="n">
-        <v>3.45558014373166e-53</v>
+        <v>3.552610560330777e-53</v>
       </c>
     </row>
     <row r="35">
@@ -749,7 +749,7 @@
         <v>3.977618484996519</v>
       </c>
       <c r="C35" t="n">
-        <v>2.545204428388787e-53</v>
+        <v>1.952727796179695e-53</v>
       </c>
     </row>
     <row r="36">
@@ -760,7 +760,7 @@
         <v>3.982160514981111</v>
       </c>
       <c r="C36" t="n">
-        <v>1.347497328320699e-53</v>
+        <v>1.322157193645741e-53</v>
       </c>
     </row>
     <row r="37">
@@ -771,7 +771,7 @@
         <v>3.986274051570929</v>
       </c>
       <c r="C37" t="n">
-        <v>1.445359821908875e-53</v>
+        <v>1.398753000726131e-53</v>
       </c>
     </row>
     <row r="38">
@@ -782,7 +782,7 @@
         <v>3.994843919466384</v>
       </c>
       <c r="C38" t="n">
-        <v>2.413121041572896e-53</v>
+        <v>2.37293189084289e-53</v>
       </c>
     </row>
     <row r="39">
@@ -793,7 +793,7 @@
         <v>4.012069353936249</v>
       </c>
       <c r="C39" t="n">
-        <v>9.890650736803157e-54</v>
+        <v>9.720874626961445e-54</v>
       </c>
     </row>
     <row r="40">
@@ -804,7 +804,7 @@
         <v>4.020724920510658</v>
       </c>
       <c r="C40" t="n">
-        <v>3.47399417881286e-54</v>
+        <v>3.185019621546317e-54</v>
       </c>
     </row>
     <row r="41">
@@ -815,7 +815,7 @@
         <v>4.02903769236925</v>
       </c>
       <c r="C41" t="n">
-        <v>2.458922376075304e-54</v>
+        <v>2.155587517252548e-54</v>
       </c>
     </row>
     <row r="42">
@@ -826,7 +826,7 @@
         <v>4.046263126839114</v>
       </c>
       <c r="C42" t="n">
-        <v>1.3506512266577e-54</v>
+        <v>1.255595487569991e-54</v>
       </c>
     </row>
     <row r="43">
@@ -837,7 +837,7 @@
         <v>4.063402862630025</v>
       </c>
       <c r="C43" t="n">
-        <v>1.013453208450623e-54</v>
+        <v>9.264924869164168e-55</v>
       </c>
     </row>
     <row r="44">
@@ -848,7 +848,7 @@
         <v>4.080542598420934</v>
       </c>
       <c r="C44" t="n">
-        <v>1.153553869399664e-54</v>
+        <v>1.131572863817419e-54</v>
       </c>
     </row>
     <row r="45">
@@ -859,7 +859,7 @@
         <v>4.084998929726572</v>
       </c>
       <c r="C45" t="n">
-        <v>2.296923291040891e-54</v>
+        <v>2.264543627066533e-54</v>
       </c>
     </row>
     <row r="46">
@@ -870,7 +870,7 @@
         <v>4.08816978084789</v>
       </c>
       <c r="C46" t="n">
-        <v>2.360591781346318e-54</v>
+        <v>2.327625314132052e-54</v>
       </c>
     </row>
     <row r="47">
@@ -881,7 +881,7 @@
         <v>4.097682334211846</v>
       </c>
       <c r="C47" t="n">
-        <v>2.103775313615846e-54</v>
+        <v>2.103537131235041e-54</v>
       </c>
     </row>
     <row r="48">
@@ -892,7 +892,7 @@
         <v>4.101967268159573</v>
       </c>
       <c r="C48" t="n">
-        <v>1.908657093498763e-54</v>
+        <v>1.900573268770636e-54</v>
       </c>
     </row>
     <row r="49">
@@ -903,7 +903,7 @@
         <v>4.106423599465209</v>
       </c>
       <c r="C49" t="n">
-        <v>1.484224918734728e-54</v>
+        <v>1.464170764421278e-54</v>
       </c>
     </row>
     <row r="50">
@@ -914,7 +914,7 @@
         <v>4.114907768681709</v>
       </c>
       <c r="C50" t="n">
-        <v>1.040624450988471e-54</v>
+        <v>1.024120455356087e-54</v>
       </c>
     </row>
     <row r="51">
@@ -925,7 +925,7 @@
         <v>4.123306239219255</v>
       </c>
       <c r="C51" t="n">
-        <v>6.185406260240774e-55</v>
+        <v>6.218455786849809e-55</v>
       </c>
     </row>
     <row r="52">
@@ -936,7 +936,7 @@
         <v>4.131961805793665</v>
       </c>
       <c r="C52" t="n">
-        <v>4.471002448537466e-55</v>
+        <v>4.429581940068702e-55</v>
       </c>
     </row>
     <row r="53">
@@ -947,7 +947,7 @@
         <v>4.133847176730665</v>
       </c>
       <c r="C53" t="n">
-        <v>3.944524157358032e-55</v>
+        <v>3.988303576126988e-55</v>
       </c>
     </row>
     <row r="54">
@@ -958,7 +958,7 @@
         <v>4.136503835778257</v>
       </c>
       <c r="C54" t="n">
-        <v>3.650112652285675e-55</v>
+        <v>3.591387542060564e-55</v>
       </c>
     </row>
     <row r="55">
@@ -969,7 +969,7 @@
         <v>4.140617372368075</v>
       </c>
       <c r="C55" t="n">
-        <v>3.174096955860291e-55</v>
+        <v>3.043762605793032e-55</v>
       </c>
     </row>
     <row r="56">
@@ -980,7 +980,7 @@
         <v>4.149015842905621</v>
       </c>
       <c r="C56" t="n">
-        <v>2.499018308785116e-55</v>
+        <v>2.405074982666233e-55</v>
       </c>
     </row>
     <row r="57">
@@ -991,7 +991,7 @@
         <v>4.166241277375486</v>
       </c>
       <c r="C57" t="n">
-        <v>1.77998581222935e-55</v>
+        <v>1.754171722521306e-55</v>
       </c>
     </row>
     <row r="58">
@@ -1002,7 +1002,7 @@
         <v>4.180210162045077</v>
       </c>
       <c r="C58" t="n">
-        <v>1.601083471166247e-55</v>
+        <v>1.57860415358058e-55</v>
       </c>
     </row>
     <row r="59">
@@ -1013,7 +1013,7 @@
         <v>4.200435050278351</v>
       </c>
       <c r="C59" t="n">
-        <v>1.455577599315873e-55</v>
+        <v>1.456014635534502e-55</v>
       </c>
     </row>
     <row r="60">
@@ -1024,7 +1024,7 @@
         <v>4.209004918173807</v>
       </c>
       <c r="C60" t="n">
-        <v>1.712180739547829e-55</v>
+        <v>1.721098608009733e-55</v>
       </c>
     </row>
     <row r="61">
@@ -1035,7 +1035,7 @@
         <v>4.21774618342717</v>
       </c>
       <c r="C61" t="n">
-        <v>1.766028222521226e-55</v>
+        <v>1.773343460102214e-55</v>
       </c>
     </row>
     <row r="62">
@@ -1046,7 +1046,7 @@
         <v>4.226230352643671</v>
       </c>
       <c r="C62" t="n">
-        <v>1.835359068567367e-55</v>
+        <v>1.840072117541459e-55</v>
       </c>
     </row>
     <row r="63">
@@ -1057,7 +1057,7 @@
         <v>4.231543670738853</v>
       </c>
       <c r="C63" t="n">
-        <v>1.960051143214301e-55</v>
+        <v>1.969110851323354e-55</v>
       </c>
     </row>
     <row r="64">
@@ -1068,7 +1068,7 @@
         <v>4.234971617897036</v>
       </c>
       <c r="C64" t="n">
-        <v>1.917140402649533e-55</v>
+        <v>1.920394804365986e-55</v>
       </c>
     </row>
     <row r="65">
@@ -1079,7 +1079,7 @@
         <v>4.24071342938699</v>
       </c>
       <c r="C65" t="n">
-        <v>2.025540202980645e-55</v>
+        <v>2.027508863524786e-55</v>
       </c>
     </row>
     <row r="66">
@@ -1090,7 +1090,7 @@
         <v>4.249111899924536</v>
       </c>
       <c r="C66" t="n">
-        <v>1.94747372599864e-55</v>
+        <v>1.957795110350882e-55</v>
       </c>
     </row>
     <row r="67">
@@ -1101,7 +1101,7 @@
         <v>4.2521970523669</v>
       </c>
       <c r="C67" t="n">
-        <v>1.804786482162754e-55</v>
+        <v>1.810376253412735e-55</v>
       </c>
     </row>
     <row r="68">
@@ -1112,7 +1112,7 @@
         <v>4.257767466498946</v>
       </c>
       <c r="C68" t="n">
-        <v>1.72055002337371e-55</v>
+        <v>1.739783195754014e-55</v>
       </c>
     </row>
     <row r="69">
@@ -1123,7 +1123,7 @@
         <v>4.262138099125628</v>
       </c>
       <c r="C69" t="n">
-        <v>1.552412789357473e-55</v>
+        <v>1.556276455464167e-55</v>
       </c>
     </row>
     <row r="70">
@@ -1134,7 +1134,7 @@
         <v>4.264537662136355</v>
       </c>
       <c r="C70" t="n">
-        <v>1.440151031724078e-55</v>
+        <v>1.449993535745347e-55</v>
       </c>
     </row>
     <row r="71">
@@ -1145,7 +1145,7 @@
         <v>4.267280019862901</v>
       </c>
       <c r="C71" t="n">
-        <v>1.308614230711339e-55</v>
+        <v>1.314655441880431e-55</v>
       </c>
     </row>
     <row r="72">
@@ -1156,7 +1156,7 @@
         <v>4.269079692120946</v>
       </c>
       <c r="C72" t="n">
-        <v>1.241748975825603e-55</v>
+        <v>1.243992906273415e-55</v>
       </c>
     </row>
     <row r="73">
@@ -1167,7 +1167,7 @@
         <v>4.271479255131674</v>
       </c>
       <c r="C73" t="n">
-        <v>1.101111703296495e-55</v>
+        <v>1.112077710380487e-55</v>
       </c>
     </row>
     <row r="74">
@@ -1178,7 +1178,7 @@
         <v>4.273021831352856</v>
       </c>
       <c r="C74" t="n">
-        <v>1.028416141136571e-55</v>
+        <v>1.03234635806867e-55</v>
       </c>
     </row>
     <row r="75">
@@ -1189,7 +1189,7 @@
         <v>4.281677397927266</v>
       </c>
       <c r="C75" t="n">
-        <v>6.602166753154427e-56</v>
+        <v>6.658409319339652e-56</v>
       </c>
     </row>
     <row r="76">
@@ -1200,7 +1200,7 @@
         <v>4.286305126590811</v>
       </c>
       <c r="C76" t="n">
-        <v>5.366799430103251e-56</v>
+        <v>5.368540741920243e-56</v>
       </c>
     </row>
     <row r="77">
@@ -1211,7 +1211,7 @@
         <v>4.29024726582272</v>
       </c>
       <c r="C77" t="n">
-        <v>4.032055525090085e-56</v>
+        <v>4.045211601044984e-56</v>
       </c>
     </row>
     <row r="78">
@@ -1222,7 +1222,7 @@
         <v>4.298731435039221</v>
       </c>
       <c r="C78" t="n">
-        <v>2.454202791084118e-56</v>
+        <v>2.469402460881936e-56</v>
       </c>
     </row>
     <row r="79">
@@ -1233,7 +1233,7 @@
         <v>4.303359163702766</v>
       </c>
       <c r="C79" t="n">
-        <v>1.967332813261255e-56</v>
+        <v>1.977260960284109e-56</v>
       </c>
     </row>
     <row r="80">
@@ -1244,7 +1244,7 @@
         <v>4.307472700292585</v>
       </c>
       <c r="C80" t="n">
-        <v>1.507546505927035e-56</v>
+        <v>1.510936957317156e-56</v>
       </c>
     </row>
     <row r="81">
@@ -1255,7 +1255,7 @@
         <v>4.309957961982268</v>
       </c>
       <c r="C81" t="n">
-        <v>1.334827512824448e-56</v>
+        <v>1.340679443962478e-56</v>
       </c>
     </row>
     <row r="82">
@@ -1266,7 +1266,7 @@
         <v>4.310129359340176</v>
       </c>
       <c r="C82" t="n">
-        <v>1.334884174466636e-56</v>
+        <v>1.338259136640377e-56</v>
       </c>
     </row>
     <row r="83">
@@ -1277,7 +1277,7 @@
         <v>4.311757634240313</v>
       </c>
       <c r="C83" t="n">
-        <v>1.262454830945385e-56</v>
+        <v>1.266555702043195e-56</v>
       </c>
     </row>
     <row r="84">
@@ -1288,7 +1288,7 @@
         <v>4.31604256818804</v>
       </c>
       <c r="C84" t="n">
-        <v>1.080027341149562e-56</v>
+        <v>1.082416713826859e-56</v>
       </c>
     </row>
     <row r="85">
@@ -1299,7 +1299,7 @@
         <v>4.318613528556677</v>
       </c>
       <c r="C85" t="n">
-        <v>1.013103598921744e-56</v>
+        <v>1.014487334051636e-56</v>
       </c>
     </row>
     <row r="86">
@@ -1310,7 +1310,7 @@
         <v>4.320584598172632</v>
       </c>
       <c r="C86" t="n">
-        <v>9.69066937332335e-57</v>
+        <v>9.697729731234804e-57</v>
       </c>
     </row>
     <row r="87">
@@ -1321,7 +1321,7 @@
         <v>4.322898462504404</v>
       </c>
       <c r="C87" t="n">
-        <v>1.005867981754701e-56</v>
+        <v>1.009820710900938e-56</v>
       </c>
     </row>
     <row r="88">
@@ -1332,7 +1332,7 @@
         <v>4.325555121551995</v>
       </c>
       <c r="C88" t="n">
-        <v>1.019047483221358e-56</v>
+        <v>1.019148140472875e-56</v>
       </c>
     </row>
     <row r="89">
@@ -1343,7 +1343,7 @@
         <v>4.327954684562723</v>
       </c>
       <c r="C89" t="n">
-        <v>9.992950656669123e-57</v>
+        <v>9.98739940094986e-57</v>
       </c>
     </row>
     <row r="90">
@@ -1354,7 +1354,7 @@
         <v>4.330782740968223</v>
       </c>
       <c r="C90" t="n">
-        <v>9.329333842865637e-57</v>
+        <v>9.333019344239072e-57</v>
       </c>
     </row>
     <row r="91">
@@ -1365,7 +1365,7 @@
         <v>4.33318230397895</v>
       </c>
       <c r="C91" t="n">
-        <v>8.49120832509404e-57</v>
+        <v>8.517847186103559e-57</v>
       </c>
     </row>
     <row r="92">
@@ -1376,7 +1376,7 @@
         <v>4.337638635284587</v>
       </c>
       <c r="C92" t="n">
-        <v>7.100960682294142e-57</v>
+        <v>7.096091422642296e-57</v>
       </c>
     </row>
     <row r="93">
@@ -1387,7 +1387,7 @@
         <v>4.341752171874406</v>
       </c>
       <c r="C93" t="n">
-        <v>5.436133882955005e-57</v>
+        <v>5.464310673664729e-57</v>
       </c>
     </row>
     <row r="94">
@@ -1398,7 +1398,7 @@
         <v>4.350407738448815</v>
       </c>
       <c r="C94" t="n">
-        <v>2.660932698169219e-57</v>
+        <v>2.677781613837048e-57</v>
       </c>
     </row>
     <row r="95">
@@ -1409,7 +1409,7 @@
         <v>4.354692672396543</v>
       </c>
       <c r="C95" t="n">
-        <v>1.98205629940227e-57</v>
+        <v>2.002879624242559e-57</v>
       </c>
     </row>
     <row r="96">
@@ -1420,7 +1420,7 @@
         <v>4.358634811628452</v>
       </c>
       <c r="C96" t="n">
-        <v>1.432048367609532e-57</v>
+        <v>1.439479197343506e-57</v>
       </c>
     </row>
     <row r="97">
@@ -1431,7 +1431,7 @@
         <v>4.366947583487043</v>
       </c>
       <c r="C97" t="n">
-        <v>8.735638853867874e-58</v>
+        <v>8.785896183352376e-58</v>
       </c>
     </row>
     <row r="98">
@@ -1442,7 +1442,7 @@
         <v>4.371918106866407</v>
       </c>
       <c r="C98" t="n">
-        <v>7.147783984768988e-58</v>
+        <v>7.158846807802652e-58</v>
       </c>
     </row>
     <row r="99">
@@ -1453,7 +1453,7 @@
         <v>4.375088957987725</v>
       </c>
       <c r="C99" t="n">
-        <v>6.408182313347455e-58</v>
+        <v>6.410336059592142e-58</v>
       </c>
     </row>
     <row r="100">
@@ -1464,7 +1464,7 @@
         <v>4.377745617035317</v>
       </c>
       <c r="C100" t="n">
-        <v>6.078821762416567e-58</v>
+        <v>6.043441403044045e-58</v>
       </c>
     </row>
     <row r="101">
@@ -1475,7 +1475,7 @@
         <v>4.379545289293363</v>
       </c>
       <c r="C101" t="n">
-        <v>5.486256145200121e-58</v>
+        <v>5.449593507191599e-58</v>
       </c>
     </row>
     <row r="102">
@@ -1486,7 +1486,7 @@
         <v>4.380487974761863</v>
       </c>
       <c r="C102" t="n">
-        <v>5.334126182074759e-58</v>
+        <v>5.337980045003663e-58</v>
       </c>
     </row>
     <row r="103">
@@ -1497,7 +1497,7 @@
         <v>4.380830769477681</v>
       </c>
       <c r="C103" t="n">
-        <v>5.322989007086826e-58</v>
+        <v>5.284493958851227e-58</v>
       </c>
     </row>
     <row r="104">
@@ -1508,7 +1508,7 @@
         <v>4.381087865514544</v>
       </c>
       <c r="C104" t="n">
-        <v>5.218303679462267e-58</v>
+        <v>5.225476835546851e-58</v>
       </c>
     </row>
     <row r="105">
@@ -1519,7 +1519,7 @@
         <v>4.382973236451544</v>
       </c>
       <c r="C105" t="n">
-        <v>4.846313912251594e-58</v>
+        <v>4.890819305711686e-58</v>
       </c>
     </row>
     <row r="106">
@@ -1530,7 +1530,7 @@
         <v>4.384687210030635</v>
       </c>
       <c r="C106" t="n">
-        <v>4.49588055895636e-58</v>
+        <v>4.475783870276811e-58</v>
       </c>
     </row>
     <row r="107">
@@ -1541,7 +1541,7 @@
         <v>4.386401183609727</v>
       </c>
       <c r="C107" t="n">
-        <v>4.224767319379048e-58</v>
+        <v>4.217210191442408e-58</v>
       </c>
     </row>
     <row r="108">
@@ -1552,7 +1552,7 @@
         <v>4.388029458509863</v>
       </c>
       <c r="C108" t="n">
-        <v>3.783925346534819e-58</v>
+        <v>3.764157395629739e-58</v>
       </c>
     </row>
     <row r="109">
@@ -1563,7 +1563,7 @@
         <v>4.389057842657317</v>
       </c>
       <c r="C109" t="n">
-        <v>3.699305538105454e-58</v>
+        <v>3.667132395506457e-58</v>
       </c>
     </row>
     <row r="110">
@@ -1574,7 +1574,7 @@
         <v>4.389743432088954</v>
       </c>
       <c r="C110" t="n">
-        <v>3.693069136191382e-58</v>
+        <v>3.688283882936343e-58</v>
       </c>
     </row>
     <row r="111">
@@ -1585,7 +1585,7 @@
         <v>4.392314392457591</v>
       </c>
       <c r="C111" t="n">
-        <v>3.39272316005784e-58</v>
+        <v>3.342546998430906e-58</v>
       </c>
     </row>
     <row r="112">
@@ -1596,7 +1596,7 @@
         <v>4.396599326405318</v>
       </c>
       <c r="C112" t="n">
-        <v>2.648171387799789e-58</v>
+        <v>2.624934634130697e-58</v>
       </c>
     </row>
     <row r="113">
@@ -1607,7 +1607,7 @@
         <v>4.400884260353045</v>
       </c>
       <c r="C113" t="n">
-        <v>2.062808189571753e-58</v>
+        <v>2.07173817163211e-58</v>
       </c>
     </row>
     <row r="114">
@@ -1618,7 +1618,7 @@
         <v>4.404912098263909</v>
       </c>
       <c r="C114" t="n">
-        <v>1.731868319068072e-58</v>
+        <v>1.731964144715662e-58</v>
       </c>
     </row>
     <row r="115">
@@ -1629,7 +1629,7 @@
         <v>4.406111879769273</v>
       </c>
       <c r="C115" t="n">
-        <v>1.625551740101592e-58</v>
+        <v>1.647399293719124e-58</v>
       </c>
     </row>
     <row r="116">
@@ -1640,7 +1640,7 @@
         <v>4.4094541282485</v>
       </c>
       <c r="C116" t="n">
-        <v>1.847386653236417e-58</v>
+        <v>1.840660068260405e-58</v>
       </c>
     </row>
     <row r="117">
@@ -1651,7 +1651,7 @@
         <v>4.413824760875183</v>
       </c>
       <c r="C117" t="n">
-        <v>2.792683508066186e-58</v>
+        <v>2.779917816414473e-58</v>
       </c>
     </row>
     <row r="118">
@@ -1662,7 +1662,7 @@
         <v>4.41622432388591</v>
       </c>
       <c r="C118" t="n">
-        <v>3.150189187684763e-58</v>
+        <v>3.152956474040005e-58</v>
       </c>
     </row>
     <row r="119">
@@ -1673,7 +1673,7 @@
         <v>4.418795284254546</v>
       </c>
       <c r="C119" t="n">
-        <v>3.12207161656094e-58</v>
+        <v>3.113643218246757e-58</v>
       </c>
     </row>
     <row r="120">
@@ -1684,7 +1684,7 @@
         <v>4.421623340660047</v>
       </c>
       <c r="C120" t="n">
-        <v>2.924783684025856e-58</v>
+        <v>2.920971083230487e-58</v>
       </c>
     </row>
     <row r="121">
@@ -1695,7 +1695,7 @@
         <v>4.423337314239138</v>
       </c>
       <c r="C121" t="n">
-        <v>2.863845619522162e-58</v>
+        <v>2.861317139832219e-58</v>
       </c>
     </row>
     <row r="122">
@@ -1706,7 +1706,7 @@
         <v>4.424194301028683</v>
       </c>
       <c r="C122" t="n">
-        <v>2.805081260624425e-58</v>
+        <v>2.815566746215838e-58</v>
       </c>
     </row>
     <row r="123">
@@ -1717,7 +1717,7 @@
         <v>4.429336221765956</v>
       </c>
       <c r="C123" t="n">
-        <v>2.329785371868288e-58</v>
+        <v>2.342770112612604e-58</v>
       </c>
     </row>
     <row r="124">
@@ -1728,7 +1728,7 @@
         <v>4.431392990060865</v>
       </c>
       <c r="C124" t="n">
-        <v>2.029185945003592e-58</v>
+        <v>2.042419655373265e-58</v>
       </c>
     </row>
     <row r="125">
@@ -1739,7 +1739,7 @@
         <v>4.440477050030048</v>
       </c>
       <c r="C125" t="n">
-        <v>9.842343634531271e-59</v>
+        <v>9.861047130266296e-59</v>
       </c>
     </row>
     <row r="126">
@@ -1750,7 +1750,7 @@
         <v>4.457445388463049</v>
       </c>
       <c r="C126" t="n">
-        <v>3.961938898652645e-59</v>
+        <v>3.995283387473305e-59</v>
       </c>
     </row>
     <row r="127">
@@ -1761,7 +1761,7 @@
         <v>4.474756521611869</v>
       </c>
       <c r="C127" t="n">
-        <v>2.225299109467575e-59</v>
+        <v>2.226435216175338e-59</v>
       </c>
     </row>
     <row r="128">
@@ -1772,7 +1772,7 @@
         <v>4.491896257402779</v>
       </c>
       <c r="C128" t="n">
-        <v>1.54780967888927e-59</v>
+        <v>1.560477236936334e-59</v>
       </c>
     </row>
     <row r="129">
@@ -1783,7 +1783,7 @@
         <v>4.500037631903461</v>
       </c>
       <c r="C129" t="n">
-        <v>1.729107451924024e-59</v>
+        <v>1.729481997957898e-59</v>
       </c>
     </row>
     <row r="130">
@@ -1794,7 +1794,7 @@
         <v>4.503122784345824</v>
       </c>
       <c r="C130" t="n">
-        <v>1.756704813516219e-59</v>
+        <v>1.752886679738203e-59</v>
       </c>
     </row>
     <row r="131">
@@ -1805,7 +1805,7 @@
         <v>4.509121691872643</v>
       </c>
       <c r="C131" t="n">
-        <v>2.223599852183606e-59</v>
+        <v>2.212567317265087e-59</v>
       </c>
     </row>
     <row r="132">
@@ -1816,7 +1816,7 @@
         <v>4.517520162410189</v>
       </c>
       <c r="C132" t="n">
-        <v>2.322455460641029e-59</v>
+        <v>2.36066629267605e-59</v>
       </c>
     </row>
     <row r="133">
@@ -1827,7 +1827,7 @@
         <v>4.521890795036872</v>
       </c>
       <c r="C133" t="n">
-        <v>2.147713825093701e-59</v>
+        <v>2.150883910155648e-59</v>
       </c>
     </row>
     <row r="134">
@@ -1838,7 +1838,7 @@
         <v>4.526175728984599</v>
       </c>
       <c r="C134" t="n">
-        <v>1.817303098509198e-59</v>
+        <v>1.819501620229766e-59</v>
       </c>
     </row>
     <row r="135">
@@ -1849,7 +1849,7 @@
         <v>4.530460662932327</v>
       </c>
       <c r="C135" t="n">
-        <v>1.438991891884264e-59</v>
+        <v>1.43728695027797e-59</v>
       </c>
     </row>
     <row r="136">
@@ -1860,7 +1860,7 @@
         <v>4.534574199522145</v>
       </c>
       <c r="C136" t="n">
-        <v>1.138489027978743e-59</v>
+        <v>1.133909604693453e-59</v>
       </c>
     </row>
     <row r="137">
@@ -1871,7 +1871,7 @@
         <v>4.539030530827781</v>
       </c>
       <c r="C137" t="n">
-        <v>8.545411639643988e-60</v>
+        <v>8.669457067114447e-60</v>
       </c>
     </row>
     <row r="138">
@@ -1882,7 +1882,7 @@
         <v>4.543486862133419</v>
       </c>
       <c r="C138" t="n">
-        <v>6.976875317416223e-60</v>
+        <v>6.91803447997698e-60</v>
       </c>
     </row>
     <row r="139">
@@ -1893,7 +1893,7 @@
         <v>4.545800726465191</v>
       </c>
       <c r="C139" t="n">
-        <v>6.51768347576179e-60</v>
+        <v>6.389210568567674e-60</v>
       </c>
     </row>
     <row r="140">
@@ -1904,7 +1904,7 @@
         <v>4.549914263055009</v>
       </c>
       <c r="C140" t="n">
-        <v>5.574267334668877e-60</v>
+        <v>5.124910355374238e-60</v>
       </c>
     </row>
     <row r="141">
@@ -1915,7 +1915,7 @@
         <v>4.551628236634101</v>
       </c>
       <c r="C141" t="n">
-        <v>5.295429070208506e-60</v>
+        <v>5.261171079458629e-60</v>
       </c>
     </row>
     <row r="142">
@@ -1926,7 +1926,7 @@
         <v>4.553942100965873</v>
       </c>
       <c r="C142" t="n">
-        <v>4.789528478150075e-60</v>
+        <v>4.804485582015326e-60</v>
       </c>
     </row>
     <row r="143">
@@ -1937,7 +1937,7 @@
         <v>4.558912624345237</v>
       </c>
       <c r="C143" t="n">
-        <v>4.585702450043843e-60</v>
+        <v>4.420919721535049e-60</v>
       </c>
     </row>
     <row r="144">
@@ -1948,7 +1948,7 @@
         <v>4.562940462256101</v>
       </c>
       <c r="C144" t="n">
-        <v>4.704683539339682e-60</v>
+        <v>4.658655904701217e-60</v>
       </c>
     </row>
     <row r="145">
@@ -1959,7 +1959,7 @@
         <v>4.56688260148801</v>
       </c>
       <c r="C145" t="n">
-        <v>4.733852518224546e-60</v>
+        <v>4.712185228611516e-60</v>
       </c>
     </row>
     <row r="146">
@@ -1970,7 +1970,7 @@
         <v>4.571424631472602</v>
       </c>
       <c r="C146" t="n">
-        <v>4.703281338055924e-60</v>
+        <v>4.683053291381151e-60</v>
       </c>
     </row>
     <row r="147">
@@ -1981,7 +1981,7 @@
         <v>4.575623866741375</v>
       </c>
       <c r="C147" t="n">
-        <v>4.814592751911445e-60</v>
+        <v>4.803914999169427e-60</v>
       </c>
     </row>
     <row r="148">
@@ -1992,7 +1992,7 @@
         <v>4.580080198047011</v>
       </c>
       <c r="C148" t="n">
-        <v>4.680617571609093e-60</v>
+        <v>4.688571599847828e-60</v>
       </c>
     </row>
     <row r="149">
@@ -2003,7 +2003,7 @@
         <v>4.58402233727892</v>
       </c>
       <c r="C149" t="n">
-        <v>4.094466080245063e-60</v>
+        <v>4.083372191347173e-60</v>
       </c>
     </row>
     <row r="150">
@@ -2014,7 +2014,7 @@
         <v>4.588478668584557</v>
       </c>
       <c r="C150" t="n">
-        <v>3.264503213208366e-60</v>
+        <v>3.274846750192987e-60</v>
       </c>
     </row>
     <row r="151">
@@ -2025,7 +2025,7 @@
         <v>4.588650065942466</v>
       </c>
       <c r="C151" t="n">
-        <v>3.194138294182879e-60</v>
+        <v>3.207516973782525e-60</v>
       </c>
     </row>
     <row r="152">
@@ -2036,7 +2036,7 @@
         <v>4.592078013100648</v>
       </c>
       <c r="C152" t="n">
-        <v>2.579152958385295e-60</v>
+        <v>2.597018926880909e-60</v>
       </c>
     </row>
     <row r="153">
@@ -2047,7 +2047,7 @@
         <v>4.593277794606012</v>
       </c>
       <c r="C153" t="n">
-        <v>2.391767028292232e-60</v>
+        <v>2.398025627243979e-60</v>
       </c>
     </row>
     <row r="154">
@@ -2058,7 +2058,7 @@
         <v>4.593534890642876</v>
       </c>
       <c r="C154" t="n">
-        <v>2.316979815883256e-60</v>
+        <v>2.326197166628289e-60</v>
       </c>
     </row>
     <row r="155">
@@ -2069,7 +2069,7 @@
         <v>4.596534344406285</v>
       </c>
       <c r="C155" t="n">
-        <v>2.688677690707152e-60</v>
+        <v>2.703328788168303e-60</v>
       </c>
     </row>
     <row r="156">
@@ -2080,7 +2080,7 @@
         <v>4.597819824590603</v>
       </c>
       <c r="C156" t="n">
-        <v>2.277868682615855e-60</v>
+        <v>2.283168674438471e-60</v>
       </c>
     </row>
     <row r="157">
@@ -2091,7 +2091,7 @@
         <v>4.601504867785649</v>
       </c>
       <c r="C157" t="n">
-        <v>2.163291301300267e-60</v>
+        <v>2.174803527108336e-60</v>
       </c>
     </row>
     <row r="158">
@@ -2102,7 +2102,7 @@
         <v>4.603133142685785</v>
       </c>
       <c r="C158" t="n">
-        <v>1.880467357482323e-60</v>
+        <v>1.888261028791912e-60</v>
       </c>
     </row>
     <row r="159">
@@ -2113,7 +2113,7 @@
         <v>4.604932814943831</v>
       </c>
       <c r="C159" t="n">
-        <v>1.678448040182615e-60</v>
+        <v>1.685806582608574e-60</v>
       </c>
     </row>
     <row r="160">
@@ -2124,7 +2124,7 @@
         <v>4.606646788522922</v>
       </c>
       <c r="C160" t="n">
-        <v>1.522155383411698e-60</v>
+        <v>1.523292165273111e-60</v>
       </c>
     </row>
     <row r="161">
@@ -2135,7 +2135,7 @@
         <v>4.608446460780968</v>
       </c>
       <c r="C161" t="n">
-        <v>1.341701294245583e-60</v>
+        <v>1.351141939151213e-60</v>
       </c>
     </row>
     <row r="162">
@@ -2146,7 +2146,7 @@
         <v>4.610160434360059</v>
       </c>
       <c r="C162" t="n">
-        <v>1.196676098115159e-60</v>
+        <v>1.20206929767129e-60</v>
       </c>
     </row>
     <row r="163">
@@ -2157,7 +2157,7 @@
         <v>4.611617311902286</v>
       </c>
       <c r="C163" t="n">
-        <v>1.173805909448155e-60</v>
+        <v>1.181193426462932e-60</v>
       </c>
     </row>
     <row r="164">
@@ -2168,7 +2168,7 @@
         <v>4.615987944528968</v>
       </c>
       <c r="C164" t="n">
-        <v>5.39636966326261e-61</v>
+        <v>5.427209390460796e-61</v>
       </c>
     </row>
     <row r="165">
@@ -2179,7 +2179,7 @@
         <v>4.620529974513559</v>
       </c>
       <c r="C165" t="n">
-        <v>1.973932142938826e-61</v>
+        <v>2.032590328700353e-61</v>
       </c>
     </row>
     <row r="166">
@@ -2190,7 +2190,7 @@
         <v>4.622929537524286</v>
       </c>
       <c r="C166" t="n">
-        <v>1.116005684745021e-61</v>
+        <v>1.140147428172764e-61</v>
       </c>
     </row>
     <row r="167">
@@ -2201,7 +2201,7 @@
         <v>4.623272332240105</v>
       </c>
       <c r="C167" t="n">
-        <v>1.592018237113875e-61</v>
+        <v>1.619288753116451e-61</v>
       </c>
     </row>
     <row r="168">
@@ -2212,7 +2212,7 @@
         <v>4.623786524313832</v>
       </c>
       <c r="C168" t="n">
-        <v>9.779168784819321e-62</v>
+        <v>1.009284072972281e-61</v>
       </c>
     </row>
     <row r="169">
@@ -2223,7 +2223,7 @@
         <v>4.625586196571877</v>
       </c>
       <c r="C169" t="n">
-        <v>7.45990002462596e-62</v>
+        <v>7.748611939775546e-62</v>
       </c>
     </row>
     <row r="170">
@@ -2234,7 +2234,7 @@
         <v>4.628928445051105</v>
       </c>
       <c r="C170" t="n">
-        <v>5.724743792866792e-62</v>
+        <v>5.926637771781498e-62</v>
       </c>
     </row>
     <row r="171">
@@ -2245,7 +2245,7 @@
         <v>4.631670802777651</v>
       </c>
       <c r="C171" t="n">
-        <v>5.362459665716831e-62</v>
+        <v>4.908221348172905e-62</v>
       </c>
     </row>
     <row r="172">
@@ -2256,7 +2256,7 @@
         <v>4.64049776670997</v>
       </c>
       <c r="C172" t="n">
-        <v>6.165448362674292e-62</v>
+        <v>6.213354813690804e-62</v>
       </c>
     </row>
     <row r="173">
@@ -2267,7 +2267,7 @@
         <v>4.649667525358106</v>
       </c>
       <c r="C173" t="n">
-        <v>8.773381423207616e-62</v>
+        <v>8.715320860501828e-62</v>
       </c>
     </row>
     <row r="174">
@@ -2278,7 +2278,7 @@
         <v>4.658494489290425</v>
       </c>
       <c r="C174" t="n">
-        <v>7.633963377145292e-62</v>
+        <v>7.70960067462949e-62</v>
       </c>
     </row>
     <row r="175">
@@ -2289,7 +2289,7 @@
         <v>4.667921343975426</v>
       </c>
       <c r="C175" t="n">
-        <v>5.093235360562935e-62</v>
+        <v>5.17812884051562e-62</v>
       </c>
     </row>
     <row r="176">
@@ -2300,7 +2300,7 @@
         <v>4.671263592454653</v>
       </c>
       <c r="C176" t="n">
-        <v>4.130592469140438e-62</v>
+        <v>4.214563812449986e-62</v>
       </c>
     </row>
   </sheetData>
